--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Invention\Mech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6F1699-60CC-41C9-B77F-EB68B24E30C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A15BE8-0C20-4031-B6C9-707A247ADBDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-375" yWindow="-13365" windowWidth="12585" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#\ ???/???"/>
+    <numFmt numFmtId="164" formatCode="#\ ???/???"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -118,10 +118,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,17 +417,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -459,11 +459,11 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
         <v>1.5625E-2</v>
       </c>
       <c r="G4">
@@ -480,23 +480,23 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
         <v>3.125E-2</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="3"/>
       <c r="J5">
         <v>0.79400000000000004</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
         <v>4.6875E-2</v>
       </c>
       <c r="J6">
@@ -504,23 +504,23 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
         <v>6.25E-2</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
       <c r="J7">
         <v>1.5880000000000001</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
         <v>7.8125E-2</v>
       </c>
       <c r="J8">
@@ -528,21 +528,21 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
       <c r="J9">
         <v>2.3809999999999998</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
         <v>0.109375</v>
       </c>
       <c r="J10">
@@ -550,350 +550,350 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
       <c r="J11">
         <v>3.1749999999999998</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4">
-        <v>1.5625E-2</v>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>0.140625</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4">
-        <v>1.5625E-2</v>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
+        <v>0.171875</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
         <v>1.5625E-2</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
         <v>1.5625E-2</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3">
         <v>1.5625E-2</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3">
         <v>1.5625E-2</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3">
         <v>1.5625E-2</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3">
         <v>1.5625E-2</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3">
         <v>1.5625E-2</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3">
         <v>1.5625E-2</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3">
         <v>1.5625E-2</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3">
         <v>1.5625E-2</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3">
         <v>1.5625E-2</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3">
         <v>1.5625E-2</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3">
         <v>1.5625E-2</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3">
         <v>1.5625E-2</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3">
         <v>1.5625E-2</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3">
         <v>1.5625E-2</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3">
         <v>1.5625E-2</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3">
         <v>1.5625E-2</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3">
         <v>1.5625E-2</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Invention\Mech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A15BE8-0C20-4031-B6C9-707A247ADBDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C552B0A-8C5C-4D0E-8104-23EFFF504E87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-375" yWindow="-13365" windowWidth="12585" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>4ths</t>
   </si>
@@ -58,6 +58,27 @@
   </si>
   <si>
     <t>Decimal and Millimeter Equivalents</t>
+  </si>
+  <si>
+    <t>51/64</t>
+  </si>
+  <si>
+    <t>53/64</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>57/64</t>
+  </si>
+  <si>
+    <t>59/64</t>
+  </si>
+  <si>
+    <t>61/64</t>
+  </si>
+  <si>
+    <t>63/64</t>
   </si>
 </sst>
 </file>
@@ -100,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -108,19 +129,142 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J53"/>
+  <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,483 +561,840 @@
   <sheetData>
     <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
         <v>1.5625E-2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>0.02</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <v>0.39700000000000002</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
         <v>3.125E-2</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="J5">
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4">
         <v>0.79400000000000004</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
         <v>4.6875E-2</v>
       </c>
-      <c r="J6">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4">
         <v>1.1910000000000001</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
         <v>6.25E-2</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="J7">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4">
         <v>1.5880000000000001</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
         <v>7.8125E-2</v>
       </c>
-      <c r="J8">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4">
         <v>1.984</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="J9">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4">
         <v>2.3809999999999998</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
         <v>0.109375</v>
       </c>
-      <c r="J10">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4">
         <v>2.778</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="J11">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4">
         <v>3.1749999999999998</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
         <v>0.140625</v>
       </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
         <v>0.171875</v>
       </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3">
-        <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3">
-        <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3">
-        <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3">
-        <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3">
-        <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3">
-        <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3">
-        <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3">
-        <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3">
-        <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3">
-        <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3">
-        <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3">
-        <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3">
-        <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3">
-        <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3">
-        <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3">
-        <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3">
-        <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3">
-        <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3">
-        <v>1.5625E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>0.203125</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
+        <v>0.234375</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>0.265625</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
+        <v>0.296875</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <v>0.328125</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
+        <v>0.359375</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2">
+        <v>0.390625</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2">
+        <v>0.421875</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2">
+        <v>0.453125</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2">
+        <v>0.484375</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2">
+        <v>0.515625</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2">
+        <v>0.546875</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2">
+        <v>0.578125</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2">
+        <v>0.609375</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2">
+        <v>0.640625</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2">
+        <v>0.671875</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2">
+        <v>0.703125</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2">
+        <v>0.734375</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2">
+        <v>0.765625</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="5"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="5"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="6"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C552B0A-8C5C-4D0E-8104-23EFFF504E87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2692E97A-F075-4B27-ACD8-2BD838BD566F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-375" yWindow="-13365" windowWidth="12585" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -244,15 +244,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -266,6 +257,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,7 +550,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,44 +562,44 @@
   <sheetData>
     <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -631,9 +632,15 @@
         <v>3.125E-2</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="G5" s="3">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0.03</v>
+      </c>
       <c r="J5" s="4">
         <v>0.79400000000000004</v>
       </c>
@@ -1222,7 +1229,7 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="14"/>
+      <c r="F53" s="11"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -1233,7 +1240,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="3"/>
@@ -1246,7 +1253,7 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="15"/>
+      <c r="F55" s="12"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -1257,7 +1264,7 @@
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="15" t="s">
+      <c r="F56" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="3"/>
@@ -1270,7 +1277,7 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="15"/>
+      <c r="F57" s="12"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -1281,7 +1288,7 @@
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="15" t="s">
+      <c r="F58" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G58" s="3"/>
@@ -1294,7 +1301,7 @@
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="15"/>
+      <c r="F59" s="12"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -1305,7 +1312,7 @@
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="15" t="s">
+      <c r="F60" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G60" s="3"/>
@@ -1318,7 +1325,7 @@
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="15"/>
+      <c r="F61" s="12"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -1329,7 +1336,7 @@
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="15" t="s">
+      <c r="F62" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G62" s="3"/>
@@ -1342,7 +1349,7 @@
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="15"/>
+      <c r="F63" s="12"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -1353,7 +1360,7 @@
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="15" t="s">
+      <c r="F64" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="3"/>
@@ -1366,7 +1373,7 @@
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="15"/>
+      <c r="F65" s="12"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -1377,7 +1384,7 @@
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="15" t="s">
+      <c r="F66" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="3"/>
@@ -1390,7 +1397,7 @@
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
-      <c r="F67" s="16"/>
+      <c r="F67" s="13"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2692E97A-F075-4B27-ACD8-2BD838BD566F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2B24F0-8B21-4EE3-B26D-FDDFA67F83D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-375" yWindow="-13365" windowWidth="12585" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1275" yWindow="-13620" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,8 +85,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -243,7 +244,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -257,6 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -266,7 +267,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,31 +576,31 @@
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -638,7 +639,7 @@
       <c r="H5" s="3">
         <v>3.1E-2</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="13">
         <v>0.03</v>
       </c>
       <c r="J5" s="4">
@@ -742,7 +743,9 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
+      <c r="J12" s="4">
+        <v>3.5720000000000001</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
@@ -753,7 +756,9 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="4">
+        <v>3.9689999999999999</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -766,7 +771,9 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
+      <c r="J14" s="4">
+        <v>4.3659999999999997</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
@@ -777,7 +784,9 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="4"/>
+      <c r="J15" s="4">
+        <v>4.7619999999999996</v>
+      </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
@@ -790,7 +799,9 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="4"/>
+      <c r="J16" s="4">
+        <v>5.1589999999999998</v>
+      </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
@@ -801,7 +812,9 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
+      <c r="J17" s="4">
+        <v>5.556</v>
+      </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
@@ -814,7 +827,9 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
+      <c r="J18" s="4">
+        <v>5.9530000000000003</v>
+      </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
@@ -1229,7 +1244,7 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="11"/>
+      <c r="F53" s="10"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -1240,7 +1255,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="3"/>
@@ -1253,7 +1268,7 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="12"/>
+      <c r="F55" s="11"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -1264,7 +1279,7 @@
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="12" t="s">
+      <c r="F56" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="3"/>
@@ -1277,7 +1292,7 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="12"/>
+      <c r="F57" s="11"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -1288,7 +1303,7 @@
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="12" t="s">
+      <c r="F58" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G58" s="3"/>
@@ -1301,7 +1316,7 @@
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="12"/>
+      <c r="F59" s="11"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -1312,7 +1327,7 @@
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="12" t="s">
+      <c r="F60" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G60" s="3"/>
@@ -1325,7 +1340,7 @@
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="12"/>
+      <c r="F61" s="11"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -1336,7 +1351,7 @@
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="12" t="s">
+      <c r="F62" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G62" s="3"/>
@@ -1349,7 +1364,7 @@
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="12"/>
+      <c r="F63" s="11"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -1360,7 +1375,7 @@
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="12" t="s">
+      <c r="F64" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="3"/>
@@ -1373,7 +1388,7 @@
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="12"/>
+      <c r="F65" s="11"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -1384,7 +1399,7 @@
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="12" t="s">
+      <c r="F66" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="3"/>
@@ -1397,11 +1412,13 @@
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
-      <c r="F67" s="13"/>
+      <c r="F67" s="12"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
-      <c r="J67" s="8"/>
+      <c r="J67" s="17">
+        <v>25.4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2B24F0-8B21-4EE3-B26D-FDDFA67F83D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4021007-AE82-43A1-9BF6-C947FB3144E4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1275" yWindow="-13620" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,7 +840,9 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="4"/>
+      <c r="J19" s="4">
+        <v>6.35</v>
+      </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
@@ -853,7 +855,9 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
+      <c r="J20" s="4">
+        <v>6.7469999999999999</v>
+      </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
@@ -864,7 +868,9 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
+      <c r="J21" s="4">
+        <v>7.1440000000000001</v>
+      </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
@@ -877,7 +883,9 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="4"/>
+      <c r="J22" s="4">
+        <v>7.5410000000000004</v>
+      </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
@@ -888,7 +896,9 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="4"/>
+      <c r="J23" s="4">
+        <v>7.9379999999999997</v>
+      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
@@ -901,7 +911,9 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
+      <c r="J24" s="4">
+        <v>8.3339999999999996</v>
+      </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
@@ -912,7 +924,9 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="4"/>
+      <c r="J25" s="4">
+        <v>8.7309999999999999</v>
+      </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4021007-AE82-43A1-9BF6-C947FB3144E4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C800D3FE-DF80-438F-9C53-7FAAAD53C43D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1275" yWindow="-13620" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,7 +939,9 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="4"/>
+      <c r="J26" s="4">
+        <v>9.1280000000000001</v>
+      </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
@@ -950,7 +952,9 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="4"/>
+      <c r="J27" s="4">
+        <v>9.5250000000000004</v>
+      </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
@@ -963,7 +967,9 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="4"/>
+      <c r="J28" s="4">
+        <v>9.9220000000000006</v>
+      </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
@@ -974,7 +980,9 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="4"/>
+      <c r="J29" s="4">
+        <v>10.319000000000001</v>
+      </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C800D3FE-DF80-438F-9C53-7FAAAD53C43D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61463C73-595B-452F-974A-764831346C54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1275" yWindow="-13620" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +995,9 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="4"/>
+      <c r="J30" s="4">
+        <v>10.715999999999999</v>
+      </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
@@ -1006,7 +1008,9 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="4"/>
+      <c r="J31" s="4">
+        <v>11.112</v>
+      </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61463C73-595B-452F-974A-764831346C54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AA1399-F6AE-4E4D-BCD9-DFD5A4632E5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1275" yWindow="-13620" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1023,9 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="4"/>
+      <c r="J32" s="4">
+        <v>11.509</v>
+      </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
@@ -1034,7 +1036,9 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="4"/>
+      <c r="J33" s="4">
+        <v>11.906000000000001</v>
+      </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
@@ -1047,7 +1051,9 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="4"/>
+      <c r="J34" s="4">
+        <v>12.303000000000001</v>
+      </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
@@ -1058,7 +1064,9 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
+      <c r="J35" s="4">
+        <v>12.7</v>
+      </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AA1399-F6AE-4E4D-BCD9-DFD5A4632E5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09736E1C-B20D-4C63-B8F0-E29DE2FB2AF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1275" yWindow="-13620" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,7 +1079,9 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="4"/>
+      <c r="J36" s="4">
+        <v>13.097</v>
+      </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09736E1C-B20D-4C63-B8F0-E29DE2FB2AF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492B74C6-92B2-45C1-8AF7-21BCCC31F812}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1275" yWindow="-13620" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,7 +1092,9 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="4"/>
+      <c r="J37" s="4">
+        <v>13.494</v>
+      </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
@@ -1105,7 +1107,9 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="4"/>
+      <c r="J38" s="4">
+        <v>13.891</v>
+      </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
@@ -1116,7 +1120,9 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="4"/>
+      <c r="J39" s="4">
+        <v>14.288</v>
+      </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
@@ -1129,7 +1135,9 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="4"/>
+      <c r="J40" s="4">
+        <v>14.683999999999999</v>
+      </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492B74C6-92B2-45C1-8AF7-21BCCC31F812}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9EB978-F295-4F3D-9E95-3E2A4BAA18BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1275" yWindow="-13620" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,7 +1148,9 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="4"/>
+      <c r="J41" s="4">
+        <v>15.081</v>
+      </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
@@ -1161,7 +1163,9 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="4"/>
+      <c r="J42" s="4">
+        <v>15.478</v>
+      </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
@@ -1172,7 +1176,9 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="4"/>
+      <c r="J43" s="4">
+        <v>15.875</v>
+      </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
@@ -1185,7 +1191,9 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="4"/>
+      <c r="J44" s="4">
+        <v>16.271999999999998</v>
+      </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
@@ -1196,7 +1204,9 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="4"/>
+      <c r="J45" s="4">
+        <v>16.669</v>
+      </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
@@ -1209,7 +1219,9 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="4"/>
+      <c r="J46" s="4">
+        <v>17.065999999999999</v>
+      </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9EB978-F295-4F3D-9E95-3E2A4BAA18BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000795A1-A605-4514-BA43-88BF0704F962}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1275" yWindow="-13620" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,9 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="4"/>
+      <c r="J47" s="4">
+        <v>17.462</v>
+      </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
@@ -1245,7 +1247,9 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="4"/>
+      <c r="J48" s="4">
+        <v>17.859000000000002</v>
+      </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
@@ -1256,7 +1260,9 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="4"/>
+      <c r="J49" s="4">
+        <v>18.256</v>
+      </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
@@ -1269,7 +1275,9 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="4"/>
+      <c r="J50" s="4">
+        <v>18.652999999999999</v>
+      </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
@@ -1280,7 +1288,9 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="4"/>
+      <c r="J51" s="4">
+        <v>19.05</v>
+      </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
@@ -1293,7 +1303,9 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="4"/>
+      <c r="J52" s="4">
+        <v>19.446999999999999</v>
+      </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000795A1-A605-4514-BA43-88BF0704F962}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA790429-6700-4D6A-9942-F6D04B5D90C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1275" yWindow="-13620" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,7 +1316,9 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="4"/>
+      <c r="J53" s="4">
+        <v>19.844000000000001</v>
+      </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
@@ -1329,7 +1331,9 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="4"/>
+      <c r="J54" s="4">
+        <v>20.241</v>
+      </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
@@ -1340,7 +1344,9 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="4"/>
+      <c r="J55" s="4">
+        <v>20.638000000000002</v>
+      </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
@@ -1353,7 +1359,9 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="4"/>
+      <c r="J56" s="4">
+        <v>21.033999999999999</v>
+      </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
@@ -1364,7 +1372,9 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
-      <c r="J57" s="4"/>
+      <c r="J57" s="4">
+        <v>21.431000000000001</v>
+      </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
@@ -1377,7 +1387,9 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
-      <c r="J58" s="4"/>
+      <c r="J58" s="4">
+        <v>21.827999999999999</v>
+      </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
@@ -1388,7 +1400,9 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="4"/>
+      <c r="J59" s="4">
+        <v>22.225000000000001</v>
+      </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
@@ -1401,7 +1415,9 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="4"/>
+      <c r="J60" s="4">
+        <v>22.622</v>
+      </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
@@ -1412,7 +1428,9 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="4"/>
+      <c r="J61" s="4">
+        <v>23.018999999999998</v>
+      </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
@@ -1425,7 +1443,9 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="4"/>
+      <c r="J62" s="4">
+        <v>23.416</v>
+      </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
@@ -1436,7 +1456,9 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="4"/>
+      <c r="J63" s="4">
+        <v>23.812000000000001</v>
+      </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
@@ -1449,7 +1471,9 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
-      <c r="J64" s="4"/>
+      <c r="J64" s="4">
+        <v>24.209</v>
+      </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
@@ -1460,7 +1484,9 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="4"/>
+      <c r="J65" s="4">
+        <v>24.606000000000002</v>
+      </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
@@ -1473,7 +1499,9 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="4"/>
+      <c r="J66" s="4">
+        <v>25.003</v>
+      </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA790429-6700-4D6A-9942-F6D04B5D90C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA4A763-656C-4D58-8095-DD73367BBBB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1275" yWindow="-13620" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#\ ???/???"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -235,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -257,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -267,7 +267,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +641,7 @@
       <c r="H5" s="3">
         <v>3.1E-2</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="17">
         <v>0.03</v>
       </c>
       <c r="J5" s="4">
@@ -656,7 +658,9 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="18">
+        <v>0.05</v>
+      </c>
       <c r="J6" s="4">
         <v>1.1910000000000001</v>
       </c>
@@ -671,7 +675,9 @@
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="18">
+        <v>0.06</v>
+      </c>
       <c r="J7" s="4">
         <v>1.5880000000000001</v>
       </c>
@@ -686,7 +692,9 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="I8" s="18">
+        <v>0.08</v>
+      </c>
       <c r="J8" s="4">
         <v>1.984</v>
       </c>
@@ -699,7 +707,9 @@
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="18">
+        <v>0.09</v>
+      </c>
       <c r="J9" s="4">
         <v>2.3809999999999998</v>
       </c>
@@ -714,7 +724,9 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="18">
+        <v>0.11</v>
+      </c>
       <c r="J10" s="4">
         <v>2.778</v>
       </c>
@@ -727,7 +739,9 @@
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="18">
+        <v>0.12</v>
+      </c>
       <c r="J11" s="4">
         <v>3.1749999999999998</v>
       </c>
@@ -742,7 +756,9 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="18">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="J12" s="4">
         <v>3.5720000000000001</v>
       </c>
@@ -755,7 +771,9 @@
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="18">
+        <v>0.16</v>
+      </c>
       <c r="J13" s="4">
         <v>3.9689999999999999</v>
       </c>
@@ -770,7 +788,9 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="18">
+        <v>0.17</v>
+      </c>
       <c r="J14" s="4">
         <v>4.3659999999999997</v>
       </c>
@@ -783,7 +803,9 @@
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="18">
+        <v>0.19</v>
+      </c>
       <c r="J15" s="4">
         <v>4.7619999999999996</v>
       </c>
@@ -798,7 +820,9 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="I16" s="18">
+        <v>0.2</v>
+      </c>
       <c r="J16" s="4">
         <v>5.1589999999999998</v>
       </c>
@@ -811,7 +835,9 @@
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="I17" s="18">
+        <v>0.22</v>
+      </c>
       <c r="J17" s="4">
         <v>5.556</v>
       </c>
@@ -826,7 +852,9 @@
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="I18" s="18">
+        <v>0.23</v>
+      </c>
       <c r="J18" s="4">
         <v>5.9530000000000003</v>
       </c>
@@ -839,7 +867,9 @@
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="I19" s="18">
+        <v>0.25</v>
+      </c>
       <c r="J19" s="4">
         <v>6.35</v>
       </c>
@@ -854,7 +884,9 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="I20" s="18">
+        <v>0.27</v>
+      </c>
       <c r="J20" s="4">
         <v>6.7469999999999999</v>
       </c>
@@ -867,7 +899,9 @@
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="I21" s="18">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="J21" s="4">
         <v>7.1440000000000001</v>
       </c>
@@ -882,7 +916,9 @@
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="I22" s="18">
+        <v>0.3</v>
+      </c>
       <c r="J22" s="4">
         <v>7.5410000000000004</v>
       </c>
@@ -895,7 +931,9 @@
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="18">
+        <v>0.31</v>
+      </c>
       <c r="J23" s="4">
         <v>7.9379999999999997</v>
       </c>
@@ -910,7 +948,9 @@
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="I24" s="18">
+        <v>0.33</v>
+      </c>
       <c r="J24" s="4">
         <v>8.3339999999999996</v>
       </c>
@@ -923,7 +963,9 @@
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="I25" s="18">
+        <v>0.34</v>
+      </c>
       <c r="J25" s="4">
         <v>8.7309999999999999</v>
       </c>
@@ -938,7 +980,9 @@
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="I26" s="18">
+        <v>0.36</v>
+      </c>
       <c r="J26" s="4">
         <v>9.1280000000000001</v>
       </c>
@@ -951,7 +995,9 @@
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="18">
+        <v>0.38</v>
+      </c>
       <c r="J27" s="4">
         <v>9.5250000000000004</v>
       </c>
@@ -966,7 +1012,9 @@
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="I28" s="18">
+        <v>0.39</v>
+      </c>
       <c r="J28" s="4">
         <v>9.9220000000000006</v>
       </c>
@@ -979,7 +1027,9 @@
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="I29" s="18">
+        <v>0.41</v>
+      </c>
       <c r="J29" s="4">
         <v>10.319000000000001</v>
       </c>
@@ -994,7 +1044,9 @@
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="I30" s="18">
+        <v>0.42</v>
+      </c>
       <c r="J30" s="4">
         <v>10.715999999999999</v>
       </c>
@@ -1007,7 +1059,9 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="I31" s="18">
+        <v>0.44</v>
+      </c>
       <c r="J31" s="4">
         <v>11.112</v>
       </c>
@@ -1022,7 +1076,9 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="I32" s="18">
+        <v>0.45</v>
+      </c>
       <c r="J32" s="4">
         <v>11.509</v>
       </c>
@@ -1035,7 +1091,9 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="I33" s="18">
+        <v>0.47</v>
+      </c>
       <c r="J33" s="4">
         <v>11.906000000000001</v>
       </c>
@@ -1050,7 +1108,9 @@
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="I34" s="18">
+        <v>0.48</v>
+      </c>
       <c r="J34" s="4">
         <v>12.303000000000001</v>
       </c>
@@ -1063,7 +1123,9 @@
       <c r="F35" s="2"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="I35" s="18">
+        <v>0.5</v>
+      </c>
       <c r="J35" s="4">
         <v>12.7</v>
       </c>
@@ -1078,7 +1140,7 @@
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="I36" s="18"/>
       <c r="J36" s="4">
         <v>13.097</v>
       </c>
@@ -1091,7 +1153,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="I37" s="18"/>
       <c r="J37" s="4">
         <v>13.494</v>
       </c>
@@ -1106,7 +1168,7 @@
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="I38" s="18"/>
       <c r="J38" s="4">
         <v>13.891</v>
       </c>
@@ -1119,7 +1181,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="I39" s="18"/>
       <c r="J39" s="4">
         <v>14.288</v>
       </c>
@@ -1134,7 +1196,7 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="I40" s="18"/>
       <c r="J40" s="4">
         <v>14.683999999999999</v>
       </c>
@@ -1147,7 +1209,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="I41" s="18"/>
       <c r="J41" s="4">
         <v>15.081</v>
       </c>
@@ -1162,7 +1224,7 @@
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="I42" s="18"/>
       <c r="J42" s="4">
         <v>15.478</v>
       </c>
@@ -1175,7 +1237,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="I43" s="18"/>
       <c r="J43" s="4">
         <v>15.875</v>
       </c>
@@ -1190,7 +1252,7 @@
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
+      <c r="I44" s="18"/>
       <c r="J44" s="4">
         <v>16.271999999999998</v>
       </c>
@@ -1203,7 +1265,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="I45" s="18"/>
       <c r="J45" s="4">
         <v>16.669</v>
       </c>
@@ -1218,7 +1280,7 @@
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+      <c r="I46" s="18"/>
       <c r="J46" s="4">
         <v>17.065999999999999</v>
       </c>
@@ -1231,7 +1293,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="I47" s="18"/>
       <c r="J47" s="4">
         <v>17.462</v>
       </c>
@@ -1246,7 +1308,7 @@
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+      <c r="I48" s="18"/>
       <c r="J48" s="4">
         <v>17.859000000000002</v>
       </c>
@@ -1259,7 +1321,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="I49" s="18"/>
       <c r="J49" s="4">
         <v>18.256</v>
       </c>
@@ -1274,7 +1336,7 @@
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="I50" s="18"/>
       <c r="J50" s="4">
         <v>18.652999999999999</v>
       </c>
@@ -1287,7 +1349,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+      <c r="I51" s="18"/>
       <c r="J51" s="4">
         <v>19.05</v>
       </c>
@@ -1302,7 +1364,7 @@
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
+      <c r="I52" s="18"/>
       <c r="J52" s="4">
         <v>19.446999999999999</v>
       </c>
@@ -1315,7 +1377,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
+      <c r="I53" s="18"/>
       <c r="J53" s="4">
         <v>19.844000000000001</v>
       </c>
@@ -1330,7 +1392,7 @@
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
+      <c r="I54" s="18"/>
       <c r="J54" s="4">
         <v>20.241</v>
       </c>
@@ -1343,7 +1405,7 @@
       <c r="F55" s="11"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
+      <c r="I55" s="18"/>
       <c r="J55" s="4">
         <v>20.638000000000002</v>
       </c>
@@ -1358,7 +1420,7 @@
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
+      <c r="I56" s="18"/>
       <c r="J56" s="4">
         <v>21.033999999999999</v>
       </c>
@@ -1371,7 +1433,7 @@
       <c r="F57" s="11"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+      <c r="I57" s="18"/>
       <c r="J57" s="4">
         <v>21.431000000000001</v>
       </c>
@@ -1386,7 +1448,7 @@
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
+      <c r="I58" s="18"/>
       <c r="J58" s="4">
         <v>21.827999999999999</v>
       </c>
@@ -1399,7 +1461,7 @@
       <c r="F59" s="11"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
+      <c r="I59" s="18"/>
       <c r="J59" s="4">
         <v>22.225000000000001</v>
       </c>
@@ -1414,7 +1476,7 @@
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+      <c r="I60" s="18"/>
       <c r="J60" s="4">
         <v>22.622</v>
       </c>
@@ -1427,7 +1489,7 @@
       <c r="F61" s="11"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
+      <c r="I61" s="18"/>
       <c r="J61" s="4">
         <v>23.018999999999998</v>
       </c>
@@ -1442,7 +1504,7 @@
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
+      <c r="I62" s="18"/>
       <c r="J62" s="4">
         <v>23.416</v>
       </c>
@@ -1455,7 +1517,7 @@
       <c r="F63" s="11"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
+      <c r="I63" s="18"/>
       <c r="J63" s="4">
         <v>23.812000000000001</v>
       </c>
@@ -1470,7 +1532,7 @@
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
+      <c r="I64" s="18"/>
       <c r="J64" s="4">
         <v>24.209</v>
       </c>
@@ -1483,7 +1545,7 @@
       <c r="F65" s="11"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
+      <c r="I65" s="18"/>
       <c r="J65" s="4">
         <v>24.606000000000002</v>
       </c>
@@ -1498,7 +1560,7 @@
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
+      <c r="I66" s="18"/>
       <c r="J66" s="4">
         <v>25.003</v>
       </c>
@@ -1511,8 +1573,8 @@
       <c r="F67" s="12"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="17">
+      <c r="I67" s="19"/>
+      <c r="J67" s="13">
         <v>25.4</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA4A763-656C-4D58-8095-DD73367BBBB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB2D7C1-540F-4B9D-98C5-8FD67175C499}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,7 +1140,9 @@
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="18"/>
+      <c r="I36" s="18">
+        <v>0.52</v>
+      </c>
       <c r="J36" s="4">
         <v>13.097</v>
       </c>
@@ -1153,7 +1155,9 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="18"/>
+      <c r="I37" s="18">
+        <v>0.53</v>
+      </c>
       <c r="J37" s="4">
         <v>13.494</v>
       </c>
@@ -1168,7 +1172,9 @@
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="18"/>
+      <c r="I38" s="18">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="J38" s="4">
         <v>13.891</v>
       </c>
@@ -1181,7 +1187,9 @@
       <c r="F39" s="2"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="18"/>
+      <c r="I39" s="18">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="J39" s="4">
         <v>14.288</v>
       </c>
@@ -1196,7 +1204,9 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="18"/>
+      <c r="I40" s="18">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="J40" s="4">
         <v>14.683999999999999</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB2D7C1-540F-4B9D-98C5-8FD67175C499}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FEAE95-CAE3-4FEE-800A-20437E7494F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,7 +1219,9 @@
       <c r="F41" s="2"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="18"/>
+      <c r="I41" s="18">
+        <v>0.59</v>
+      </c>
       <c r="J41" s="4">
         <v>15.081</v>
       </c>
@@ -1234,7 +1236,9 @@
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="18"/>
+      <c r="I42" s="18">
+        <v>0.61</v>
+      </c>
       <c r="J42" s="4">
         <v>15.478</v>
       </c>
@@ -1247,7 +1251,9 @@
       <c r="F43" s="2"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="18"/>
+      <c r="I43" s="18">
+        <v>0.62</v>
+      </c>
       <c r="J43" s="4">
         <v>15.875</v>
       </c>
@@ -1262,7 +1268,9 @@
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="18"/>
+      <c r="I44" s="18">
+        <v>0.64</v>
+      </c>
       <c r="J44" s="4">
         <v>16.271999999999998</v>
       </c>
@@ -1275,7 +1283,9 @@
       <c r="F45" s="2"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="18"/>
+      <c r="I45" s="18">
+        <v>0.66</v>
+      </c>
       <c r="J45" s="4">
         <v>16.669</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FEAE95-CAE3-4FEE-800A-20437E7494F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD4D72C-06EB-439A-811F-0139510E074E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,7 +1300,9 @@
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="18"/>
+      <c r="I46" s="18">
+        <v>0.67</v>
+      </c>
       <c r="J46" s="4">
         <v>17.065999999999999</v>
       </c>
@@ -1313,7 +1315,9 @@
       <c r="F47" s="2"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="18"/>
+      <c r="I47" s="18">
+        <v>0.69</v>
+      </c>
       <c r="J47" s="4">
         <v>17.462</v>
       </c>
@@ -1328,7 +1332,9 @@
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="18"/>
+      <c r="I48" s="18">
+        <v>0.7</v>
+      </c>
       <c r="J48" s="4">
         <v>17.859000000000002</v>
       </c>
@@ -1341,7 +1347,9 @@
       <c r="F49" s="2"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="18"/>
+      <c r="I49" s="18">
+        <v>0.72</v>
+      </c>
       <c r="J49" s="4">
         <v>18.256</v>
       </c>
@@ -1356,7 +1364,9 @@
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="18"/>
+      <c r="I50" s="18">
+        <v>0.73</v>
+      </c>
       <c r="J50" s="4">
         <v>18.652999999999999</v>
       </c>
@@ -1369,7 +1379,9 @@
       <c r="F51" s="2"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="18"/>
+      <c r="I51" s="18">
+        <v>0.75</v>
+      </c>
       <c r="J51" s="4">
         <v>19.05</v>
       </c>
@@ -1384,7 +1396,9 @@
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="18"/>
+      <c r="I52" s="18">
+        <v>0.77</v>
+      </c>
       <c r="J52" s="4">
         <v>19.446999999999999</v>
       </c>
@@ -1397,7 +1411,9 @@
       <c r="F53" s="10"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="18"/>
+      <c r="I53" s="18">
+        <v>0.78</v>
+      </c>
       <c r="J53" s="4">
         <v>19.844000000000001</v>
       </c>
@@ -1412,7 +1428,9 @@
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="18"/>
+      <c r="I54" s="18">
+        <v>0.8</v>
+      </c>
       <c r="J54" s="4">
         <v>20.241</v>
       </c>
@@ -1425,7 +1443,9 @@
       <c r="F55" s="11"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="18"/>
+      <c r="I55" s="18">
+        <v>0.81</v>
+      </c>
       <c r="J55" s="4">
         <v>20.638000000000002</v>
       </c>
@@ -1440,7 +1460,9 @@
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="18"/>
+      <c r="I56" s="18">
+        <v>0.83</v>
+      </c>
       <c r="J56" s="4">
         <v>21.033999999999999</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD4D72C-06EB-439A-811F-0139510E074E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90A79A0-1C7B-4A9C-BD1E-9C8E385EEF04}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,7 +1475,9 @@
       <c r="F57" s="11"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="18"/>
+      <c r="I57" s="18">
+        <v>0.84</v>
+      </c>
       <c r="J57" s="4">
         <v>21.431000000000001</v>
       </c>
@@ -1490,7 +1492,9 @@
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="18"/>
+      <c r="I58" s="18">
+        <v>0.86</v>
+      </c>
       <c r="J58" s="4">
         <v>21.827999999999999</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90A79A0-1C7B-4A9C-BD1E-9C8E385EEF04}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE74C65F-D31E-4585-85B3-5BCF45AB8837}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,7 +1507,9 @@
       <c r="F59" s="11"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="18"/>
+      <c r="I59" s="18">
+        <v>0.88</v>
+      </c>
       <c r="J59" s="4">
         <v>22.225000000000001</v>
       </c>
@@ -1522,7 +1524,9 @@
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="18"/>
+      <c r="I60" s="18">
+        <v>0.89</v>
+      </c>
       <c r="J60" s="4">
         <v>22.622</v>
       </c>
@@ -1535,7 +1539,9 @@
       <c r="F61" s="11"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="18"/>
+      <c r="I61" s="18">
+        <v>0.91</v>
+      </c>
       <c r="J61" s="4">
         <v>23.018999999999998</v>
       </c>
@@ -1550,7 +1556,9 @@
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="18"/>
+      <c r="I62" s="18">
+        <v>0.92</v>
+      </c>
       <c r="J62" s="4">
         <v>23.416</v>
       </c>
@@ -1563,7 +1571,9 @@
       <c r="F63" s="11"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="18"/>
+      <c r="I63" s="18">
+        <v>0.94</v>
+      </c>
       <c r="J63" s="4">
         <v>23.812000000000001</v>
       </c>
@@ -1578,7 +1588,9 @@
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="18"/>
+      <c r="I64" s="18">
+        <v>0.95</v>
+      </c>
       <c r="J64" s="4">
         <v>24.209</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE74C65F-D31E-4585-85B3-5BCF45AB8837}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC9EA82-6703-4334-8974-C5D43B955F0E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,7 +1603,9 @@
       <c r="F65" s="11"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="18"/>
+      <c r="I65" s="18">
+        <v>0.97</v>
+      </c>
       <c r="J65" s="4">
         <v>24.606000000000002</v>
       </c>
@@ -1618,7 +1620,9 @@
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-      <c r="I66" s="18"/>
+      <c r="I66" s="18">
+        <v>0.98</v>
+      </c>
       <c r="J66" s="4">
         <v>25.003</v>
       </c>
@@ -1631,7 +1635,9 @@
       <c r="F67" s="12"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
-      <c r="I67" s="19"/>
+      <c r="I67" s="19">
+        <v>1</v>
+      </c>
       <c r="J67" s="13">
         <v>25.4</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC9EA82-6703-4334-8974-C5D43B955F0E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DF9616-86A6-4B5E-8A14-CC4D0A839C0F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -270,6 +270,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +658,9 @@
         <v>4.6875E-2</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>4.7E-2</v>
+      </c>
       <c r="I6" s="18">
         <v>0.05</v>
       </c>
@@ -674,7 +677,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="20">
+        <v>6.2E-2</v>
+      </c>
       <c r="I7" s="18">
         <v>0.06</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DF9616-86A6-4B5E-8A14-CC4D0A839C0F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B321F0-9E6E-4716-896A-FDACF1501A4E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +696,9 @@
         <v>7.8125E-2</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="20">
+        <v>7.8E-2</v>
+      </c>
       <c r="I8" s="18">
         <v>0.08</v>
       </c>
@@ -711,7 +713,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="20">
+        <v>9.4E-2</v>
+      </c>
       <c r="I9" s="18">
         <v>0.09</v>
       </c>
@@ -728,7 +732,9 @@
         <v>0.109375</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="20">
+        <v>0.109</v>
+      </c>
       <c r="I10" s="18">
         <v>0.11</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B321F0-9E6E-4716-896A-FDACF1501A4E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4B8C5A-66F0-4332-80E5-55EEAF706A25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,7 +749,9 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="20">
+        <v>0.125</v>
+      </c>
       <c r="I11" s="18">
         <v>0.12</v>
       </c>
@@ -766,7 +768,9 @@
         <v>0.140625</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="20">
+        <v>0.14099999999999999</v>
+      </c>
       <c r="I12" s="18">
         <v>0.14000000000000001</v>
       </c>
@@ -781,7 +785,9 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="20">
+        <v>0.156</v>
+      </c>
       <c r="I13" s="18">
         <v>0.16</v>
       </c>
@@ -798,7 +804,9 @@
         <v>0.171875</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="20">
+        <v>0.17199999999999999</v>
+      </c>
       <c r="I14" s="18">
         <v>0.17</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4B8C5A-66F0-4332-80E5-55EEAF706A25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D1BDED-2621-4184-8277-254772C130E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +821,9 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="20">
+        <v>0.188</v>
+      </c>
       <c r="I15" s="18">
         <v>0.19</v>
       </c>
@@ -838,7 +840,9 @@
         <v>0.203125</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="20">
+        <v>0.20300000000000001</v>
+      </c>
       <c r="I16" s="18">
         <v>0.2</v>
       </c>
@@ -853,7 +857,9 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="20">
+        <v>0.219</v>
+      </c>
       <c r="I17" s="18">
         <v>0.22</v>
       </c>
@@ -870,7 +876,9 @@
         <v>0.234375</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="20">
+        <v>0.23400000000000001</v>
+      </c>
       <c r="I18" s="18">
         <v>0.23</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D1BDED-2621-4184-8277-254772C130E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061A566F-250B-4281-BF80-D568512C98FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +893,9 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="20">
+        <v>0.25</v>
+      </c>
       <c r="I19" s="18">
         <v>0.25</v>
       </c>
@@ -910,7 +912,9 @@
         <v>0.265625</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="20">
+        <v>0.26600000000000001</v>
+      </c>
       <c r="I20" s="18">
         <v>0.27</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061A566F-250B-4281-BF80-D568512C98FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5AEEDF-5665-44BB-B040-6EAB64A1372C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +929,9 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="20">
+        <v>0.28100000000000003</v>
+      </c>
       <c r="I21" s="18">
         <v>0.28000000000000003</v>
       </c>
@@ -946,7 +948,9 @@
         <v>0.296875</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="20">
+        <v>0.29699999999999999</v>
+      </c>
       <c r="I22" s="18">
         <v>0.3</v>
       </c>
@@ -961,7 +965,9 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="20">
+        <v>0.312</v>
+      </c>
       <c r="I23" s="18">
         <v>0.31</v>
       </c>
@@ -978,7 +984,9 @@
         <v>0.328125</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="H24" s="20">
+        <v>0.32800000000000001</v>
+      </c>
       <c r="I24" s="18">
         <v>0.33</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5AEEDF-5665-44BB-B040-6EAB64A1372C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1EC634-3664-4A9E-BF52-836BD1520273}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,6 +258,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -267,10 +271,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,17 +566,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
@@ -642,7 +642,7 @@
       <c r="H5" s="3">
         <v>3.1E-2</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="14">
         <v>0.03</v>
       </c>
       <c r="J5" s="4">
@@ -657,11 +657,13 @@
       <c r="F6" s="2">
         <v>4.6875E-2</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3">
+        <v>4.6899999999999997E-2</v>
+      </c>
       <c r="H6" s="3">
         <v>4.7E-2</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="15">
         <v>0.05</v>
       </c>
       <c r="J6" s="4">
@@ -676,11 +678,13 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="20">
+      <c r="G7" s="17">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H7" s="17">
         <v>6.2E-2</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="15">
         <v>0.06</v>
       </c>
       <c r="J7" s="4">
@@ -695,11 +699,13 @@
       <c r="F8" s="2">
         <v>7.8125E-2</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="20">
+      <c r="G8" s="17">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="H8" s="17">
         <v>7.8E-2</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="15">
         <v>0.08</v>
       </c>
       <c r="J8" s="4">
@@ -712,11 +718,13 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="20">
+      <c r="G9" s="17">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="H9" s="17">
         <v>9.4E-2</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="15">
         <v>0.09</v>
       </c>
       <c r="J9" s="4">
@@ -731,11 +739,13 @@
       <c r="F10" s="2">
         <v>0.109375</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="20">
+      <c r="G10" s="17">
+        <v>0.1094</v>
+      </c>
+      <c r="H10" s="17">
         <v>0.109</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="15">
         <v>0.11</v>
       </c>
       <c r="J10" s="4">
@@ -748,11 +758,13 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="20">
+      <c r="G11" s="17">
         <v>0.125</v>
       </c>
-      <c r="I11" s="18">
+      <c r="H11" s="17">
+        <v>0.125</v>
+      </c>
+      <c r="I11" s="15">
         <v>0.12</v>
       </c>
       <c r="J11" s="4">
@@ -767,11 +779,13 @@
       <c r="F12" s="2">
         <v>0.140625</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="20">
+      <c r="G12" s="17">
+        <v>0.1406</v>
+      </c>
+      <c r="H12" s="17">
         <v>0.14099999999999999</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="15">
         <v>0.14000000000000001</v>
       </c>
       <c r="J12" s="4">
@@ -785,10 +799,10 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="20">
+      <c r="H13" s="17">
         <v>0.156</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="15">
         <v>0.16</v>
       </c>
       <c r="J13" s="4">
@@ -804,10 +818,10 @@
         <v>0.171875</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="20">
+      <c r="H14" s="17">
         <v>0.17199999999999999</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="15">
         <v>0.17</v>
       </c>
       <c r="J14" s="4">
@@ -821,10 +835,10 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="20">
+      <c r="H15" s="17">
         <v>0.188</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="15">
         <v>0.19</v>
       </c>
       <c r="J15" s="4">
@@ -840,10 +854,10 @@
         <v>0.203125</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="20">
+      <c r="H16" s="17">
         <v>0.20300000000000001</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="15">
         <v>0.2</v>
       </c>
       <c r="J16" s="4">
@@ -857,10 +871,10 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="20">
+      <c r="H17" s="17">
         <v>0.219</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="15">
         <v>0.22</v>
       </c>
       <c r="J17" s="4">
@@ -876,10 +890,10 @@
         <v>0.234375</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="20">
+      <c r="H18" s="17">
         <v>0.23400000000000001</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="15">
         <v>0.23</v>
       </c>
       <c r="J18" s="4">
@@ -893,10 +907,10 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="20">
+      <c r="H19" s="17">
         <v>0.25</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="15">
         <v>0.25</v>
       </c>
       <c r="J19" s="4">
@@ -912,10 +926,10 @@
         <v>0.265625</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="20">
+      <c r="H20" s="17">
         <v>0.26600000000000001</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="15">
         <v>0.27</v>
       </c>
       <c r="J20" s="4">
@@ -929,10 +943,10 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="20">
+      <c r="H21" s="17">
         <v>0.28100000000000003</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="15">
         <v>0.28000000000000003</v>
       </c>
       <c r="J21" s="4">
@@ -948,10 +962,10 @@
         <v>0.296875</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="20">
+      <c r="H22" s="17">
         <v>0.29699999999999999</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="15">
         <v>0.3</v>
       </c>
       <c r="J22" s="4">
@@ -965,10 +979,10 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="20">
+      <c r="H23" s="17">
         <v>0.312</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="15">
         <v>0.31</v>
       </c>
       <c r="J23" s="4">
@@ -984,10 +998,10 @@
         <v>0.328125</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="20">
+      <c r="H24" s="17">
         <v>0.32800000000000001</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="15">
         <v>0.33</v>
       </c>
       <c r="J24" s="4">
@@ -1002,7 +1016,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="18">
+      <c r="I25" s="15">
         <v>0.34</v>
       </c>
       <c r="J25" s="4">
@@ -1019,7 +1033,7 @@
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="18">
+      <c r="I26" s="15">
         <v>0.36</v>
       </c>
       <c r="J26" s="4">
@@ -1034,7 +1048,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="18">
+      <c r="I27" s="15">
         <v>0.38</v>
       </c>
       <c r="J27" s="4">
@@ -1051,7 +1065,7 @@
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="18">
+      <c r="I28" s="15">
         <v>0.39</v>
       </c>
       <c r="J28" s="4">
@@ -1066,7 +1080,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="18">
+      <c r="I29" s="15">
         <v>0.41</v>
       </c>
       <c r="J29" s="4">
@@ -1083,7 +1097,7 @@
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="18">
+      <c r="I30" s="15">
         <v>0.42</v>
       </c>
       <c r="J30" s="4">
@@ -1098,7 +1112,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="18">
+      <c r="I31" s="15">
         <v>0.44</v>
       </c>
       <c r="J31" s="4">
@@ -1115,7 +1129,7 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="18">
+      <c r="I32" s="15">
         <v>0.45</v>
       </c>
       <c r="J32" s="4">
@@ -1130,7 +1144,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="18">
+      <c r="I33" s="15">
         <v>0.47</v>
       </c>
       <c r="J33" s="4">
@@ -1147,7 +1161,7 @@
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="18">
+      <c r="I34" s="15">
         <v>0.48</v>
       </c>
       <c r="J34" s="4">
@@ -1162,7 +1176,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="18">
+      <c r="I35" s="15">
         <v>0.5</v>
       </c>
       <c r="J35" s="4">
@@ -1179,7 +1193,7 @@
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="18">
+      <c r="I36" s="15">
         <v>0.52</v>
       </c>
       <c r="J36" s="4">
@@ -1194,7 +1208,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="18">
+      <c r="I37" s="15">
         <v>0.53</v>
       </c>
       <c r="J37" s="4">
@@ -1211,7 +1225,7 @@
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="18">
+      <c r="I38" s="15">
         <v>0.55000000000000004</v>
       </c>
       <c r="J38" s="4">
@@ -1226,7 +1240,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="18">
+      <c r="I39" s="15">
         <v>0.56000000000000005</v>
       </c>
       <c r="J39" s="4">
@@ -1243,7 +1257,7 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="18">
+      <c r="I40" s="15">
         <v>0.57999999999999996</v>
       </c>
       <c r="J40" s="4">
@@ -1258,7 +1272,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="18">
+      <c r="I41" s="15">
         <v>0.59</v>
       </c>
       <c r="J41" s="4">
@@ -1275,7 +1289,7 @@
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="18">
+      <c r="I42" s="15">
         <v>0.61</v>
       </c>
       <c r="J42" s="4">
@@ -1290,7 +1304,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="18">
+      <c r="I43" s="15">
         <v>0.62</v>
       </c>
       <c r="J43" s="4">
@@ -1307,7 +1321,7 @@
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="18">
+      <c r="I44" s="15">
         <v>0.64</v>
       </c>
       <c r="J44" s="4">
@@ -1322,7 +1336,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="18">
+      <c r="I45" s="15">
         <v>0.66</v>
       </c>
       <c r="J45" s="4">
@@ -1339,7 +1353,7 @@
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="18">
+      <c r="I46" s="15">
         <v>0.67</v>
       </c>
       <c r="J46" s="4">
@@ -1354,7 +1368,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="18">
+      <c r="I47" s="15">
         <v>0.69</v>
       </c>
       <c r="J47" s="4">
@@ -1371,7 +1385,7 @@
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="18">
+      <c r="I48" s="15">
         <v>0.7</v>
       </c>
       <c r="J48" s="4">
@@ -1386,7 +1400,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="18">
+      <c r="I49" s="15">
         <v>0.72</v>
       </c>
       <c r="J49" s="4">
@@ -1403,7 +1417,7 @@
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="18">
+      <c r="I50" s="15">
         <v>0.73</v>
       </c>
       <c r="J50" s="4">
@@ -1418,7 +1432,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="18">
+      <c r="I51" s="15">
         <v>0.75</v>
       </c>
       <c r="J51" s="4">
@@ -1435,7 +1449,7 @@
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="18">
+      <c r="I52" s="15">
         <v>0.77</v>
       </c>
       <c r="J52" s="4">
@@ -1450,7 +1464,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="18">
+      <c r="I53" s="15">
         <v>0.78</v>
       </c>
       <c r="J53" s="4">
@@ -1467,7 +1481,7 @@
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="18">
+      <c r="I54" s="15">
         <v>0.8</v>
       </c>
       <c r="J54" s="4">
@@ -1482,7 +1496,7 @@
       <c r="F55" s="11"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="18">
+      <c r="I55" s="15">
         <v>0.81</v>
       </c>
       <c r="J55" s="4">
@@ -1499,7 +1513,7 @@
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="18">
+      <c r="I56" s="15">
         <v>0.83</v>
       </c>
       <c r="J56" s="4">
@@ -1514,7 +1528,7 @@
       <c r="F57" s="11"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="18">
+      <c r="I57" s="15">
         <v>0.84</v>
       </c>
       <c r="J57" s="4">
@@ -1531,7 +1545,7 @@
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="18">
+      <c r="I58" s="15">
         <v>0.86</v>
       </c>
       <c r="J58" s="4">
@@ -1546,7 +1560,7 @@
       <c r="F59" s="11"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="18">
+      <c r="I59" s="15">
         <v>0.88</v>
       </c>
       <c r="J59" s="4">
@@ -1563,7 +1577,7 @@
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="18">
+      <c r="I60" s="15">
         <v>0.89</v>
       </c>
       <c r="J60" s="4">
@@ -1578,7 +1592,7 @@
       <c r="F61" s="11"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="18">
+      <c r="I61" s="15">
         <v>0.91</v>
       </c>
       <c r="J61" s="4">
@@ -1595,7 +1609,7 @@
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="18">
+      <c r="I62" s="15">
         <v>0.92</v>
       </c>
       <c r="J62" s="4">
@@ -1610,7 +1624,7 @@
       <c r="F63" s="11"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="18">
+      <c r="I63" s="15">
         <v>0.94</v>
       </c>
       <c r="J63" s="4">
@@ -1627,7 +1641,7 @@
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="18">
+      <c r="I64" s="15">
         <v>0.95</v>
       </c>
       <c r="J64" s="4">
@@ -1642,7 +1656,7 @@
       <c r="F65" s="11"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="18">
+      <c r="I65" s="15">
         <v>0.97</v>
       </c>
       <c r="J65" s="4">
@@ -1659,7 +1673,7 @@
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-      <c r="I66" s="18">
+      <c r="I66" s="15">
         <v>0.98</v>
       </c>
       <c r="J66" s="4">
@@ -1674,7 +1688,7 @@
       <c r="F67" s="12"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
-      <c r="I67" s="19">
+      <c r="I67" s="16">
         <v>1</v>
       </c>
       <c r="J67" s="13">

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1EC634-3664-4A9E-BF52-836BD1520273}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD8D1DC-C0BA-4470-B453-6C645140F557}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +798,9 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="17">
+        <v>0.15620000000000001</v>
+      </c>
       <c r="H13" s="17">
         <v>0.156</v>
       </c>
@@ -817,7 +819,9 @@
       <c r="F14" s="2">
         <v>0.171875</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="17">
+        <v>0.1719</v>
+      </c>
       <c r="H14" s="17">
         <v>0.17199999999999999</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD8D1DC-C0BA-4470-B453-6C645140F557}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5167F4B9-D058-4C93-9188-C94AF85E8F76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,7 +838,9 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="17">
+        <v>0.1875</v>
+      </c>
       <c r="H15" s="17">
         <v>0.188</v>
       </c>
@@ -857,7 +859,9 @@
       <c r="F16" s="2">
         <v>0.203125</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="17">
+        <v>0.2031</v>
+      </c>
       <c r="H16" s="17">
         <v>0.20300000000000001</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5167F4B9-D058-4C93-9188-C94AF85E8F76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B57C742-8603-4CB3-BE49-7DF3A6B53D87}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,7 +878,9 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="17">
+        <v>0.21879999999999999</v>
+      </c>
       <c r="H17" s="17">
         <v>0.219</v>
       </c>
@@ -897,7 +899,9 @@
       <c r="F18" s="2">
         <v>0.234375</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="17">
+        <v>0.2344</v>
+      </c>
       <c r="H18" s="17">
         <v>0.23400000000000001</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B57C742-8603-4CB3-BE49-7DF3A6B53D87}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF40F2DD-6C6B-42A0-9D15-5F4D893F0B02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,7 +918,9 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
+      <c r="G19" s="17">
+        <v>0.25</v>
+      </c>
       <c r="H19" s="17">
         <v>0.25</v>
       </c>
@@ -937,7 +939,9 @@
       <c r="F20" s="2">
         <v>0.265625</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="17">
+        <v>0.2656</v>
+      </c>
       <c r="H20" s="17">
         <v>0.26600000000000001</v>
       </c>
@@ -954,7 +958,9 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="17">
+        <v>0.28120000000000001</v>
+      </c>
       <c r="H21" s="17">
         <v>0.28100000000000003</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF40F2DD-6C6B-42A0-9D15-5F4D893F0B02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF53260-56CC-44B9-A091-D34D49C0F6C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,7 +979,9 @@
       <c r="F22" s="2">
         <v>0.296875</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="17">
+        <v>0.2969</v>
+      </c>
       <c r="H22" s="17">
         <v>0.29699999999999999</v>
       </c>
@@ -996,7 +998,9 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="17">
+        <v>0.3125</v>
+      </c>
       <c r="H23" s="17">
         <v>0.312</v>
       </c>
@@ -1015,7 +1019,9 @@
       <c r="F24" s="2">
         <v>0.328125</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="17">
+        <v>0.3281</v>
+      </c>
       <c r="H24" s="17">
         <v>0.32800000000000001</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF53260-56CC-44B9-A091-D34D49C0F6C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE68D12-C3FF-4913-B246-D5A4C9150008}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,7 +1038,9 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="17">
+        <v>0.34379999999999999</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="15">
         <v>0.34</v>
@@ -1055,7 +1057,9 @@
       <c r="F26" s="2">
         <v>0.359375</v>
       </c>
-      <c r="G26" s="3"/>
+      <c r="G26" s="17">
+        <v>0.3594</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="15">
         <v>0.36</v>
@@ -1070,7 +1074,9 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="17">
+        <v>0.375</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="15">
         <v>0.38</v>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE68D12-C3FF-4913-B246-D5A4C9150008}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB1B2C6-65D5-4D11-83B1-F3D9518EF9C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,7 +1093,9 @@
       <c r="F28" s="2">
         <v>0.390625</v>
       </c>
-      <c r="G28" s="3"/>
+      <c r="G28" s="17">
+        <v>0.3906</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="15">
         <v>0.39</v>
@@ -1108,7 +1110,9 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
+      <c r="G29" s="17">
+        <v>0.40620000000000001</v>
+      </c>
       <c r="H29" s="3"/>
       <c r="I29" s="15">
         <v>0.41</v>
@@ -1125,7 +1129,9 @@
       <c r="F30" s="2">
         <v>0.421875</v>
       </c>
-      <c r="G30" s="3"/>
+      <c r="G30" s="17">
+        <v>0.4219</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="15">
         <v>0.42</v>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB1B2C6-65D5-4D11-83B1-F3D9518EF9C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B90E851-FB9F-4AC1-9C22-9063857E6356}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,7 +1041,9 @@
       <c r="G25" s="17">
         <v>0.34379999999999999</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="17">
+        <v>0.34399999999999997</v>
+      </c>
       <c r="I25" s="15">
         <v>0.34</v>
       </c>
@@ -1060,7 +1062,9 @@
       <c r="G26" s="17">
         <v>0.3594</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="H26" s="17">
+        <v>0.35899999999999999</v>
+      </c>
       <c r="I26" s="15">
         <v>0.36</v>
       </c>
@@ -1077,7 +1081,9 @@
       <c r="G27" s="17">
         <v>0.375</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="17">
+        <v>0.375</v>
+      </c>
       <c r="I27" s="15">
         <v>0.38</v>
       </c>
@@ -1096,7 +1102,9 @@
       <c r="G28" s="17">
         <v>0.3906</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="17">
+        <v>0.39100000000000001</v>
+      </c>
       <c r="I28" s="15">
         <v>0.39</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B90E851-FB9F-4AC1-9C22-9063857E6356}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679E4E2F-C58F-40CE-A867-ABC25C4A4B81}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1121,9 @@
       <c r="G29" s="17">
         <v>0.40620000000000001</v>
       </c>
-      <c r="H29" s="3"/>
+      <c r="H29" s="17">
+        <v>0.40600000000000003</v>
+      </c>
       <c r="I29" s="15">
         <v>0.41</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679E4E2F-C58F-40CE-A867-ABC25C4A4B81}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5CB0DD-7AC9-4F79-837C-CB5D3EC45ABE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1142,9 @@
       <c r="G30" s="17">
         <v>0.4219</v>
       </c>
-      <c r="H30" s="3"/>
+      <c r="H30" s="17">
+        <v>0.42199999999999999</v>
+      </c>
       <c r="I30" s="15">
         <v>0.42</v>
       </c>
@@ -1157,7 +1159,9 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="H31" s="17">
+        <v>0.438</v>
+      </c>
       <c r="I31" s="15">
         <v>0.44</v>
       </c>
@@ -1174,7 +1178,9 @@
         <v>0.453125</v>
       </c>
       <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="H32" s="17">
+        <v>0.45300000000000001</v>
+      </c>
       <c r="I32" s="15">
         <v>0.45</v>
       </c>
@@ -1189,7 +1195,9 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="H33" s="17">
+        <v>0.46899999999999997</v>
+      </c>
       <c r="I33" s="15">
         <v>0.47</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5CB0DD-7AC9-4F79-837C-CB5D3EC45ABE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BA490B-9501-4810-BB86-04BF43BC6C76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1214,9 @@
         <v>0.484375</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="H34" s="17">
+        <v>0.48399999999999999</v>
+      </c>
       <c r="I34" s="15">
         <v>0.48</v>
       </c>
@@ -1229,7 +1231,9 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="H35" s="17">
+        <v>0.5</v>
+      </c>
       <c r="I35" s="15">
         <v>0.5</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BA490B-9501-4810-BB86-04BF43BC6C76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CEF1B5-3D34-47F6-8C14-6DAF04DD87F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,7 +1250,9 @@
         <v>0.515625</v>
       </c>
       <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="H36" s="17">
+        <v>0.51600000000000001</v>
+      </c>
       <c r="I36" s="15">
         <v>0.52</v>
       </c>
@@ -1265,7 +1267,9 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="H37" s="17">
+        <v>0.53100000000000003</v>
+      </c>
       <c r="I37" s="15">
         <v>0.53</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CEF1B5-3D34-47F6-8C14-6DAF04DD87F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF42A25D-F51E-4A9D-B8E7-AC6AA6D89D80}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1286,9 @@
         <v>0.546875</v>
       </c>
       <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="H38" s="17">
+        <v>0.54700000000000004</v>
+      </c>
       <c r="I38" s="15">
         <v>0.55000000000000004</v>
       </c>
@@ -1301,7 +1303,9 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="H39" s="17">
+        <v>0.56200000000000006</v>
+      </c>
       <c r="I39" s="15">
         <v>0.56000000000000005</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF42A25D-F51E-4A9D-B8E7-AC6AA6D89D80}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F627C943-0138-4DA9-A34E-6787E93C3DDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,7 +1322,9 @@
         <v>0.578125</v>
       </c>
       <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="H40" s="17">
+        <v>0.57799999999999996</v>
+      </c>
       <c r="I40" s="15">
         <v>0.57999999999999996</v>
       </c>
@@ -1337,7 +1339,9 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="H41" s="17">
+        <v>0.59399999999999997</v>
+      </c>
       <c r="I41" s="15">
         <v>0.59</v>
       </c>
@@ -1354,7 +1358,9 @@
         <v>0.609375</v>
       </c>
       <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="H42" s="17">
+        <v>0.60899999999999999</v>
+      </c>
       <c r="I42" s="15">
         <v>0.61</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F627C943-0138-4DA9-A34E-6787E93C3DDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952A6266-FE82-4ECC-A6E4-97BAA3899780}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,7 +1375,9 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+      <c r="H43" s="17">
+        <v>0.625</v>
+      </c>
       <c r="I43" s="15">
         <v>0.62</v>
       </c>
@@ -1392,7 +1394,9 @@
         <v>0.640625</v>
       </c>
       <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="H44" s="17">
+        <v>0.64100000000000001</v>
+      </c>
       <c r="I44" s="15">
         <v>0.64</v>
       </c>
@@ -1407,7 +1411,9 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
+      <c r="H45" s="17">
+        <v>0.65600000000000003</v>
+      </c>
       <c r="I45" s="15">
         <v>0.66</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952A6266-FE82-4ECC-A6E4-97BAA3899780}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29EA661-0F8C-4949-8178-32B800472BA6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,7 +1430,9 @@
         <v>0.671875</v>
       </c>
       <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="H46" s="17">
+        <v>0.67200000000000004</v>
+      </c>
       <c r="I46" s="15">
         <v>0.67</v>
       </c>
@@ -1445,7 +1447,9 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+      <c r="H47" s="17">
+        <v>0.68799999999999994</v>
+      </c>
       <c r="I47" s="15">
         <v>0.69</v>
       </c>
@@ -1462,7 +1466,9 @@
         <v>0.703125</v>
       </c>
       <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="H48" s="17">
+        <v>0.70299999999999996</v>
+      </c>
       <c r="I48" s="15">
         <v>0.7</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29EA661-0F8C-4949-8178-32B800472BA6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3272E87-E127-466B-9891-1AEF6375555F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,7 +1483,9 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="H49" s="17">
+        <v>0.71899999999999997</v>
+      </c>
       <c r="I49" s="15">
         <v>0.72</v>
       </c>
@@ -1500,7 +1502,9 @@
         <v>0.734375</v>
       </c>
       <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="H50" s="17">
+        <v>0.73399999999999999</v>
+      </c>
       <c r="I50" s="15">
         <v>0.73</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3272E87-E127-466B-9891-1AEF6375555F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48F7919-C2DD-4EE8-9D9B-4A7BEAA37F8E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,7 +1519,9 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
+      <c r="H51" s="17">
+        <v>0.75</v>
+      </c>
       <c r="I51" s="15">
         <v>0.75</v>
       </c>
@@ -1536,7 +1538,9 @@
         <v>0.765625</v>
       </c>
       <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="H52" s="17">
+        <v>0.76600000000000001</v>
+      </c>
       <c r="I52" s="15">
         <v>0.77</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48F7919-C2DD-4EE8-9D9B-4A7BEAA37F8E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C04492-F562-4CFD-A6C6-FEA935165A10}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,7 +1555,9 @@
       <c r="E53" s="2"/>
       <c r="F53" s="10"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
+      <c r="H53" s="17">
+        <v>0.78100000000000003</v>
+      </c>
       <c r="I53" s="15">
         <v>0.78</v>
       </c>
@@ -1572,7 +1574,9 @@
         <v>10</v>
       </c>
       <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="H54" s="17">
+        <v>0.79700000000000004</v>
+      </c>
       <c r="I54" s="15">
         <v>0.8</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C04492-F562-4CFD-A6C6-FEA935165A10}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF99573D-5520-4B14-BCBC-195143752B01}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,7 +1591,9 @@
       <c r="E55" s="3"/>
       <c r="F55" s="11"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
+      <c r="H55" s="17">
+        <v>0.81200000000000006</v>
+      </c>
       <c r="I55" s="15">
         <v>0.81</v>
       </c>
@@ -1608,7 +1610,9 @@
         <v>11</v>
       </c>
       <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="H56" s="17">
+        <v>0.82799999999999996</v>
+      </c>
       <c r="I56" s="15">
         <v>0.83</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF99573D-5520-4B14-BCBC-195143752B01}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848A078F-AD69-4128-93FA-8FA249D7959A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,7 +1627,9 @@
       <c r="E57" s="3"/>
       <c r="F57" s="11"/>
       <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
+      <c r="H57" s="17">
+        <v>0.84399999999999997</v>
+      </c>
       <c r="I57" s="15">
         <v>0.84</v>
       </c>
@@ -1644,7 +1646,9 @@
         <v>12</v>
       </c>
       <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+      <c r="H58" s="17">
+        <v>0.85899999999999999</v>
+      </c>
       <c r="I58" s="15">
         <v>0.86</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848A078F-AD69-4128-93FA-8FA249D7959A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1343046D-C990-4BB6-802F-0285CFBC6F56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,7 +1663,9 @@
       <c r="E59" s="3"/>
       <c r="F59" s="11"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
+      <c r="H59" s="17">
+        <v>0.875</v>
+      </c>
       <c r="I59" s="15">
         <v>0.88</v>
       </c>
@@ -1680,7 +1682,9 @@
         <v>13</v>
       </c>
       <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+      <c r="H60" s="17">
+        <v>0.89100000000000001</v>
+      </c>
       <c r="I60" s="15">
         <v>0.89</v>
       </c>
@@ -1695,7 +1699,9 @@
       <c r="E61" s="3"/>
       <c r="F61" s="11"/>
       <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
+      <c r="H61" s="17">
+        <v>0.90600000000000003</v>
+      </c>
       <c r="I61" s="15">
         <v>0.91</v>
       </c>
@@ -1712,7 +1718,9 @@
         <v>14</v>
       </c>
       <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+      <c r="H62" s="17">
+        <v>0.92200000000000004</v>
+      </c>
       <c r="I62" s="15">
         <v>0.92</v>
       </c>
@@ -1727,7 +1735,9 @@
       <c r="E63" s="3"/>
       <c r="F63" s="11"/>
       <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
+      <c r="H63" s="17">
+        <v>0.93799999999999994</v>
+      </c>
       <c r="I63" s="15">
         <v>0.94</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1343046D-C990-4BB6-802F-0285CFBC6F56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8E31F0-2492-4AD4-92D7-65E9F4F2C492}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,7 +1754,9 @@
         <v>15</v>
       </c>
       <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
+      <c r="H64" s="17">
+        <v>0.95299999999999996</v>
+      </c>
       <c r="I64" s="15">
         <v>0.95</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8E31F0-2492-4AD4-92D7-65E9F4F2C492}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CFD14E-FF8A-4E0A-8B65-9D5BD06296ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,7 +1771,9 @@
       <c r="E65" s="3"/>
       <c r="F65" s="11"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
+      <c r="H65" s="17">
+        <v>0.96899999999999997</v>
+      </c>
       <c r="I65" s="15">
         <v>0.97</v>
       </c>
@@ -1788,7 +1790,9 @@
         <v>16</v>
       </c>
       <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
+      <c r="H66" s="17">
+        <v>0.98399999999999999</v>
+      </c>
       <c r="I66" s="15">
         <v>0.98</v>
       </c>
@@ -1803,7 +1807,9 @@
       <c r="E67" s="7"/>
       <c r="F67" s="12"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
+      <c r="H67" s="7">
+        <v>1</v>
+      </c>
       <c r="I67" s="16">
         <v>1</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CFD14E-FF8A-4E0A-8B65-9D5BD06296ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424ACA5B-95E3-40A9-A074-69B45A949BBF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -271,6 +271,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +923,7 @@
       <c r="G19" s="17">
         <v>0.25</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="22">
         <v>0.25</v>
       </c>
       <c r="I19" s="15">
@@ -1231,7 +1233,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="17">
+      <c r="H35" s="22">
         <v>0.5</v>
       </c>
       <c r="I35" s="15">
@@ -1519,7 +1521,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="17">
+      <c r="H51" s="22">
         <v>0.75</v>
       </c>
       <c r="I51" s="15">
@@ -1807,7 +1809,7 @@
       <c r="E67" s="7"/>
       <c r="F67" s="12"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="7">
+      <c r="H67" s="21">
         <v>1</v>
       </c>
       <c r="I67" s="16">

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424ACA5B-95E3-40A9-A074-69B45A949BBF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0471AD9-68BA-4F4D-B676-BBD8EF5D84DE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -273,6 +273,7 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +930,7 @@
       <c r="I19" s="15">
         <v>0.25</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="23">
         <v>6.35</v>
       </c>
     </row>
@@ -1239,7 +1240,7 @@
       <c r="I35" s="15">
         <v>0.5</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="23">
         <v>12.7</v>
       </c>
     </row>
@@ -1527,7 +1528,7 @@
       <c r="I51" s="15">
         <v>0.75</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J51" s="23">
         <v>19.05</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0471AD9-68BA-4F4D-B676-BBD8EF5D84DE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA5B616-B435-4CC2-A3B6-D3DFDCD25ADE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,7 +1161,9 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="3"/>
+      <c r="G31" s="17">
+        <v>0.4375</v>
+      </c>
       <c r="H31" s="17">
         <v>0.438</v>
       </c>
@@ -1180,7 +1182,9 @@
       <c r="F32" s="2">
         <v>0.453125</v>
       </c>
-      <c r="G32" s="3"/>
+      <c r="G32" s="17">
+        <v>0.4531</v>
+      </c>
       <c r="H32" s="17">
         <v>0.45300000000000001</v>
       </c>
@@ -1197,7 +1201,9 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="3"/>
+      <c r="G33" s="17">
+        <v>0.46879999999999999</v>
+      </c>
       <c r="H33" s="17">
         <v>0.46899999999999997</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA5B616-B435-4CC2-A3B6-D3DFDCD25ADE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C053D5A0-615E-455E-96FD-279CA28E0120}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,7 +557,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,7 +1222,9 @@
       <c r="F34" s="2">
         <v>0.484375</v>
       </c>
-      <c r="G34" s="3"/>
+      <c r="G34" s="17">
+        <v>0.4844</v>
+      </c>
       <c r="H34" s="17">
         <v>0.48399999999999999</v>
       </c>
@@ -1239,7 +1241,9 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="3"/>
+      <c r="G35" s="17">
+        <v>0.5</v>
+      </c>
       <c r="H35" s="22">
         <v>0.5</v>
       </c>
@@ -1258,7 +1262,9 @@
       <c r="F36" s="2">
         <v>0.515625</v>
       </c>
-      <c r="G36" s="3"/>
+      <c r="G36" s="17">
+        <v>0.51559999999999995</v>
+      </c>
       <c r="H36" s="17">
         <v>0.51600000000000001</v>
       </c>
@@ -1275,7 +1281,9 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="3"/>
+      <c r="G37" s="17">
+        <v>0.53120000000000001</v>
+      </c>
       <c r="H37" s="17">
         <v>0.53100000000000003</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C053D5A0-615E-455E-96FD-279CA28E0120}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6368E142-032B-4FAC-8423-2EE429404C44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,7 +557,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,7 +1302,9 @@
       <c r="F38" s="2">
         <v>0.546875</v>
       </c>
-      <c r="G38" s="3"/>
+      <c r="G38" s="17">
+        <v>0.54690000000000005</v>
+      </c>
       <c r="H38" s="17">
         <v>0.54700000000000004</v>
       </c>
@@ -1319,7 +1321,9 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="3"/>
+      <c r="G39" s="17">
+        <v>0.5625</v>
+      </c>
       <c r="H39" s="17">
         <v>0.56200000000000006</v>
       </c>
@@ -1338,7 +1342,9 @@
       <c r="F40" s="2">
         <v>0.578125</v>
       </c>
-      <c r="G40" s="3"/>
+      <c r="G40" s="17">
+        <v>0.57809999999999995</v>
+      </c>
       <c r="H40" s="17">
         <v>0.57799999999999996</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6368E142-032B-4FAC-8423-2EE429404C44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D059CF46-AAF1-4D2A-BE02-B152F15C9130}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,7 +1361,9 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="3"/>
+      <c r="G41" s="17">
+        <v>0.59379999999999999</v>
+      </c>
       <c r="H41" s="17">
         <v>0.59399999999999997</v>
       </c>
@@ -1380,7 +1382,9 @@
       <c r="F42" s="2">
         <v>0.609375</v>
       </c>
-      <c r="G42" s="3"/>
+      <c r="G42" s="17">
+        <v>0.60940000000000005</v>
+      </c>
       <c r="H42" s="17">
         <v>0.60899999999999999</v>
       </c>
@@ -1397,7 +1401,9 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="3"/>
+      <c r="G43" s="17">
+        <v>0.625</v>
+      </c>
       <c r="H43" s="17">
         <v>0.625</v>
       </c>
@@ -1416,7 +1422,9 @@
       <c r="F44" s="2">
         <v>0.640625</v>
       </c>
-      <c r="G44" s="3"/>
+      <c r="G44" s="17">
+        <v>0.64059999999999995</v>
+      </c>
       <c r="H44" s="17">
         <v>0.64100000000000001</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D059CF46-AAF1-4D2A-BE02-B152F15C9130}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2242CA6-6625-4A75-AE25-78DC108BE75B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,7 +557,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,7 +1441,9 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="3"/>
+      <c r="G45" s="17">
+        <v>0.65620000000000001</v>
+      </c>
       <c r="H45" s="17">
         <v>0.65600000000000003</v>
       </c>
@@ -1460,7 +1462,9 @@
       <c r="F46" s="2">
         <v>0.671875</v>
       </c>
-      <c r="G46" s="3"/>
+      <c r="G46" s="17">
+        <v>0.67190000000000005</v>
+      </c>
       <c r="H46" s="17">
         <v>0.67200000000000004</v>
       </c>
@@ -1477,7 +1481,9 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="3"/>
+      <c r="G47" s="17">
+        <v>0.6875</v>
+      </c>
       <c r="H47" s="17">
         <v>0.68799999999999994</v>
       </c>
@@ -1496,7 +1502,9 @@
       <c r="F48" s="2">
         <v>0.703125</v>
       </c>
-      <c r="G48" s="3"/>
+      <c r="G48" s="17">
+        <v>0.70309999999999995</v>
+      </c>
       <c r="H48" s="17">
         <v>0.70299999999999996</v>
       </c>
@@ -1513,7 +1521,9 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="3"/>
+      <c r="G49" s="17">
+        <v>0.71879999999999999</v>
+      </c>
       <c r="H49" s="17">
         <v>0.71899999999999997</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2242CA6-6625-4A75-AE25-78DC108BE75B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650BDCA5-775C-43C7-8B86-45D1227AFAC1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,9 +85,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#\ ???/???"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -235,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -262,6 +263,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -271,9 +275,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,17 +571,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
@@ -761,7 +763,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="17">
+      <c r="G11" s="24">
         <v>0.125</v>
       </c>
       <c r="H11" s="17">
@@ -924,13 +926,13 @@
       <c r="G19" s="17">
         <v>0.25</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="19">
         <v>0.25</v>
       </c>
       <c r="I19" s="15">
         <v>0.25</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="20">
         <v>6.35</v>
       </c>
     </row>
@@ -1244,13 +1246,13 @@
       <c r="G35" s="17">
         <v>0.5</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="19">
         <v>0.5</v>
       </c>
       <c r="I35" s="15">
         <v>0.5</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="20">
         <v>12.7</v>
       </c>
     </row>
@@ -1560,13 +1562,13 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="22">
+      <c r="H51" s="19">
         <v>0.75</v>
       </c>
       <c r="I51" s="15">
         <v>0.75</v>
       </c>
-      <c r="J51" s="23">
+      <c r="J51" s="20">
         <v>19.05</v>
       </c>
     </row>
@@ -1848,7 +1850,7 @@
       <c r="E67" s="7"/>
       <c r="F67" s="12"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="21">
+      <c r="H67" s="18">
         <v>1</v>
       </c>
       <c r="I67" s="16">

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650BDCA5-775C-43C7-8B86-45D1227AFAC1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD695353-6641-4DA9-B1D7-73A8AC16CFA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,7 +923,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="17">
+      <c r="G19" s="24">
         <v>0.25</v>
       </c>
       <c r="H19" s="19">

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD695353-6641-4DA9-B1D7-73A8AC16CFA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5023DC51-68F2-4024-BD8D-11BB46908302}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1083,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="17">
+      <c r="G27" s="24">
         <v>0.375</v>
       </c>
       <c r="H27" s="17">

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5023DC51-68F2-4024-BD8D-11BB46908302}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33EBB16-91FC-408A-9041-0AA3E063C418}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,7 +1243,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="17">
+      <c r="G35" s="24">
         <v>0.5</v>
       </c>
       <c r="H35" s="19">

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33EBB16-91FC-408A-9041-0AA3E063C418}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE482431-6169-424C-A594-06DA07267879}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,7 +1403,7 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="17">
+      <c r="G43" s="24">
         <v>0.625</v>
       </c>
       <c r="H43" s="17">

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE482431-6169-424C-A594-06DA07267879}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA35A628-0425-481C-8DB0-B00116659373}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +721,9 @@
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>9.375E-2</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="17">
         <v>9.3799999999999994E-2</v>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA35A628-0425-481C-8DB0-B00116659373}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00ADC9A-E3BE-43D2-9F7D-985F46F44BD6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,7 +1546,9 @@
       <c r="F50" s="2">
         <v>0.734375</v>
       </c>
-      <c r="G50" s="3"/>
+      <c r="G50" s="17">
+        <v>0.73440000000000005</v>
+      </c>
       <c r="H50" s="17">
         <v>0.73399999999999999</v>
       </c>
@@ -1563,7 +1565,9 @@
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="3"/>
+      <c r="G51" s="17">
+        <v>0.75</v>
+      </c>
       <c r="H51" s="19">
         <v>0.75</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00ADC9A-E3BE-43D2-9F7D-985F46F44BD6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9466CBC-FA1B-4E75-B692-350D8E23EA75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1565,7 +1565,7 @@
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="17">
+      <c r="G51" s="24">
         <v>0.75</v>
       </c>
       <c r="H51" s="19">

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9466CBC-FA1B-4E75-B692-350D8E23EA75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE64A3E0-E541-4F26-8E24-C1243EDFE1FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,7 +1586,9 @@
       <c r="F52" s="2">
         <v>0.765625</v>
       </c>
-      <c r="G52" s="3"/>
+      <c r="G52" s="17">
+        <v>0.76559999999999995</v>
+      </c>
       <c r="H52" s="17">
         <v>0.76600000000000001</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE64A3E0-E541-4F26-8E24-C1243EDFE1FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD788F9-B5B7-47A4-A7CF-50A340CABBEE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,7 +1605,9 @@
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="10"/>
-      <c r="G53" s="3"/>
+      <c r="G53" s="17">
+        <v>0.78129999999999999</v>
+      </c>
       <c r="H53" s="17">
         <v>0.78100000000000003</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD788F9-B5B7-47A4-A7CF-50A340CABBEE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B3D4D4-9A04-4273-978E-F8DC5C7A1340}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,7 +1626,9 @@
       <c r="F54" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="3"/>
+      <c r="G54" s="17">
+        <v>0.79690000000000005</v>
+      </c>
       <c r="H54" s="17">
         <v>0.79700000000000004</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B3D4D4-9A04-4273-978E-F8DC5C7A1340}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A0A3A1-EC39-48C4-A27B-65B689B20BBF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,7 +1645,9 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="3"/>
+      <c r="G55" s="17">
+        <v>0.8125</v>
+      </c>
       <c r="H55" s="17">
         <v>0.81200000000000006</v>
       </c>
@@ -1664,7 +1666,9 @@
       <c r="F56" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="3"/>
+      <c r="G56" s="17">
+        <v>0.82809999999999995</v>
+      </c>
       <c r="H56" s="17">
         <v>0.82799999999999996</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A0A3A1-EC39-48C4-A27B-65B689B20BBF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6632D6-5457-47C3-8E4E-48B7AC5CEFBE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,7 +1685,9 @@
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="11"/>
-      <c r="G57" s="3"/>
+      <c r="G57" s="17">
+        <v>0.84379999999999999</v>
+      </c>
       <c r="H57" s="17">
         <v>0.84399999999999997</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6632D6-5457-47C3-8E4E-48B7AC5CEFBE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529FB2A6-CAC1-4019-AEE0-4ED5EF6D21CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,7 +1706,9 @@
       <c r="F58" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="3"/>
+      <c r="G58" s="17">
+        <v>0.85940000000000005</v>
+      </c>
       <c r="H58" s="17">
         <v>0.85899999999999999</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529FB2A6-CAC1-4019-AEE0-4ED5EF6D21CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1C6F00-4E6F-4628-BD5A-AF9CE78E186C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,7 +1725,9 @@
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="11"/>
-      <c r="G59" s="3"/>
+      <c r="G59" s="17">
+        <v>0.875</v>
+      </c>
       <c r="H59" s="17">
         <v>0.875</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1C6F00-4E6F-4628-BD5A-AF9CE78E186C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA90DAD0-CBE3-4FA6-8DFB-5836C2FF8AC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,7 +1725,7 @@
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="11"/>
-      <c r="G59" s="17">
+      <c r="G59" s="24">
         <v>0.875</v>
       </c>
       <c r="H59" s="17">
@@ -1746,7 +1746,9 @@
       <c r="F60" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="3"/>
+      <c r="G60" s="17">
+        <v>0.89059999999999995</v>
+      </c>
       <c r="H60" s="17">
         <v>0.89100000000000001</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA90DAD0-CBE3-4FA6-8DFB-5836C2FF8AC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9315600B-9A65-4C8F-ACED-7F208862CF2F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,7 +1765,9 @@
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="11"/>
-      <c r="G61" s="3"/>
+      <c r="G61" s="17">
+        <v>0.90629999999999999</v>
+      </c>
       <c r="H61" s="17">
         <v>0.90600000000000003</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9315600B-9A65-4C8F-ACED-7F208862CF2F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B82287-4E3A-4D8F-8F5F-3D4189D4EE98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,7 +1786,9 @@
       <c r="F62" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G62" s="3"/>
+      <c r="G62" s="17">
+        <v>0.92190000000000005</v>
+      </c>
       <c r="H62" s="17">
         <v>0.92200000000000004</v>
       </c>
@@ -1803,7 +1805,9 @@
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="3"/>
+      <c r="G63" s="17">
+        <v>0.9375</v>
+      </c>
       <c r="H63" s="17">
         <v>0.93799999999999994</v>
       </c>
@@ -1822,7 +1826,9 @@
       <c r="F64" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="3"/>
+      <c r="G64" s="17">
+        <v>0.95309999999999995</v>
+      </c>
       <c r="H64" s="17">
         <v>0.95299999999999996</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B82287-4E3A-4D8F-8F5F-3D4189D4EE98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AF2A76-0FC5-4436-9E5F-AC9EE57817D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,7 +1845,9 @@
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="11"/>
-      <c r="G65" s="3"/>
+      <c r="G65" s="17">
+        <v>0.96879999999999999</v>
+      </c>
       <c r="H65" s="17">
         <v>0.96899999999999997</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AF2A76-0FC5-4436-9E5F-AC9EE57817D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9C35FA-C8B6-48EC-BFD0-9BB76014BEBF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,7 +1866,9 @@
       <c r="F66" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G66" s="3"/>
+      <c r="G66" s="17">
+        <v>0.98440000000000005</v>
+      </c>
       <c r="H66" s="17">
         <v>0.98399999999999999</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9C35FA-C8B6-48EC-BFD0-9BB76014BEBF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA348AD-B76C-488F-B9C2-02E6BFCC6629}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -236,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -276,6 +276,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,7 +1886,9 @@
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="12"/>
-      <c r="G67" s="7"/>
+      <c r="G67" s="25">
+        <v>1</v>
+      </c>
       <c r="H67" s="18">
         <v>1</v>
       </c>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA348AD-B76C-488F-B9C2-02E6BFCC6629}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66AA35F-2B1A-42B7-837F-9A5DD6C1F3A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -147,16 +147,88 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -168,65 +240,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -236,15 +253,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -255,28 +269,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +578,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+      <selection activeCell="D4" sqref="D4:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,1330 +590,1330 @@
   <sheetData>
     <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
         <v>1.5625E-2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>0.02</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>0.39700000000000002</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="1">
         <v>3.125E-2</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3">
+      <c r="F5" s="1"/>
+      <c r="G5" s="2">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="11">
         <v>0.03</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>0.79400000000000004</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
         <v>4.6875E-2</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>4.7E-2</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="12">
         <v>0.05</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>1.1910000000000001</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24">
         <v>6.25E-2</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="17">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="14">
         <v>6.25E-2</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="14">
         <v>6.2E-2</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="12">
         <v>0.06</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>1.5880000000000001</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
         <v>7.8125E-2</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="14">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="14">
         <v>7.8E-2</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="12">
         <v>0.08</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>1.984</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="1">
         <v>9.375E-2</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="17">
+      <c r="F9" s="1"/>
+      <c r="G9" s="14">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="12">
         <v>0.09</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>2.3809999999999998</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
         <v>0.109375</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="14">
         <v>0.1094</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="14">
         <v>0.109</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="12">
         <v>0.11</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>2.778</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="24">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="21">
         <v>0.125</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="14">
         <v>0.125</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="12">
         <v>0.12</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>3.1749999999999998</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
         <v>0.140625</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="14">
         <v>0.1406</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="14">
         <v>0.14099999999999999</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="12">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>3.5720000000000001</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="17">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="14">
         <v>0.15620000000000001</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="14">
         <v>0.156</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="12">
         <v>0.16</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>3.9689999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
         <v>0.171875</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="14">
         <v>0.1719</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="14">
         <v>0.17199999999999999</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="12">
         <v>0.17</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>4.3659999999999997</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="17">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="14">
         <v>0.1875</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="14">
         <v>0.188</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="12">
         <v>0.19</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>4.7619999999999996</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
         <v>0.203125</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="14">
         <v>0.2031</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="14">
         <v>0.20300000000000001</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="12">
         <v>0.2</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>5.1589999999999998</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="17">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="14">
         <v>0.21879999999999999</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="14">
         <v>0.219</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="12">
         <v>0.22</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>5.556</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
         <v>0.234375</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="14">
         <v>0.2344</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="14">
         <v>0.23400000000000001</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="12">
         <v>0.23</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>5.9530000000000003</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="24">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="21">
         <v>0.25</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="16">
         <v>0.25</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="12">
         <v>0.25</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="17">
         <v>6.35</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1">
         <v>0.265625</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="14">
         <v>0.2656</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="14">
         <v>0.26600000000000001</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="12">
         <v>0.27</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>6.7469999999999999</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="17">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="14">
         <v>0.28120000000000001</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="14">
         <v>0.28100000000000003</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>7.1440000000000001</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1">
         <v>0.296875</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="14">
         <v>0.2969</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="14">
         <v>0.29699999999999999</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="12">
         <v>0.3</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>7.5410000000000004</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="17">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="14">
         <v>0.3125</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="14">
         <v>0.312</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="12">
         <v>0.31</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>7.9379999999999997</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1">
         <v>0.328125</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="14">
         <v>0.3281</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="14">
         <v>0.32800000000000001</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="12">
         <v>0.33</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>8.3339999999999996</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="17">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="14">
         <v>0.34379999999999999</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="14">
         <v>0.34399999999999997</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="12">
         <v>0.34</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <v>8.7309999999999999</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1">
         <v>0.359375</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="14">
         <v>0.3594</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="14">
         <v>0.35899999999999999</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="12">
         <v>0.36</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <v>9.1280000000000001</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="24">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="21">
         <v>0.375</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="14">
         <v>0.375</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="12">
         <v>0.38</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <v>9.5250000000000004</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2">
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1">
         <v>0.390625</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="14">
         <v>0.3906</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="14">
         <v>0.39100000000000001</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="12">
         <v>0.39</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
         <v>9.9220000000000006</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="17">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="14">
         <v>0.40620000000000001</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="14">
         <v>0.40600000000000003</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="12">
         <v>0.41</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <v>10.319000000000001</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1">
         <v>0.421875</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="14">
         <v>0.4219</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="14">
         <v>0.42199999999999999</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="12">
         <v>0.42</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <v>10.715999999999999</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="17">
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="14">
         <v>0.4375</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="14">
         <v>0.438</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="12">
         <v>0.44</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="3">
         <v>11.112</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2">
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1">
         <v>0.453125</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="14">
         <v>0.4531</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="14">
         <v>0.45300000000000001</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="12">
         <v>0.45</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="3">
         <v>11.509</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="17">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="14">
         <v>0.46879999999999999</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="14">
         <v>0.46899999999999997</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="12">
         <v>0.47</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="3">
         <v>11.906000000000001</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2">
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1">
         <v>0.484375</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="14">
         <v>0.4844</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="14">
         <v>0.48399999999999999</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I34" s="12">
         <v>0.48</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="3">
         <v>12.303000000000001</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="24">
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="21">
         <v>0.5</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="16">
         <v>0.5</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I35" s="12">
         <v>0.5</v>
       </c>
-      <c r="J35" s="20">
+      <c r="J35" s="17">
         <v>12.7</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2">
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1">
         <v>0.515625</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="14">
         <v>0.51559999999999995</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="14">
         <v>0.51600000000000001</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I36" s="12">
         <v>0.52</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="3">
         <v>13.097</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="17">
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="14">
         <v>0.53120000000000001</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="14">
         <v>0.53100000000000003</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I37" s="12">
         <v>0.53</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="3">
         <v>13.494</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2">
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1">
         <v>0.546875</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="14">
         <v>0.54690000000000005</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="14">
         <v>0.54700000000000004</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I38" s="12">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="3">
         <v>13.891</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="17">
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="14">
         <v>0.5625</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="14">
         <v>0.56200000000000006</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I39" s="12">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="3">
         <v>14.288</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2">
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1">
         <v>0.578125</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="14">
         <v>0.57809999999999995</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="14">
         <v>0.57799999999999996</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I40" s="12">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="3">
         <v>14.683999999999999</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="17">
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="14">
         <v>0.59379999999999999</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="14">
         <v>0.59399999999999997</v>
       </c>
-      <c r="I41" s="15">
+      <c r="I41" s="12">
         <v>0.59</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="3">
         <v>15.081</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2">
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1">
         <v>0.609375</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="14">
         <v>0.60940000000000005</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="14">
         <v>0.60899999999999999</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I42" s="12">
         <v>0.61</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="3">
         <v>15.478</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="24">
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="21">
         <v>0.625</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="14">
         <v>0.625</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="12">
         <v>0.62</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="3">
         <v>15.875</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2">
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1">
         <v>0.640625</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="14">
         <v>0.64059999999999995</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="14">
         <v>0.64100000000000001</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I44" s="12">
         <v>0.64</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="3">
         <v>16.271999999999998</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="17">
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="14">
         <v>0.65620000000000001</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="14">
         <v>0.65600000000000003</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I45" s="12">
         <v>0.66</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="3">
         <v>16.669</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2">
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1">
         <v>0.671875</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="14">
         <v>0.67190000000000005</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="14">
         <v>0.67200000000000004</v>
       </c>
-      <c r="I46" s="15">
+      <c r="I46" s="12">
         <v>0.67</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46" s="3">
         <v>17.065999999999999</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="17">
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="14">
         <v>0.6875</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="14">
         <v>0.68799999999999994</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I47" s="12">
         <v>0.69</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="3">
         <v>17.462</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2">
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1">
         <v>0.703125</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="14">
         <v>0.70309999999999995</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="14">
         <v>0.70299999999999996</v>
       </c>
-      <c r="I48" s="15">
+      <c r="I48" s="12">
         <v>0.7</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J48" s="3">
         <v>17.859000000000002</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="17">
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="14">
         <v>0.71879999999999999</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="14">
         <v>0.71899999999999997</v>
       </c>
-      <c r="I49" s="15">
+      <c r="I49" s="12">
         <v>0.72</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49" s="3">
         <v>18.256</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2">
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1">
         <v>0.734375</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="14">
         <v>0.73440000000000005</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="14">
         <v>0.73399999999999999</v>
       </c>
-      <c r="I50" s="15">
+      <c r="I50" s="12">
         <v>0.73</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50" s="3">
         <v>18.652999999999999</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="24">
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="21">
         <v>0.75</v>
       </c>
-      <c r="H51" s="19">
+      <c r="H51" s="16">
         <v>0.75</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="12">
         <v>0.75</v>
       </c>
-      <c r="J51" s="20">
+      <c r="J51" s="17">
         <v>19.05</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2">
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1">
         <v>0.765625</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="14">
         <v>0.76559999999999995</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="14">
         <v>0.76600000000000001</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I52" s="12">
         <v>0.77</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J52" s="3">
         <v>19.446999999999999</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="17">
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="14">
         <v>0.78129999999999999</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="14">
         <v>0.78100000000000003</v>
       </c>
-      <c r="I53" s="15">
+      <c r="I53" s="12">
         <v>0.78</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J53" s="3">
         <v>19.844000000000001</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="5"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="11" t="s">
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="14">
         <v>0.79690000000000005</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H54" s="14">
         <v>0.79700000000000004</v>
       </c>
-      <c r="I54" s="15">
+      <c r="I54" s="12">
         <v>0.8</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J54" s="3">
         <v>20.241</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="5"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="17">
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="14">
         <v>0.8125</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="14">
         <v>0.81200000000000006</v>
       </c>
-      <c r="I55" s="15">
+      <c r="I55" s="12">
         <v>0.81</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J55" s="3">
         <v>20.638000000000002</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="5"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="11" t="s">
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="14">
         <v>0.82809999999999995</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="14">
         <v>0.82799999999999996</v>
       </c>
-      <c r="I56" s="15">
+      <c r="I56" s="12">
         <v>0.83</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56" s="3">
         <v>21.033999999999999</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="5"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="17">
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="14">
         <v>0.84379999999999999</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="14">
         <v>0.84399999999999997</v>
       </c>
-      <c r="I57" s="15">
+      <c r="I57" s="12">
         <v>0.84</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J57" s="3">
         <v>21.431000000000001</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="5"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="11" t="s">
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="14">
         <v>0.85940000000000005</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="14">
         <v>0.85899999999999999</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I58" s="12">
         <v>0.86</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J58" s="3">
         <v>21.827999999999999</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="5"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="24">
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="21">
         <v>0.875</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H59" s="14">
         <v>0.875</v>
       </c>
-      <c r="I59" s="15">
+      <c r="I59" s="12">
         <v>0.88</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J59" s="3">
         <v>22.225000000000001</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="5"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="11" t="s">
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G60" s="14">
         <v>0.89059999999999995</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="14">
         <v>0.89100000000000001</v>
       </c>
-      <c r="I60" s="15">
+      <c r="I60" s="12">
         <v>0.89</v>
       </c>
-      <c r="J60" s="4">
+      <c r="J60" s="3">
         <v>22.622</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="5"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="17">
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="14">
         <v>0.90629999999999999</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H61" s="14">
         <v>0.90600000000000003</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I61" s="12">
         <v>0.91</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J61" s="3">
         <v>23.018999999999998</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="5"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="11" t="s">
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="14">
         <v>0.92190000000000005</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H62" s="14">
         <v>0.92200000000000004</v>
       </c>
-      <c r="I62" s="15">
+      <c r="I62" s="12">
         <v>0.92</v>
       </c>
-      <c r="J62" s="4">
+      <c r="J62" s="3">
         <v>23.416</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="5"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="17">
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="14">
         <v>0.9375</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H63" s="14">
         <v>0.93799999999999994</v>
       </c>
-      <c r="I63" s="15">
+      <c r="I63" s="12">
         <v>0.94</v>
       </c>
-      <c r="J63" s="4">
+      <c r="J63" s="3">
         <v>23.812000000000001</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="5"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="11" t="s">
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G64" s="14">
         <v>0.95309999999999995</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H64" s="14">
         <v>0.95299999999999996</v>
       </c>
-      <c r="I64" s="15">
+      <c r="I64" s="12">
         <v>0.95</v>
       </c>
-      <c r="J64" s="4">
+      <c r="J64" s="3">
         <v>24.209</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="5"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="17">
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="14">
         <v>0.96879999999999999</v>
       </c>
-      <c r="H65" s="17">
+      <c r="H65" s="14">
         <v>0.96899999999999997</v>
       </c>
-      <c r="I65" s="15">
+      <c r="I65" s="12">
         <v>0.97</v>
       </c>
-      <c r="J65" s="4">
+      <c r="J65" s="3">
         <v>24.606000000000002</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="5"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="11" t="s">
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G66" s="14">
         <v>0.98440000000000005</v>
       </c>
-      <c r="H66" s="17">
+      <c r="H66" s="14">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I66" s="15">
+      <c r="I66" s="12">
         <v>0.98</v>
       </c>
-      <c r="J66" s="4">
+      <c r="J66" s="3">
         <v>25.003</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="6"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="25">
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="22">
         <v>1</v>
       </c>
-      <c r="H67" s="18">
+      <c r="H67" s="15">
         <v>1</v>
       </c>
-      <c r="I67" s="16">
+      <c r="I67" s="13">
         <v>1</v>
       </c>
-      <c r="J67" s="13">
+      <c r="J67" s="10">
         <v>25.4</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66AA35F-2B1A-42B7-837F-9A5DD6C1F3A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF22D738-A28E-4F29-9191-7EDBCCB72CB0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,12 +253,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -578,7 +577,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D67"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,52 +589,52 @@
   <sheetData>
     <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="1">
         <v>1.5625E-2</v>
       </c>
@@ -653,10 +652,10 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="1">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23">
         <v>3.125E-2</v>
       </c>
       <c r="F5" s="1"/>
@@ -666,7 +665,7 @@
       <c r="H5" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>0.03</v>
       </c>
       <c r="J5" s="3">
@@ -674,10 +673,10 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="1">
         <v>4.6875E-2</v>
       </c>
@@ -687,7 +686,7 @@
       <c r="H6" s="2">
         <v>4.7E-2</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>0.05</v>
       </c>
       <c r="J6" s="3">
@@ -695,20 +694,20 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23">
         <v>6.25E-2</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>6.25E-2</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>6.2E-2</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>0.06</v>
       </c>
       <c r="J7" s="3">
@@ -716,20 +715,20 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="1">
         <v>7.8125E-2</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>7.8E-2</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>0.08</v>
       </c>
       <c r="J8" s="3">
@@ -737,20 +736,20 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="1">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23">
         <v>9.375E-2</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>9.4E-2</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>0.09</v>
       </c>
       <c r="J9" s="3">
@@ -758,20 +757,20 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="1">
         <v>0.109375</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>0.1094</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>0.109</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>0.11</v>
       </c>
       <c r="J10" s="3">
@@ -779,18 +778,18 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <v>0.125</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>0.125</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>0.12</v>
       </c>
       <c r="J11" s="3">
@@ -798,20 +797,20 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="1">
         <v>0.140625</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>0.1406</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>0.14099999999999999</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <v>0.14000000000000001</v>
       </c>
       <c r="J12" s="3">
@@ -819,18 +818,18 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>0.15620000000000001</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>0.156</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>0.16</v>
       </c>
       <c r="J13" s="3">
@@ -838,20 +837,20 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="1">
         <v>0.171875</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>0.1719</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>0.17199999999999999</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <v>0.17</v>
       </c>
       <c r="J14" s="3">
@@ -859,18 +858,18 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <v>0.1875</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <v>0.188</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <v>0.19</v>
       </c>
       <c r="J15" s="3">
@@ -878,20 +877,20 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="1">
         <v>0.203125</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>0.2031</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>0.20300000000000001</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <v>0.2</v>
       </c>
       <c r="J16" s="3">
@@ -899,18 +898,18 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="1"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>0.21879999999999999</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>0.219</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="11">
         <v>0.22</v>
       </c>
       <c r="J17" s="3">
@@ -918,20 +917,20 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="1">
         <v>0.234375</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>0.2344</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>0.23400000000000001</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="11">
         <v>0.23</v>
       </c>
       <c r="J18" s="3">
@@ -939,39 +938,39 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="1"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <v>0.25</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="15">
         <v>0.25</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="11">
         <v>0.25</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="16">
         <v>6.35</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="1"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="1">
         <v>0.265625</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <v>0.2656</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>0.26600000000000001</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="11">
         <v>0.27</v>
       </c>
       <c r="J20" s="3">
@@ -979,18 +978,18 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="1"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="14">
+      <c r="G21" s="13">
         <v>0.28120000000000001</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="13">
         <v>0.28100000000000003</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="11">
         <v>0.28000000000000003</v>
       </c>
       <c r="J21" s="3">
@@ -998,20 +997,20 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="1"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="1">
         <v>0.296875</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="13">
         <v>0.2969</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="13">
         <v>0.29699999999999999</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="11">
         <v>0.3</v>
       </c>
       <c r="J22" s="3">
@@ -1019,18 +1018,18 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="1"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="14">
+      <c r="G23" s="13">
         <v>0.3125</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="13">
         <v>0.312</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="11">
         <v>0.31</v>
       </c>
       <c r="J23" s="3">
@@ -1038,20 +1037,20 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="1"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="1">
         <v>0.328125</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="13">
         <v>0.3281</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="13">
         <v>0.32800000000000001</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="11">
         <v>0.33</v>
       </c>
       <c r="J24" s="3">
@@ -1059,18 +1058,18 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="1"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="14">
+      <c r="G25" s="13">
         <v>0.34379999999999999</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="13">
         <v>0.34399999999999997</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="11">
         <v>0.34</v>
       </c>
       <c r="J25" s="3">
@@ -1078,20 +1077,20 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="1"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="1">
         <v>0.359375</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="13">
         <v>0.3594</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="13">
         <v>0.35899999999999999</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="11">
         <v>0.36</v>
       </c>
       <c r="J26" s="3">
@@ -1099,18 +1098,18 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="1"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="21">
+      <c r="G27" s="20">
         <v>0.375</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="13">
         <v>0.375</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="11">
         <v>0.38</v>
       </c>
       <c r="J27" s="3">
@@ -1118,20 +1117,20 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="1"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="1">
         <v>0.390625</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="13">
         <v>0.3906</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="13">
         <v>0.39100000000000001</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="11">
         <v>0.39</v>
       </c>
       <c r="J28" s="3">
@@ -1139,18 +1138,18 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="1"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="14">
+      <c r="G29" s="13">
         <v>0.40620000000000001</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="13">
         <v>0.40600000000000003</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="11">
         <v>0.41</v>
       </c>
       <c r="J29" s="3">
@@ -1158,20 +1157,20 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="1"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
       <c r="F30" s="1">
         <v>0.421875</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="13">
         <v>0.4219</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="13">
         <v>0.42199999999999999</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="11">
         <v>0.42</v>
       </c>
       <c r="J30" s="3">
@@ -1179,18 +1178,18 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="1"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="14">
+      <c r="G31" s="13">
         <v>0.4375</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="13">
         <v>0.438</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="11">
         <v>0.44</v>
       </c>
       <c r="J31" s="3">
@@ -1198,20 +1197,20 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="1"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
       <c r="F32" s="1">
         <v>0.453125</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="13">
         <v>0.4531</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="13">
         <v>0.45300000000000001</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="11">
         <v>0.45</v>
       </c>
       <c r="J32" s="3">
@@ -1219,18 +1218,18 @@
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="1"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="14">
+      <c r="G33" s="13">
         <v>0.46879999999999999</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="13">
         <v>0.46899999999999997</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="11">
         <v>0.47</v>
       </c>
       <c r="J33" s="3">
@@ -1238,20 +1237,20 @@
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="1"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
       <c r="F34" s="1">
         <v>0.484375</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="13">
         <v>0.4844</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="13">
         <v>0.48399999999999999</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="11">
         <v>0.48</v>
       </c>
       <c r="J34" s="3">
@@ -1259,39 +1258,39 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="1"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="21">
+      <c r="G35" s="20">
         <v>0.5</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="15">
         <v>0.5</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="11">
         <v>0.5</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J35" s="16">
         <v>12.7</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="1"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
       <c r="F36" s="1">
         <v>0.515625</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="13">
         <v>0.51559999999999995</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="13">
         <v>0.51600000000000001</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="11">
         <v>0.52</v>
       </c>
       <c r="J36" s="3">
@@ -1299,18 +1298,18 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="1"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="14">
+      <c r="G37" s="13">
         <v>0.53120000000000001</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="13">
         <v>0.53100000000000003</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="11">
         <v>0.53</v>
       </c>
       <c r="J37" s="3">
@@ -1318,20 +1317,20 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="1"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="1">
         <v>0.546875</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="13">
         <v>0.54690000000000005</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="13">
         <v>0.54700000000000004</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="11">
         <v>0.55000000000000004</v>
       </c>
       <c r="J38" s="3">
@@ -1339,18 +1338,18 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="1"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="14">
+      <c r="G39" s="13">
         <v>0.5625</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="13">
         <v>0.56200000000000006</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="11">
         <v>0.56000000000000005</v>
       </c>
       <c r="J39" s="3">
@@ -1358,20 +1357,20 @@
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="1"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="1">
         <v>0.578125</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="13">
         <v>0.57809999999999995</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="13">
         <v>0.57799999999999996</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="11">
         <v>0.57999999999999996</v>
       </c>
       <c r="J40" s="3">
@@ -1379,18 +1378,18 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="1"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="14">
+      <c r="G41" s="13">
         <v>0.59379999999999999</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="13">
         <v>0.59399999999999997</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="11">
         <v>0.59</v>
       </c>
       <c r="J41" s="3">
@@ -1398,20 +1397,20 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="1"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
       <c r="F42" s="1">
         <v>0.609375</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="13">
         <v>0.60940000000000005</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="13">
         <v>0.60899999999999999</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="11">
         <v>0.61</v>
       </c>
       <c r="J42" s="3">
@@ -1419,18 +1418,18 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="1"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="21">
+      <c r="G43" s="20">
         <v>0.625</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="13">
         <v>0.625</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I43" s="11">
         <v>0.62</v>
       </c>
       <c r="J43" s="3">
@@ -1438,20 +1437,20 @@
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="1"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
       <c r="F44" s="1">
         <v>0.640625</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G44" s="13">
         <v>0.64059999999999995</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="13">
         <v>0.64100000000000001</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44" s="11">
         <v>0.64</v>
       </c>
       <c r="J44" s="3">
@@ -1459,18 +1458,18 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="1"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="14">
+      <c r="G45" s="13">
         <v>0.65620000000000001</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="13">
         <v>0.65600000000000003</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="11">
         <v>0.66</v>
       </c>
       <c r="J45" s="3">
@@ -1478,20 +1477,20 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="1"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
       <c r="F46" s="1">
         <v>0.671875</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G46" s="13">
         <v>0.67190000000000005</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="13">
         <v>0.67200000000000004</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="11">
         <v>0.67</v>
       </c>
       <c r="J46" s="3">
@@ -1499,18 +1498,18 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="1"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="14">
+      <c r="G47" s="13">
         <v>0.6875</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="13">
         <v>0.68799999999999994</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I47" s="11">
         <v>0.69</v>
       </c>
       <c r="J47" s="3">
@@ -1518,20 +1517,20 @@
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="1"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
       <c r="F48" s="1">
         <v>0.703125</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="13">
         <v>0.70309999999999995</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="13">
         <v>0.70299999999999996</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="11">
         <v>0.7</v>
       </c>
       <c r="J48" s="3">
@@ -1539,18 +1538,18 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="1"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="14">
+      <c r="G49" s="13">
         <v>0.71879999999999999</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="13">
         <v>0.71899999999999997</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I49" s="11">
         <v>0.72</v>
       </c>
       <c r="J49" s="3">
@@ -1558,20 +1557,20 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="1"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
       <c r="F50" s="1">
         <v>0.734375</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G50" s="13">
         <v>0.73440000000000005</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H50" s="13">
         <v>0.73399999999999999</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="11">
         <v>0.73</v>
       </c>
       <c r="J50" s="3">
@@ -1579,39 +1578,39 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="1"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="21">
+      <c r="G51" s="20">
         <v>0.75</v>
       </c>
-      <c r="H51" s="16">
+      <c r="H51" s="15">
         <v>0.75</v>
       </c>
-      <c r="I51" s="12">
+      <c r="I51" s="11">
         <v>0.75</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="16">
         <v>19.05</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="1"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
       <c r="F52" s="1">
         <v>0.765625</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G52" s="13">
         <v>0.76559999999999995</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H52" s="13">
         <v>0.76600000000000001</v>
       </c>
-      <c r="I52" s="12">
+      <c r="I52" s="11">
         <v>0.77</v>
       </c>
       <c r="J52" s="3">
@@ -1619,18 +1618,18 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="14">
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="13">
         <v>0.78129999999999999</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53" s="13">
         <v>0.78100000000000003</v>
       </c>
-      <c r="I53" s="12">
+      <c r="I53" s="11">
         <v>0.78</v>
       </c>
       <c r="J53" s="3">
@@ -1638,20 +1637,20 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="8" t="s">
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G54" s="13">
         <v>0.79690000000000005</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H54" s="13">
         <v>0.79700000000000004</v>
       </c>
-      <c r="I54" s="12">
+      <c r="I54" s="11">
         <v>0.8</v>
       </c>
       <c r="J54" s="3">
@@ -1659,18 +1658,18 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="14">
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="13">
         <v>0.8125</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H55" s="13">
         <v>0.81200000000000006</v>
       </c>
-      <c r="I55" s="12">
+      <c r="I55" s="11">
         <v>0.81</v>
       </c>
       <c r="J55" s="3">
@@ -1678,20 +1677,20 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="8" t="s">
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G56" s="13">
         <v>0.82809999999999995</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H56" s="13">
         <v>0.82799999999999996</v>
       </c>
-      <c r="I56" s="12">
+      <c r="I56" s="11">
         <v>0.83</v>
       </c>
       <c r="J56" s="3">
@@ -1699,18 +1698,18 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="14">
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="13">
         <v>0.84379999999999999</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="13">
         <v>0.84399999999999997</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I57" s="11">
         <v>0.84</v>
       </c>
       <c r="J57" s="3">
@@ -1718,20 +1717,20 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="8" t="s">
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G58" s="13">
         <v>0.85940000000000005</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H58" s="13">
         <v>0.85899999999999999</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I58" s="11">
         <v>0.86</v>
       </c>
       <c r="J58" s="3">
@@ -1739,18 +1738,18 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="21">
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="20">
         <v>0.875</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="13">
         <v>0.875</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I59" s="11">
         <v>0.88</v>
       </c>
       <c r="J59" s="3">
@@ -1758,20 +1757,20 @@
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="8" t="s">
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="13">
         <v>0.89059999999999995</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H60" s="13">
         <v>0.89100000000000001</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I60" s="11">
         <v>0.89</v>
       </c>
       <c r="J60" s="3">
@@ -1779,18 +1778,18 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="14">
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="13">
         <v>0.90629999999999999</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="13">
         <v>0.90600000000000003</v>
       </c>
-      <c r="I61" s="12">
+      <c r="I61" s="11">
         <v>0.91</v>
       </c>
       <c r="J61" s="3">
@@ -1798,20 +1797,20 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="8" t="s">
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G62" s="13">
         <v>0.92190000000000005</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H62" s="13">
         <v>0.92200000000000004</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I62" s="11">
         <v>0.92</v>
       </c>
       <c r="J62" s="3">
@@ -1819,18 +1818,18 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="14">
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="13">
         <v>0.9375</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H63" s="13">
         <v>0.93799999999999994</v>
       </c>
-      <c r="I63" s="12">
+      <c r="I63" s="11">
         <v>0.94</v>
       </c>
       <c r="J63" s="3">
@@ -1838,20 +1837,20 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="8" t="s">
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G64" s="13">
         <v>0.95309999999999995</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H64" s="13">
         <v>0.95299999999999996</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I64" s="11">
         <v>0.95</v>
       </c>
       <c r="J64" s="3">
@@ -1859,18 +1858,18 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="14">
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="13">
         <v>0.96879999999999999</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H65" s="13">
         <v>0.96899999999999997</v>
       </c>
-      <c r="I65" s="12">
+      <c r="I65" s="11">
         <v>0.97</v>
       </c>
       <c r="J65" s="3">
@@ -1878,20 +1877,20 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="8" t="s">
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G66" s="13">
         <v>0.98440000000000005</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H66" s="13">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I66" s="12">
+      <c r="I66" s="11">
         <v>0.98</v>
       </c>
       <c r="J66" s="3">
@@ -1899,21 +1898,21 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="22">
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="21">
         <v>1</v>
       </c>
-      <c r="H67" s="15">
+      <c r="H67" s="14">
         <v>1</v>
       </c>
-      <c r="I67" s="13">
+      <c r="I67" s="12">
         <v>1</v>
       </c>
-      <c r="J67" s="10">
+      <c r="J67" s="9">
         <v>25.4</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF22D738-A28E-4F29-9191-7EDBCCB72CB0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C675C6F1-2BC4-4A08-A51A-A2B14468D2B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,23 +253,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -294,6 +284,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,7 +576,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="F4" sqref="F4:F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,1330 +588,1330 @@
   <sheetData>
     <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="1">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18">
         <v>1.5625E-2</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>0.02</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>0.39700000000000002</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19">
         <v>3.125E-2</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2">
+      <c r="F5" s="19"/>
+      <c r="G5" s="1">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="6">
         <v>0.03</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>0.79400000000000004</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="1">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19">
         <v>4.6875E-2</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="7">
         <v>0.05</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>1.1910000000000001</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19">
         <v>6.25E-2</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="13">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="9">
         <v>6.25E-2</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="9">
         <v>6.2E-2</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="7">
         <v>0.06</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>1.5880000000000001</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="1">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19">
         <v>7.8125E-2</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="9">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="9">
         <v>7.8E-2</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="7">
         <v>0.08</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>1.984</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19">
         <v>9.375E-2</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="13">
+      <c r="F9" s="19"/>
+      <c r="G9" s="9">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="9">
         <v>9.4E-2</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="7">
         <v>0.09</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>2.3809999999999998</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="1">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19">
         <v>0.109375</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="9">
         <v>0.1094</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="9">
         <v>0.109</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="7">
         <v>0.11</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>2.778</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="20">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="16">
         <v>0.125</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="9">
         <v>0.125</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="7">
         <v>0.12</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>3.1749999999999998</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="1">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19">
         <v>0.140625</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="9">
         <v>0.1406</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="9">
         <v>0.14099999999999999</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>3.5720000000000001</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="13">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="9">
         <v>0.15620000000000001</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="9">
         <v>0.156</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="7">
         <v>0.16</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>3.9689999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="1">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19">
         <v>0.171875</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="9">
         <v>0.1719</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="9">
         <v>0.17199999999999999</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="7">
         <v>0.17</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>4.3659999999999997</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="13">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="9">
         <v>0.1875</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="9">
         <v>0.188</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="7">
         <v>0.19</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>4.7619999999999996</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="1">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19">
         <v>0.203125</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="9">
         <v>0.2031</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="9">
         <v>0.20300000000000001</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="7">
         <v>0.2</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>5.1589999999999998</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="13">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="9">
         <v>0.21879999999999999</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="9">
         <v>0.219</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="7">
         <v>0.22</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>5.556</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="1">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19">
         <v>0.234375</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="9">
         <v>0.2344</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="9">
         <v>0.23400000000000001</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="7">
         <v>0.23</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>5.9530000000000003</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="20">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="16">
         <v>0.25</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="11">
         <v>0.25</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="7">
         <v>0.25</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="12">
         <v>6.35</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="1">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19">
         <v>0.265625</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="9">
         <v>0.2656</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="9">
         <v>0.26600000000000001</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="7">
         <v>0.27</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>6.7469999999999999</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="13">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="9">
         <v>0.28120000000000001</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="9">
         <v>0.28100000000000003</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>7.1440000000000001</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="1">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19">
         <v>0.296875</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="9">
         <v>0.2969</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="9">
         <v>0.29699999999999999</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="7">
         <v>0.3</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>7.5410000000000004</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="13">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="9">
         <v>0.3125</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="9">
         <v>0.312</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="7">
         <v>0.31</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>7.9379999999999997</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="1">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19">
         <v>0.328125</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="9">
         <v>0.3281</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="9">
         <v>0.32800000000000001</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="7">
         <v>0.33</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <v>8.3339999999999996</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="13">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="9">
         <v>0.34379999999999999</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="9">
         <v>0.34399999999999997</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="7">
         <v>0.34</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <v>8.7309999999999999</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="1">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19">
         <v>0.359375</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="9">
         <v>0.3594</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="9">
         <v>0.35899999999999999</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="7">
         <v>0.36</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <v>9.1280000000000001</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="20">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="16">
         <v>0.375</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="9">
         <v>0.375</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="7">
         <v>0.38</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <v>9.5250000000000004</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="1">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19">
         <v>0.390625</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="9">
         <v>0.3906</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="9">
         <v>0.39100000000000001</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="7">
         <v>0.39</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="2">
         <v>9.9220000000000006</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="13">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="9">
         <v>0.40620000000000001</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="9">
         <v>0.40600000000000003</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="7">
         <v>0.41</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <v>10.319000000000001</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="1">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19">
         <v>0.421875</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="9">
         <v>0.4219</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="9">
         <v>0.42199999999999999</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="7">
         <v>0.42</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="2">
         <v>10.715999999999999</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="13">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="9">
         <v>0.4375</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="9">
         <v>0.438</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="7">
         <v>0.44</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="2">
         <v>11.112</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="1">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19">
         <v>0.453125</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="9">
         <v>0.4531</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="9">
         <v>0.45300000000000001</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="7">
         <v>0.45</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <v>11.509</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="13">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="9">
         <v>0.46879999999999999</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="9">
         <v>0.46899999999999997</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="7">
         <v>0.47</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <v>11.906000000000001</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="1">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19">
         <v>0.484375</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="9">
         <v>0.4844</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="9">
         <v>0.48399999999999999</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="7">
         <v>0.48</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <v>12.303000000000001</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="20">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="16">
         <v>0.5</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="11">
         <v>0.5</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="7">
         <v>0.5</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="12">
         <v>12.7</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="1">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19">
         <v>0.515625</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="9">
         <v>0.51559999999999995</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="9">
         <v>0.51600000000000001</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="7">
         <v>0.52</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="2">
         <v>13.097</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="13">
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="9">
         <v>0.53120000000000001</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="9">
         <v>0.53100000000000003</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="7">
         <v>0.53</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="2">
         <v>13.494</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="1">
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19">
         <v>0.546875</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="9">
         <v>0.54690000000000005</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="9">
         <v>0.54700000000000004</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I38" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="2">
         <v>13.891</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="13">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="9">
         <v>0.5625</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="9">
         <v>0.56200000000000006</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I39" s="7">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="2">
         <v>14.288</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="1">
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19">
         <v>0.578125</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="9">
         <v>0.57809999999999995</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="9">
         <v>0.57799999999999996</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I40" s="7">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="2">
         <v>14.683999999999999</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="13">
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="9">
         <v>0.59379999999999999</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="9">
         <v>0.59399999999999997</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I41" s="7">
         <v>0.59</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="2">
         <v>15.081</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="1">
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19">
         <v>0.609375</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="9">
         <v>0.60940000000000005</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="9">
         <v>0.60899999999999999</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="7">
         <v>0.61</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="2">
         <v>15.478</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="20">
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="16">
         <v>0.625</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="9">
         <v>0.625</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I43" s="7">
         <v>0.62</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="2">
         <v>15.875</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="1">
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19">
         <v>0.640625</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="9">
         <v>0.64059999999999995</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="9">
         <v>0.64100000000000001</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="7">
         <v>0.64</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="2">
         <v>16.271999999999998</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="13">
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="9">
         <v>0.65620000000000001</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="9">
         <v>0.65600000000000003</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I45" s="7">
         <v>0.66</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="2">
         <v>16.669</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="1">
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19">
         <v>0.671875</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="9">
         <v>0.67190000000000005</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="9">
         <v>0.67200000000000004</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="7">
         <v>0.67</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="2">
         <v>17.065999999999999</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="13">
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="9">
         <v>0.6875</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="9">
         <v>0.68799999999999994</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I47" s="7">
         <v>0.69</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="2">
         <v>17.462</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="1">
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19">
         <v>0.703125</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G48" s="9">
         <v>0.70309999999999995</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="9">
         <v>0.70299999999999996</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I48" s="7">
         <v>0.7</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="2">
         <v>17.859000000000002</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="13">
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="9">
         <v>0.71879999999999999</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="9">
         <v>0.71899999999999997</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I49" s="7">
         <v>0.72</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="2">
         <v>18.256</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="1">
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19">
         <v>0.734375</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50" s="9">
         <v>0.73440000000000005</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="9">
         <v>0.73399999999999999</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I50" s="7">
         <v>0.73</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="2">
         <v>18.652999999999999</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="20">
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="16">
         <v>0.75</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H51" s="11">
         <v>0.75</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I51" s="7">
         <v>0.75</v>
       </c>
-      <c r="J51" s="16">
+      <c r="J51" s="12">
         <v>19.05</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="1">
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19">
         <v>0.765625</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="9">
         <v>0.76559999999999995</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H52" s="9">
         <v>0.76600000000000001</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I52" s="7">
         <v>0.77</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="2">
         <v>19.446999999999999</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="13">
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="9">
         <v>0.78129999999999999</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H53" s="9">
         <v>0.78100000000000003</v>
       </c>
-      <c r="I53" s="11">
+      <c r="I53" s="7">
         <v>0.78</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="2">
         <v>19.844000000000001</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="7" t="s">
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G54" s="9">
         <v>0.79690000000000005</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H54" s="9">
         <v>0.79700000000000004</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I54" s="7">
         <v>0.8</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="2">
         <v>20.241</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="13">
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="9">
         <v>0.8125</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H55" s="9">
         <v>0.81200000000000006</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I55" s="7">
         <v>0.81</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55" s="2">
         <v>20.638000000000002</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="7" t="s">
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G56" s="9">
         <v>0.82809999999999995</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H56" s="9">
         <v>0.82799999999999996</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I56" s="7">
         <v>0.83</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56" s="2">
         <v>21.033999999999999</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="13">
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="9">
         <v>0.84379999999999999</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57" s="9">
         <v>0.84399999999999997</v>
       </c>
-      <c r="I57" s="11">
+      <c r="I57" s="7">
         <v>0.84</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="2">
         <v>21.431000000000001</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="7" t="s">
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G58" s="9">
         <v>0.85940000000000005</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H58" s="9">
         <v>0.85899999999999999</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I58" s="7">
         <v>0.86</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="2">
         <v>21.827999999999999</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="20">
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="16">
         <v>0.875</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H59" s="9">
         <v>0.875</v>
       </c>
-      <c r="I59" s="11">
+      <c r="I59" s="7">
         <v>0.88</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="2">
         <v>22.225000000000001</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="7" t="s">
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G60" s="9">
         <v>0.89059999999999995</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H60" s="9">
         <v>0.89100000000000001</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I60" s="7">
         <v>0.89</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="2">
         <v>22.622</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="13">
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="9">
         <v>0.90629999999999999</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H61" s="9">
         <v>0.90600000000000003</v>
       </c>
-      <c r="I61" s="11">
+      <c r="I61" s="7">
         <v>0.91</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J61" s="2">
         <v>23.018999999999998</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="7" t="s">
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G62" s="9">
         <v>0.92190000000000005</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H62" s="9">
         <v>0.92200000000000004</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I62" s="7">
         <v>0.92</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="2">
         <v>23.416</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="13">
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="9">
         <v>0.9375</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H63" s="9">
         <v>0.93799999999999994</v>
       </c>
-      <c r="I63" s="11">
+      <c r="I63" s="7">
         <v>0.94</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J63" s="2">
         <v>23.812000000000001</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="7" t="s">
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G64" s="9">
         <v>0.95309999999999995</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H64" s="9">
         <v>0.95299999999999996</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I64" s="7">
         <v>0.95</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64" s="2">
         <v>24.209</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="13">
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="9">
         <v>0.96879999999999999</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H65" s="9">
         <v>0.96899999999999997</v>
       </c>
-      <c r="I65" s="11">
+      <c r="I65" s="7">
         <v>0.97</v>
       </c>
-      <c r="J65" s="3">
+      <c r="J65" s="2">
         <v>24.606000000000002</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="7" t="s">
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G66" s="9">
         <v>0.98440000000000005</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H66" s="9">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I66" s="11">
+      <c r="I66" s="7">
         <v>0.98</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="2">
         <v>25.003</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="21">
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="17">
         <v>1</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H67" s="10">
         <v>1</v>
       </c>
-      <c r="I67" s="12">
+      <c r="I67" s="8">
         <v>1</v>
       </c>
-      <c r="J67" s="9">
+      <c r="J67" s="5">
         <v>25.4</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C675C6F1-2BC4-4A08-A51A-A2B14468D2B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DF6973-A61D-4786-AAC1-E5C44EAC12BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -278,8 +278,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -293,6 +291,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,7 +578,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F67"/>
+      <selection activeCell="G4" sqref="G4:G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,14 +632,14 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16">
         <v>1.5625E-2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="23">
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="H4" s="1">
@@ -651,14 +653,14 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17">
         <v>3.125E-2</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="1">
+      <c r="F5" s="17"/>
+      <c r="G5" s="18">
         <v>3.1199999999999999E-2</v>
       </c>
       <c r="H5" s="1">
@@ -672,14 +674,14 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17">
         <v>4.6875E-2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="18">
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="H6" s="1">
@@ -693,14 +695,14 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17">
         <v>6.25E-2</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="9">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="24">
         <v>6.25E-2</v>
       </c>
       <c r="H7" s="9">
@@ -714,14 +716,14 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17">
         <v>7.8125E-2</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="24">
         <v>7.8100000000000003E-2</v>
       </c>
       <c r="H8" s="9">
@@ -735,14 +737,14 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17">
         <v>9.375E-2</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="9">
+      <c r="F9" s="17"/>
+      <c r="G9" s="24">
         <v>9.3799999999999994E-2</v>
       </c>
       <c r="H9" s="9">
@@ -756,14 +758,14 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17">
         <v>0.109375</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="24">
         <v>0.1094</v>
       </c>
       <c r="H10" s="9">
@@ -777,12 +779,12 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="16">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="25">
         <v>0.125</v>
       </c>
       <c r="H11" s="9">
@@ -796,14 +798,14 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17">
         <v>0.140625</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="24">
         <v>0.1406</v>
       </c>
       <c r="H12" s="9">
@@ -817,12 +819,12 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="9">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="24">
         <v>0.15620000000000001</v>
       </c>
       <c r="H13" s="9">
@@ -836,14 +838,14 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17">
         <v>0.171875</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="24">
         <v>0.1719</v>
       </c>
       <c r="H14" s="9">
@@ -857,12 +859,12 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="9">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="24">
         <v>0.1875</v>
       </c>
       <c r="H15" s="9">
@@ -876,14 +878,14 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17">
         <v>0.203125</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="24">
         <v>0.2031</v>
       </c>
       <c r="H16" s="9">
@@ -897,12 +899,12 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="9">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="24">
         <v>0.21879999999999999</v>
       </c>
       <c r="H17" s="9">
@@ -916,14 +918,14 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17">
         <v>0.234375</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="24">
         <v>0.2344</v>
       </c>
       <c r="H18" s="9">
@@ -937,12 +939,12 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="16">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="25">
         <v>0.25</v>
       </c>
       <c r="H19" s="11">
@@ -956,14 +958,14 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17">
         <v>0.265625</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="24">
         <v>0.2656</v>
       </c>
       <c r="H20" s="9">
@@ -977,12 +979,12 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="9">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="24">
         <v>0.28120000000000001</v>
       </c>
       <c r="H21" s="9">
@@ -996,14 +998,14 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17">
         <v>0.296875</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="24">
         <v>0.2969</v>
       </c>
       <c r="H22" s="9">
@@ -1017,12 +1019,12 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="9">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="24">
         <v>0.3125</v>
       </c>
       <c r="H23" s="9">
@@ -1036,14 +1038,14 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17">
         <v>0.328125</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="24">
         <v>0.3281</v>
       </c>
       <c r="H24" s="9">
@@ -1057,12 +1059,12 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="9">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="24">
         <v>0.34379999999999999</v>
       </c>
       <c r="H25" s="9">
@@ -1076,14 +1078,14 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17">
         <v>0.359375</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="24">
         <v>0.3594</v>
       </c>
       <c r="H26" s="9">
@@ -1097,12 +1099,12 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="16">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="25">
         <v>0.375</v>
       </c>
       <c r="H27" s="9">
@@ -1116,14 +1118,14 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17">
         <v>0.390625</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="24">
         <v>0.3906</v>
       </c>
       <c r="H28" s="9">
@@ -1137,12 +1139,12 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="9">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="24">
         <v>0.40620000000000001</v>
       </c>
       <c r="H29" s="9">
@@ -1156,14 +1158,14 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17">
         <v>0.421875</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="24">
         <v>0.4219</v>
       </c>
       <c r="H30" s="9">
@@ -1177,12 +1179,12 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="9">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="24">
         <v>0.4375</v>
       </c>
       <c r="H31" s="9">
@@ -1196,14 +1198,14 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17">
         <v>0.453125</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="24">
         <v>0.4531</v>
       </c>
       <c r="H32" s="9">
@@ -1217,12 +1219,12 @@
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="9">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="24">
         <v>0.46879999999999999</v>
       </c>
       <c r="H33" s="9">
@@ -1236,14 +1238,14 @@
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17">
         <v>0.484375</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="24">
         <v>0.4844</v>
       </c>
       <c r="H34" s="9">
@@ -1257,12 +1259,12 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="16">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="25">
         <v>0.5</v>
       </c>
       <c r="H35" s="11">
@@ -1276,14 +1278,14 @@
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17">
         <v>0.515625</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="24">
         <v>0.51559999999999995</v>
       </c>
       <c r="H36" s="9">
@@ -1297,12 +1299,12 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="9">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="24">
         <v>0.53120000000000001</v>
       </c>
       <c r="H37" s="9">
@@ -1316,14 +1318,14 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17">
         <v>0.546875</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="24">
         <v>0.54690000000000005</v>
       </c>
       <c r="H38" s="9">
@@ -1337,12 +1339,12 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="9">
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="24">
         <v>0.5625</v>
       </c>
       <c r="H39" s="9">
@@ -1356,14 +1358,14 @@
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19">
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17">
         <v>0.578125</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="24">
         <v>0.57809999999999995</v>
       </c>
       <c r="H40" s="9">
@@ -1377,12 +1379,12 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="9">
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="24">
         <v>0.59379999999999999</v>
       </c>
       <c r="H41" s="9">
@@ -1396,14 +1398,14 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19">
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17">
         <v>0.609375</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="24">
         <v>0.60940000000000005</v>
       </c>
       <c r="H42" s="9">
@@ -1417,12 +1419,12 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="16">
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="25">
         <v>0.625</v>
       </c>
       <c r="H43" s="9">
@@ -1436,14 +1438,14 @@
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19">
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17">
         <v>0.640625</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="24">
         <v>0.64059999999999995</v>
       </c>
       <c r="H44" s="9">
@@ -1457,12 +1459,12 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="9">
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="24">
         <v>0.65620000000000001</v>
       </c>
       <c r="H45" s="9">
@@ -1476,14 +1478,14 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19">
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17">
         <v>0.671875</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="24">
         <v>0.67190000000000005</v>
       </c>
       <c r="H46" s="9">
@@ -1497,12 +1499,12 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="9">
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="24">
         <v>0.6875</v>
       </c>
       <c r="H47" s="9">
@@ -1516,14 +1518,14 @@
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19">
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17">
         <v>0.703125</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="24">
         <v>0.70309999999999995</v>
       </c>
       <c r="H48" s="9">
@@ -1537,12 +1539,12 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="9">
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="24">
         <v>0.71879999999999999</v>
       </c>
       <c r="H49" s="9">
@@ -1556,14 +1558,14 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19">
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17">
         <v>0.734375</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="24">
         <v>0.73440000000000005</v>
       </c>
       <c r="H50" s="9">
@@ -1577,12 +1579,12 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="16">
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="25">
         <v>0.75</v>
       </c>
       <c r="H51" s="11">
@@ -1596,14 +1598,14 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19">
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17">
         <v>0.765625</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="24">
         <v>0.76559999999999995</v>
       </c>
       <c r="H52" s="9">
@@ -1617,12 +1619,12 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="9">
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="24">
         <v>0.78129999999999999</v>
       </c>
       <c r="H53" s="9">
@@ -1636,14 +1638,14 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="23" t="s">
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="24">
         <v>0.79690000000000005</v>
       </c>
       <c r="H54" s="9">
@@ -1657,12 +1659,12 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="9">
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="24">
         <v>0.8125</v>
       </c>
       <c r="H55" s="9">
@@ -1676,14 +1678,14 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="23" t="s">
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="24">
         <v>0.82809999999999995</v>
       </c>
       <c r="H56" s="9">
@@ -1697,12 +1699,12 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="9">
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="24">
         <v>0.84379999999999999</v>
       </c>
       <c r="H57" s="9">
@@ -1716,14 +1718,14 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="23" t="s">
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="24">
         <v>0.85940000000000005</v>
       </c>
       <c r="H58" s="9">
@@ -1737,12 +1739,12 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="16">
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="25">
         <v>0.875</v>
       </c>
       <c r="H59" s="9">
@@ -1756,14 +1758,14 @@
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="23" t="s">
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="24">
         <v>0.89059999999999995</v>
       </c>
       <c r="H60" s="9">
@@ -1777,12 +1779,12 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="9">
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="24">
         <v>0.90629999999999999</v>
       </c>
       <c r="H61" s="9">
@@ -1796,14 +1798,14 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="23" t="s">
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="24">
         <v>0.92190000000000005</v>
       </c>
       <c r="H62" s="9">
@@ -1817,12 +1819,12 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="9">
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="24">
         <v>0.9375</v>
       </c>
       <c r="H63" s="9">
@@ -1836,14 +1838,14 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="23" t="s">
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="24">
         <v>0.95309999999999995</v>
       </c>
       <c r="H64" s="9">
@@ -1857,12 +1859,12 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="9">
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="24">
         <v>0.96879999999999999</v>
       </c>
       <c r="H65" s="9">
@@ -1876,14 +1878,14 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="23" t="s">
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G66" s="24">
         <v>0.98440000000000005</v>
       </c>
       <c r="H66" s="9">
@@ -1897,12 +1899,12 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="17">
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="26">
         <v>1</v>
       </c>
       <c r="H67" s="10">

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DF6973-A61D-4786-AAC1-E5C44EAC12BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E81C026-E6AA-4BB4-8B31-4E0DFF907A0C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -265,9 +265,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -295,6 +292,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,7 +577,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G67"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,17 +589,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -632,17 +631,17 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13">
         <v>1.5625E-2</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="20">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="20">
         <v>1.6E-2</v>
       </c>
       <c r="I4" s="1">
@@ -653,17 +652,17 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14">
         <v>3.125E-2</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18">
+      <c r="F5" s="14"/>
+      <c r="G5" s="15">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="15">
         <v>3.1E-2</v>
       </c>
       <c r="I5" s="6">
@@ -674,17 +673,17 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14">
         <v>4.6875E-2</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="15">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="15">
         <v>4.7E-2</v>
       </c>
       <c r="I6" s="7">
@@ -695,17 +694,17 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14">
         <v>6.25E-2</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="24">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="21">
         <v>6.25E-2</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="21">
         <v>6.2E-2</v>
       </c>
       <c r="I7" s="7">
@@ -716,17 +715,17 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14">
         <v>7.8125E-2</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="21">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="21">
         <v>7.8E-2</v>
       </c>
       <c r="I8" s="7">
@@ -737,17 +736,17 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14">
         <v>9.375E-2</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="24">
+      <c r="F9" s="14"/>
+      <c r="G9" s="21">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="21">
         <v>9.4E-2</v>
       </c>
       <c r="I9" s="7">
@@ -758,17 +757,17 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14">
         <v>0.109375</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="21">
         <v>0.1094</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="21">
         <v>0.109</v>
       </c>
       <c r="I10" s="7">
@@ -779,15 +778,15 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="22">
         <v>0.125</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="21">
         <v>0.125</v>
       </c>
       <c r="I11" s="7">
@@ -798,17 +797,17 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14">
         <v>0.140625</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="21">
         <v>0.1406</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="21">
         <v>0.14099999999999999</v>
       </c>
       <c r="I12" s="7">
@@ -819,15 +818,15 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="24">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="21">
         <v>0.15620000000000001</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="21">
         <v>0.156</v>
       </c>
       <c r="I13" s="7">
@@ -838,17 +837,17 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14">
         <v>0.171875</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="21">
         <v>0.1719</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="21">
         <v>0.17199999999999999</v>
       </c>
       <c r="I14" s="7">
@@ -859,15 +858,15 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="24">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="21">
         <v>0.1875</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="21">
         <v>0.188</v>
       </c>
       <c r="I15" s="7">
@@ -878,17 +877,17 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14">
         <v>0.203125</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="21">
         <v>0.2031</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="21">
         <v>0.20300000000000001</v>
       </c>
       <c r="I16" s="7">
@@ -899,15 +898,15 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="24">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="21">
         <v>0.21879999999999999</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="21">
         <v>0.219</v>
       </c>
       <c r="I17" s="7">
@@ -918,17 +917,17 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14">
         <v>0.234375</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="21">
         <v>0.2344</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="21">
         <v>0.23400000000000001</v>
       </c>
       <c r="I18" s="7">
@@ -939,36 +938,36 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="22">
         <v>0.25</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="24">
         <v>0.25</v>
       </c>
       <c r="I19" s="7">
         <v>0.25</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="9">
         <v>6.35</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14">
         <v>0.265625</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="21">
         <v>0.2656</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="21">
         <v>0.26600000000000001</v>
       </c>
       <c r="I20" s="7">
@@ -979,15 +978,15 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="24">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="21">
         <v>0.28120000000000001</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="21">
         <v>0.28100000000000003</v>
       </c>
       <c r="I21" s="7">
@@ -998,17 +997,17 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14">
         <v>0.296875</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="21">
         <v>0.2969</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="21">
         <v>0.29699999999999999</v>
       </c>
       <c r="I22" s="7">
@@ -1019,15 +1018,15 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="24">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="21">
         <v>0.3125</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="21">
         <v>0.312</v>
       </c>
       <c r="I23" s="7">
@@ -1038,17 +1037,17 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14">
         <v>0.328125</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="21">
         <v>0.3281</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="21">
         <v>0.32800000000000001</v>
       </c>
       <c r="I24" s="7">
@@ -1059,15 +1058,15 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="24">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="21">
         <v>0.34379999999999999</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="21">
         <v>0.34399999999999997</v>
       </c>
       <c r="I25" s="7">
@@ -1078,17 +1077,17 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14">
         <v>0.359375</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="21">
         <v>0.3594</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="21">
         <v>0.35899999999999999</v>
       </c>
       <c r="I26" s="7">
@@ -1099,15 +1098,15 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="25">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="22">
         <v>0.375</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="21">
         <v>0.375</v>
       </c>
       <c r="I27" s="7">
@@ -1118,17 +1117,17 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14">
         <v>0.390625</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="21">
         <v>0.3906</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="21">
         <v>0.39100000000000001</v>
       </c>
       <c r="I28" s="7">
@@ -1139,15 +1138,15 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="24">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="21">
         <v>0.40620000000000001</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="21">
         <v>0.40600000000000003</v>
       </c>
       <c r="I29" s="7">
@@ -1158,17 +1157,17 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14">
         <v>0.421875</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="21">
         <v>0.4219</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="21">
         <v>0.42199999999999999</v>
       </c>
       <c r="I30" s="7">
@@ -1179,15 +1178,15 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="24">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="21">
         <v>0.4375</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="21">
         <v>0.438</v>
       </c>
       <c r="I31" s="7">
@@ -1198,17 +1197,17 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14">
         <v>0.453125</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="21">
         <v>0.4531</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="21">
         <v>0.45300000000000001</v>
       </c>
       <c r="I32" s="7">
@@ -1219,15 +1218,15 @@
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="24">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="21">
         <v>0.46879999999999999</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="21">
         <v>0.46899999999999997</v>
       </c>
       <c r="I33" s="7">
@@ -1238,17 +1237,17 @@
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14">
         <v>0.484375</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="21">
         <v>0.4844</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="21">
         <v>0.48399999999999999</v>
       </c>
       <c r="I34" s="7">
@@ -1259,36 +1258,36 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="25">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="22">
         <v>0.5</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="24">
         <v>0.5</v>
       </c>
       <c r="I35" s="7">
         <v>0.5</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="9">
         <v>12.7</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14">
         <v>0.515625</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="21">
         <v>0.51559999999999995</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="21">
         <v>0.51600000000000001</v>
       </c>
       <c r="I36" s="7">
@@ -1299,15 +1298,15 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="24">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="21">
         <v>0.53120000000000001</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="21">
         <v>0.53100000000000003</v>
       </c>
       <c r="I37" s="7">
@@ -1318,17 +1317,17 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14">
         <v>0.546875</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="21">
         <v>0.54690000000000005</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="21">
         <v>0.54700000000000004</v>
       </c>
       <c r="I38" s="7">
@@ -1339,15 +1338,15 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="24">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="21">
         <v>0.5625</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="21">
         <v>0.56200000000000006</v>
       </c>
       <c r="I39" s="7">
@@ -1358,17 +1357,17 @@
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14">
         <v>0.578125</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="21">
         <v>0.57809999999999995</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="21">
         <v>0.57799999999999996</v>
       </c>
       <c r="I40" s="7">
@@ -1379,15 +1378,15 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="24">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="21">
         <v>0.59379999999999999</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="21">
         <v>0.59399999999999997</v>
       </c>
       <c r="I41" s="7">
@@ -1398,17 +1397,17 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14">
         <v>0.609375</v>
       </c>
-      <c r="G42" s="24">
+      <c r="G42" s="21">
         <v>0.60940000000000005</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="21">
         <v>0.60899999999999999</v>
       </c>
       <c r="I42" s="7">
@@ -1419,15 +1418,15 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="25">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="22">
         <v>0.625</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="21">
         <v>0.625</v>
       </c>
       <c r="I43" s="7">
@@ -1438,17 +1437,17 @@
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14">
         <v>0.640625</v>
       </c>
-      <c r="G44" s="24">
+      <c r="G44" s="21">
         <v>0.64059999999999995</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="21">
         <v>0.64100000000000001</v>
       </c>
       <c r="I44" s="7">
@@ -1459,15 +1458,15 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="24">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="21">
         <v>0.65620000000000001</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="21">
         <v>0.65600000000000003</v>
       </c>
       <c r="I45" s="7">
@@ -1478,17 +1477,17 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14">
         <v>0.671875</v>
       </c>
-      <c r="G46" s="24">
+      <c r="G46" s="21">
         <v>0.67190000000000005</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="21">
         <v>0.67200000000000004</v>
       </c>
       <c r="I46" s="7">
@@ -1499,15 +1498,15 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="24">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="21">
         <v>0.6875</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="21">
         <v>0.68799999999999994</v>
       </c>
       <c r="I47" s="7">
@@ -1518,17 +1517,17 @@
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14">
         <v>0.703125</v>
       </c>
-      <c r="G48" s="24">
+      <c r="G48" s="21">
         <v>0.70309999999999995</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="21">
         <v>0.70299999999999996</v>
       </c>
       <c r="I48" s="7">
@@ -1539,15 +1538,15 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="24">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="21">
         <v>0.71879999999999999</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="21">
         <v>0.71899999999999997</v>
       </c>
       <c r="I49" s="7">
@@ -1558,17 +1557,17 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14">
         <v>0.734375</v>
       </c>
-      <c r="G50" s="24">
+      <c r="G50" s="21">
         <v>0.73440000000000005</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="21">
         <v>0.73399999999999999</v>
       </c>
       <c r="I50" s="7">
@@ -1579,36 +1578,36 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="25">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="22">
         <v>0.75</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51" s="24">
         <v>0.75</v>
       </c>
       <c r="I51" s="7">
         <v>0.75</v>
       </c>
-      <c r="J51" s="12">
+      <c r="J51" s="9">
         <v>19.05</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14">
         <v>0.765625</v>
       </c>
-      <c r="G52" s="24">
+      <c r="G52" s="21">
         <v>0.76559999999999995</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="21">
         <v>0.76600000000000001</v>
       </c>
       <c r="I52" s="7">
@@ -1619,15 +1618,15 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="24">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="21">
         <v>0.78129999999999999</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="21">
         <v>0.78100000000000003</v>
       </c>
       <c r="I53" s="7">
@@ -1638,17 +1637,17 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="21" t="s">
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="24">
+      <c r="G54" s="21">
         <v>0.79690000000000005</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="21">
         <v>0.79700000000000004</v>
       </c>
       <c r="I54" s="7">
@@ -1659,15 +1658,15 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="24">
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="21">
         <v>0.8125</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="21">
         <v>0.81200000000000006</v>
       </c>
       <c r="I55" s="7">
@@ -1678,17 +1677,17 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="21" t="s">
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="24">
+      <c r="G56" s="21">
         <v>0.82809999999999995</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="21">
         <v>0.82799999999999996</v>
       </c>
       <c r="I56" s="7">
@@ -1699,15 +1698,15 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="24">
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="21">
         <v>0.84379999999999999</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" s="21">
         <v>0.84399999999999997</v>
       </c>
       <c r="I57" s="7">
@@ -1718,17 +1717,17 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="21" t="s">
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="24">
+      <c r="G58" s="21">
         <v>0.85940000000000005</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="21">
         <v>0.85899999999999999</v>
       </c>
       <c r="I58" s="7">
@@ -1739,15 +1738,15 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="25">
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="22">
         <v>0.875</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" s="21">
         <v>0.875</v>
       </c>
       <c r="I59" s="7">
@@ -1758,17 +1757,17 @@
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="21" t="s">
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="24">
+      <c r="G60" s="21">
         <v>0.89059999999999995</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="21">
         <v>0.89100000000000001</v>
       </c>
       <c r="I60" s="7">
@@ -1779,15 +1778,15 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="24">
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="21">
         <v>0.90629999999999999</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="21">
         <v>0.90600000000000003</v>
       </c>
       <c r="I61" s="7">
@@ -1798,17 +1797,17 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="21" t="s">
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G62" s="24">
+      <c r="G62" s="21">
         <v>0.92190000000000005</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="21">
         <v>0.92200000000000004</v>
       </c>
       <c r="I62" s="7">
@@ -1819,15 +1818,15 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="24">
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="21">
         <v>0.9375</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="21">
         <v>0.93799999999999994</v>
       </c>
       <c r="I63" s="7">
@@ -1838,17 +1837,17 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="21" t="s">
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="24">
+      <c r="G64" s="21">
         <v>0.95309999999999995</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="21">
         <v>0.95299999999999996</v>
       </c>
       <c r="I64" s="7">
@@ -1859,15 +1858,15 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="24">
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="21">
         <v>0.96879999999999999</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H65" s="21">
         <v>0.96899999999999997</v>
       </c>
       <c r="I65" s="7">
@@ -1878,17 +1877,17 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="21" t="s">
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G66" s="24">
+      <c r="G66" s="21">
         <v>0.98440000000000005</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="21">
         <v>0.98399999999999999</v>
       </c>
       <c r="I66" s="7">
@@ -1899,15 +1898,15 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="26">
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="23">
         <v>1</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H67" s="25">
         <v>1</v>
       </c>
       <c r="I67" s="8">

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E81C026-E6AA-4BB4-8B31-4E0DFF907A0C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0468FA7-B100-47E6-9A3F-5A5C7314F6A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -157,15 +157,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -253,47 +244,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,7 +567,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,1330 +579,1330 @@
   <sheetData>
     <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
         <v>1.5625E-2</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="16">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="16">
         <v>1.6E-2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="16">
         <v>0.02</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>0.39700000000000002</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10">
         <v>3.125E-2</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15">
+      <c r="F5" s="10"/>
+      <c r="G5" s="11">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="11">
         <v>3.1E-2</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="22">
         <v>0.03</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>0.79400000000000004</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10">
         <v>4.6875E-2</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="11">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="11">
         <v>4.7E-2</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="23">
         <v>0.05</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>1.1910000000000001</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10">
         <v>6.25E-2</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="21">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="17">
         <v>6.25E-2</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="17">
         <v>6.2E-2</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="23">
         <v>0.06</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>1.5880000000000001</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10">
         <v>7.8125E-2</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="17">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="17">
         <v>7.8E-2</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="23">
         <v>0.08</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>1.984</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10">
         <v>9.375E-2</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="21">
+      <c r="F9" s="10"/>
+      <c r="G9" s="17">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="17">
         <v>9.4E-2</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="23">
         <v>0.09</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>2.3809999999999998</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
         <v>0.109375</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="17">
         <v>0.1094</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="17">
         <v>0.109</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="23">
         <v>0.11</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>2.778</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="22">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="18">
         <v>0.125</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="17">
         <v>0.125</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="23">
         <v>0.12</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>3.1749999999999998</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10">
         <v>0.140625</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="17">
         <v>0.1406</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="17">
         <v>0.14099999999999999</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>3.5720000000000001</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="21">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="17">
         <v>0.15620000000000001</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="17">
         <v>0.156</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="23">
         <v>0.16</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>3.9689999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10">
         <v>0.171875</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="17">
         <v>0.1719</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="17">
         <v>0.17199999999999999</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="23">
         <v>0.17</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>4.3659999999999997</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="21">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="17">
         <v>0.1875</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="17">
         <v>0.188</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="23">
         <v>0.19</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>4.7619999999999996</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10">
         <v>0.203125</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="17">
         <v>0.2031</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="17">
         <v>0.20300000000000001</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="23">
         <v>0.2</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>5.1589999999999998</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="21">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="17">
         <v>0.21879999999999999</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="17">
         <v>0.219</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="23">
         <v>0.22</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>5.556</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10">
         <v>0.234375</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="17">
         <v>0.2344</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="17">
         <v>0.23400000000000001</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="23">
         <v>0.23</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>5.9530000000000003</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="22">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="18">
         <v>0.25</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="20">
         <v>0.25</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="23">
         <v>0.25</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="5">
         <v>6.35</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10">
         <v>0.265625</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="17">
         <v>0.2656</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="17">
         <v>0.26600000000000001</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="23">
         <v>0.27</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>6.7469999999999999</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="21">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="17">
         <v>0.28120000000000001</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="17">
         <v>0.28100000000000003</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="23">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>7.1440000000000001</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10">
         <v>0.296875</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="17">
         <v>0.2969</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="17">
         <v>0.29699999999999999</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="23">
         <v>0.3</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>7.5410000000000004</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="21">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="17">
         <v>0.3125</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="17">
         <v>0.312</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="23">
         <v>0.31</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <v>7.9379999999999997</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10">
         <v>0.328125</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="17">
         <v>0.3281</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="17">
         <v>0.32800000000000001</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="23">
         <v>0.33</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="1">
         <v>8.3339999999999996</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="21">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="17">
         <v>0.34379999999999999</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="17">
         <v>0.34399999999999997</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="23">
         <v>0.34</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="1">
         <v>8.7309999999999999</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10">
         <v>0.359375</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="17">
         <v>0.3594</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="17">
         <v>0.35899999999999999</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="23">
         <v>0.36</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <v>9.1280000000000001</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="22">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="18">
         <v>0.375</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="17">
         <v>0.375</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="23">
         <v>0.38</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="1">
         <v>9.5250000000000004</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10">
         <v>0.390625</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="17">
         <v>0.3906</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="17">
         <v>0.39100000000000001</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="23">
         <v>0.39</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="1">
         <v>9.9220000000000006</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="21">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="17">
         <v>0.40620000000000001</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="17">
         <v>0.40600000000000003</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="23">
         <v>0.41</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="1">
         <v>10.319000000000001</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10">
         <v>0.421875</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="17">
         <v>0.4219</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="17">
         <v>0.42199999999999999</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="23">
         <v>0.42</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="1">
         <v>10.715999999999999</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="21">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="17">
         <v>0.4375</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="17">
         <v>0.438</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="23">
         <v>0.44</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="1">
         <v>11.112</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10">
         <v>0.453125</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="17">
         <v>0.4531</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="17">
         <v>0.45300000000000001</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="23">
         <v>0.45</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="1">
         <v>11.509</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="21">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="17">
         <v>0.46879999999999999</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="17">
         <v>0.46899999999999997</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="23">
         <v>0.47</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="1">
         <v>11.906000000000001</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10">
         <v>0.484375</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="17">
         <v>0.4844</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="17">
         <v>0.48399999999999999</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="23">
         <v>0.48</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="1">
         <v>12.303000000000001</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="22">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="18">
         <v>0.5</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="20">
         <v>0.5</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="23">
         <v>0.5</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="5">
         <v>12.7</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10">
         <v>0.515625</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="17">
         <v>0.51559999999999995</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="17">
         <v>0.51600000000000001</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="23">
         <v>0.52</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="1">
         <v>13.097</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="21">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="17">
         <v>0.53120000000000001</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="17">
         <v>0.53100000000000003</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="23">
         <v>0.53</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="1">
         <v>13.494</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10">
         <v>0.546875</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="17">
         <v>0.54690000000000005</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="17">
         <v>0.54700000000000004</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="1">
         <v>13.891</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="21">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="17">
         <v>0.5625</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="17">
         <v>0.56200000000000006</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="23">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="1">
         <v>14.288</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14">
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10">
         <v>0.578125</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="17">
         <v>0.57809999999999995</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H40" s="17">
         <v>0.57799999999999996</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="23">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="1">
         <v>14.683999999999999</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="21">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="17">
         <v>0.59379999999999999</v>
       </c>
-      <c r="H41" s="21">
+      <c r="H41" s="17">
         <v>0.59399999999999997</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="23">
         <v>0.59</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="1">
         <v>15.081</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10">
         <v>0.609375</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="17">
         <v>0.60940000000000005</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H42" s="17">
         <v>0.60899999999999999</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="23">
         <v>0.61</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="1">
         <v>15.478</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="22">
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="18">
         <v>0.625</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="17">
         <v>0.625</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="23">
         <v>0.62</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="1">
         <v>15.875</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14">
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10">
         <v>0.640625</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="17">
         <v>0.64059999999999995</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H44" s="17">
         <v>0.64100000000000001</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="23">
         <v>0.64</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="1">
         <v>16.271999999999998</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="21">
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="17">
         <v>0.65620000000000001</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H45" s="17">
         <v>0.65600000000000003</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="23">
         <v>0.66</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="1">
         <v>16.669</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14">
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10">
         <v>0.671875</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G46" s="17">
         <v>0.67190000000000005</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="17">
         <v>0.67200000000000004</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="23">
         <v>0.67</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="1">
         <v>17.065999999999999</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="21">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="17">
         <v>0.6875</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H47" s="17">
         <v>0.68799999999999994</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="23">
         <v>0.69</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="1">
         <v>17.462</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10">
         <v>0.703125</v>
       </c>
-      <c r="G48" s="21">
+      <c r="G48" s="17">
         <v>0.70309999999999995</v>
       </c>
-      <c r="H48" s="21">
+      <c r="H48" s="17">
         <v>0.70299999999999996</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="23">
         <v>0.7</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="1">
         <v>17.859000000000002</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="21">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="17">
         <v>0.71879999999999999</v>
       </c>
-      <c r="H49" s="21">
+      <c r="H49" s="17">
         <v>0.71899999999999997</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="23">
         <v>0.72</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="1">
         <v>18.256</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14">
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10">
         <v>0.734375</v>
       </c>
-      <c r="G50" s="21">
+      <c r="G50" s="17">
         <v>0.73440000000000005</v>
       </c>
-      <c r="H50" s="21">
+      <c r="H50" s="17">
         <v>0.73399999999999999</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="23">
         <v>0.73</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="1">
         <v>18.652999999999999</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="22">
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="18">
         <v>0.75</v>
       </c>
-      <c r="H51" s="24">
+      <c r="H51" s="20">
         <v>0.75</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="23">
         <v>0.75</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J51" s="5">
         <v>19.05</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14">
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10">
         <v>0.765625</v>
       </c>
-      <c r="G52" s="21">
+      <c r="G52" s="17">
         <v>0.76559999999999995</v>
       </c>
-      <c r="H52" s="21">
+      <c r="H52" s="17">
         <v>0.76600000000000001</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="23">
         <v>0.77</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="1">
         <v>19.446999999999999</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="21">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="17">
         <v>0.78129999999999999</v>
       </c>
-      <c r="H53" s="21">
+      <c r="H53" s="17">
         <v>0.78100000000000003</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="23">
         <v>0.78</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="1">
         <v>19.844000000000001</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="18" t="s">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="21">
+      <c r="G54" s="17">
         <v>0.79690000000000005</v>
       </c>
-      <c r="H54" s="21">
+      <c r="H54" s="17">
         <v>0.79700000000000004</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="23">
         <v>0.8</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54" s="1">
         <v>20.241</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="21">
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="17">
         <v>0.8125</v>
       </c>
-      <c r="H55" s="21">
+      <c r="H55" s="17">
         <v>0.81200000000000006</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="23">
         <v>0.81</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55" s="1">
         <v>20.638000000000002</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="18" t="s">
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="21">
+      <c r="G56" s="17">
         <v>0.82809999999999995</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H56" s="17">
         <v>0.82799999999999996</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="23">
         <v>0.83</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="1">
         <v>21.033999999999999</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="21">
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="17">
         <v>0.84379999999999999</v>
       </c>
-      <c r="H57" s="21">
+      <c r="H57" s="17">
         <v>0.84399999999999997</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="23">
         <v>0.84</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57" s="1">
         <v>21.431000000000001</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="18" t="s">
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="21">
+      <c r="G58" s="17">
         <v>0.85940000000000005</v>
       </c>
-      <c r="H58" s="21">
+      <c r="H58" s="17">
         <v>0.85899999999999999</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="23">
         <v>0.86</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58" s="1">
         <v>21.827999999999999</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="22">
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="18">
         <v>0.875</v>
       </c>
-      <c r="H59" s="21">
+      <c r="H59" s="17">
         <v>0.875</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="23">
         <v>0.88</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59" s="1">
         <v>22.225000000000001</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="18" t="s">
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="21">
+      <c r="G60" s="17">
         <v>0.89059999999999995</v>
       </c>
-      <c r="H60" s="21">
+      <c r="H60" s="17">
         <v>0.89100000000000001</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="23">
         <v>0.89</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J60" s="1">
         <v>22.622</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="21">
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="17">
         <v>0.90629999999999999</v>
       </c>
-      <c r="H61" s="21">
+      <c r="H61" s="17">
         <v>0.90600000000000003</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="23">
         <v>0.91</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="1">
         <v>23.018999999999998</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="18" t="s">
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G62" s="21">
+      <c r="G62" s="17">
         <v>0.92190000000000005</v>
       </c>
-      <c r="H62" s="21">
+      <c r="H62" s="17">
         <v>0.92200000000000004</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="23">
         <v>0.92</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J62" s="1">
         <v>23.416</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="21">
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="17">
         <v>0.9375</v>
       </c>
-      <c r="H63" s="21">
+      <c r="H63" s="17">
         <v>0.93799999999999994</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="23">
         <v>0.94</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63" s="1">
         <v>23.812000000000001</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="18" t="s">
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="21">
+      <c r="G64" s="17">
         <v>0.95309999999999995</v>
       </c>
-      <c r="H64" s="21">
+      <c r="H64" s="17">
         <v>0.95299999999999996</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="23">
         <v>0.95</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J64" s="1">
         <v>24.209</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="21">
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="17">
         <v>0.96879999999999999</v>
       </c>
-      <c r="H65" s="21">
+      <c r="H65" s="17">
         <v>0.96899999999999997</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I65" s="23">
         <v>0.97</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J65" s="1">
         <v>24.606000000000002</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="18" t="s">
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G66" s="21">
+      <c r="G66" s="17">
         <v>0.98440000000000005</v>
       </c>
-      <c r="H66" s="21">
+      <c r="H66" s="17">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I66" s="23">
         <v>0.98</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J66" s="1">
         <v>25.003</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="23">
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="19">
         <v>1</v>
       </c>
-      <c r="H67" s="25">
+      <c r="H67" s="21">
         <v>1</v>
       </c>
-      <c r="I67" s="8">
+      <c r="I67" s="24">
         <v>1</v>
       </c>
-      <c r="J67" s="5">
+      <c r="J67" s="4">
         <v>25.4</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0468FA7-B100-47E6-9A3F-5A5C7314F6A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A30F7BF-6FCE-4646-A386-0DDAF9EF3602}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,13 +567,14 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A30F7BF-6FCE-4646-A386-0DDAF9EF3602}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936E0B25-61A4-4DEF-9658-53A3B239DE82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +770,9 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="10">
+        <v>0.125</v>
+      </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -812,7 +814,9 @@
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="E13" s="10">
+        <v>0.15625</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="17">
         <v>0.15620000000000001</v>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936E0B25-61A4-4DEF-9658-53A3B239DE82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC57460C-015B-4B75-B66D-1F34CC90050B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,7 +855,9 @@
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10">
+        <v>0.1875</v>
+      </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="17">

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC57460C-015B-4B75-B66D-1F34CC90050B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB0FE86-75FA-421B-B497-3E653B32C223}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,7 +567,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +898,9 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="10">
+        <v>0.21875</v>
+      </c>
       <c r="F17" s="10"/>
       <c r="G17" s="17">
         <v>0.21879999999999999</v>
@@ -935,7 +937,9 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
+      <c r="B19" s="10">
+        <v>0.25</v>
+      </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -978,7 +982,9 @@
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="10">
+        <v>0.28125</v>
+      </c>
       <c r="F21" s="10"/>
       <c r="G21" s="17">
         <v>0.28120000000000001</v>
@@ -1017,7 +1023,9 @@
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="D23" s="10">
+        <v>0.3125</v>
+      </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="17">

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB0FE86-75FA-421B-B497-3E653B32C223}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED05A626-92BF-4587-8131-112501A9F44A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,7 +1066,9 @@
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="E25" s="10">
+        <v>0.34375</v>
+      </c>
       <c r="F25" s="10"/>
       <c r="G25" s="17">
         <v>0.34379999999999999</v>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED05A626-92BF-4587-8131-112501A9F44A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F7D993-FF0B-435F-BBB4-B227C84DA59A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,7 +1106,9 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="C27" s="10">
+        <v>0.375</v>
+      </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F7D993-FF0B-435F-BBB4-B227C84DA59A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ABB396-19C7-4FE4-8FF2-36BA01AD4D2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,7 +1150,9 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="E29" s="10">
+        <v>0.40625</v>
+      </c>
       <c r="F29" s="10"/>
       <c r="G29" s="17">
         <v>0.40620000000000001</v>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ABB396-19C7-4FE4-8FF2-36BA01AD4D2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506CADA4-74E5-4FE0-839D-12507583A709}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1191,9 @@
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="10">
+        <v>0.4375</v>
+      </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="17">

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506CADA4-74E5-4FE0-839D-12507583A709}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEACD557-8750-4001-8BFD-8BD5A292DD2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,7 +567,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,7 +1234,9 @@
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="E33" s="10">
+        <v>0.46875</v>
+      </c>
       <c r="F33" s="10"/>
       <c r="G33" s="17">
         <v>0.46879999999999999</v>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEACD557-8750-4001-8BFD-8BD5A292DD2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B97132-C38F-4520-8541-206B8D9FD805}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,7 +1316,9 @@
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="E37" s="10">
+        <v>0.53125</v>
+      </c>
       <c r="F37" s="10"/>
       <c r="G37" s="17">
         <v>0.53120000000000001</v>
@@ -1355,7 +1357,9 @@
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+      <c r="D39" s="10">
+        <v>0.5625</v>
+      </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="17">
@@ -1396,7 +1400,9 @@
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
+      <c r="E41" s="10">
+        <v>0.59375</v>
+      </c>
       <c r="F41" s="10"/>
       <c r="G41" s="17">
         <v>0.59379999999999999</v>
@@ -1434,7 +1440,9 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
+      <c r="C43" s="10">
+        <v>0.625</v>
+      </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B97132-C38F-4520-8541-206B8D9FD805}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88131A99-46BE-4952-B728-5CDA0B3E4FF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,7 +1484,9 @@
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
+      <c r="E45" s="10">
+        <v>0.65625</v>
+      </c>
       <c r="F45" s="10"/>
       <c r="G45" s="17">
         <v>0.65620000000000001</v>
@@ -1523,7 +1525,9 @@
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
+      <c r="D47" s="10">
+        <v>0.6875</v>
+      </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="17">

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88131A99-46BE-4952-B728-5CDA0B3E4FF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38B0B15-A232-480A-9E85-2B279757C501}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,7 +567,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,7 +1568,9 @@
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
+      <c r="E49" s="10">
+        <v>0.71875</v>
+      </c>
       <c r="F49" s="10"/>
       <c r="G49" s="17">
         <v>0.71879999999999999</v>
@@ -1605,7 +1607,9 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="10"/>
+      <c r="B51" s="10">
+        <v>0.75</v>
+      </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38B0B15-A232-480A-9E85-2B279757C501}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDAAB59-1EAC-459B-AF44-D4751C60908B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>4ths</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>63/64</t>
+  </si>
+  <si>
+    <t>13/16</t>
   </si>
 </sst>
 </file>
@@ -567,7 +570,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,7 +1655,9 @@
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
+      <c r="E53" s="10">
+        <v>0.78125</v>
+      </c>
       <c r="F53" s="13"/>
       <c r="G53" s="17">
         <v>0.78129999999999999</v>
@@ -1692,7 +1697,9 @@
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
+      <c r="E55" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="F55" s="14"/>
       <c r="G55" s="17">
         <v>0.8125</v>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDAAB59-1EAC-459B-AF44-D4751C60908B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BB8124-4636-41C8-BD06-D70C6CAE2E1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -256,15 +256,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -287,6 +278,20 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,17 +588,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -625,20 +630,20 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
         <v>1.5625E-2</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="13">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="13">
         <v>1.6E-2</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="13">
         <v>0.02</v>
       </c>
       <c r="J4" s="1">
@@ -646,20 +651,20 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
         <v>3.125E-2</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11">
+      <c r="F5" s="7"/>
+      <c r="G5" s="8">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="8">
         <v>3.1E-2</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="19">
         <v>0.03</v>
       </c>
       <c r="J5" s="1">
@@ -667,20 +672,20 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7">
         <v>4.6875E-2</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="8">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="8">
         <v>4.7E-2</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="20">
         <v>0.05</v>
       </c>
       <c r="J6" s="1">
@@ -688,20 +693,20 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7">
         <v>6.25E-2</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="17">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="14">
         <v>6.25E-2</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="14">
         <v>6.2E-2</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="20">
         <v>0.06</v>
       </c>
       <c r="J7" s="1">
@@ -709,20 +714,20 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
         <v>7.8125E-2</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="14">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="14">
         <v>7.8E-2</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="20">
         <v>0.08</v>
       </c>
       <c r="J8" s="1">
@@ -730,20 +735,20 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7">
         <v>9.375E-2</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="17">
+      <c r="F9" s="7"/>
+      <c r="G9" s="14">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="20">
         <v>0.09</v>
       </c>
       <c r="J9" s="1">
@@ -751,20 +756,20 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7">
         <v>0.109375</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="14">
         <v>0.1094</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="14">
         <v>0.109</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="20">
         <v>0.11</v>
       </c>
       <c r="J10" s="1">
@@ -772,20 +777,20 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
         <v>0.125</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="18">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="15">
         <v>0.125</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="14">
         <v>0.125</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="20">
         <v>0.12</v>
       </c>
       <c r="J11" s="1">
@@ -793,20 +798,20 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7">
         <v>0.140625</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="14">
         <v>0.1406</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="14">
         <v>0.14099999999999999</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="20">
         <v>0.14000000000000001</v>
       </c>
       <c r="J12" s="1">
@@ -814,20 +819,20 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
         <v>0.15625</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="17">
+      <c r="F13" s="7"/>
+      <c r="G13" s="14">
         <v>0.15620000000000001</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="14">
         <v>0.156</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="20">
         <v>0.16</v>
       </c>
       <c r="J13" s="1">
@@ -835,20 +840,20 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7">
         <v>0.171875</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="14">
         <v>0.1719</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="14">
         <v>0.17199999999999999</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="20">
         <v>0.17</v>
       </c>
       <c r="J14" s="1">
@@ -856,20 +861,20 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7">
         <v>0.1875</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="17">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="14">
         <v>0.1875</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="14">
         <v>0.188</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="20">
         <v>0.19</v>
       </c>
       <c r="J15" s="1">
@@ -877,20 +882,20 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7">
         <v>0.203125</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="14">
         <v>0.2031</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="14">
         <v>0.20300000000000001</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="20">
         <v>0.2</v>
       </c>
       <c r="J16" s="1">
@@ -898,20 +903,20 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7">
         <v>0.21875</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="17">
+      <c r="F17" s="7"/>
+      <c r="G17" s="14">
         <v>0.21879999999999999</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="14">
         <v>0.219</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="20">
         <v>0.22</v>
       </c>
       <c r="J17" s="1">
@@ -919,20 +924,20 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7">
         <v>0.234375</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="14">
         <v>0.2344</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="14">
         <v>0.23400000000000001</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="20">
         <v>0.23</v>
       </c>
       <c r="J18" s="1">
@@ -940,41 +945,41 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="10">
+      <c r="B19" s="25">
         <v>0.25</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="18">
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26">
         <v>0.25</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="27">
         <v>0.25</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="28">
         <v>0.25</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="29">
         <v>6.35</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7">
         <v>0.265625</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="14">
         <v>0.2656</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="14">
         <v>0.26600000000000001</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="20">
         <v>0.27</v>
       </c>
       <c r="J20" s="1">
@@ -982,20 +987,20 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7">
         <v>0.28125</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="17">
+      <c r="F21" s="7"/>
+      <c r="G21" s="14">
         <v>0.28120000000000001</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="14">
         <v>0.28100000000000003</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="20">
         <v>0.28000000000000003</v>
       </c>
       <c r="J21" s="1">
@@ -1003,20 +1008,20 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7">
         <v>0.296875</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="14">
         <v>0.2969</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="14">
         <v>0.29699999999999999</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="20">
         <v>0.3</v>
       </c>
       <c r="J22" s="1">
@@ -1024,20 +1029,20 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7">
         <v>0.3125</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="17">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="14">
         <v>0.3125</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="14">
         <v>0.312</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="20">
         <v>0.31</v>
       </c>
       <c r="J23" s="1">
@@ -1045,20 +1050,20 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7">
         <v>0.328125</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="14">
         <v>0.3281</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="14">
         <v>0.32800000000000001</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="20">
         <v>0.33</v>
       </c>
       <c r="J24" s="1">
@@ -1066,20 +1071,20 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7">
         <v>0.34375</v>
       </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="17">
+      <c r="F25" s="7"/>
+      <c r="G25" s="14">
         <v>0.34379999999999999</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="14">
         <v>0.34399999999999997</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="20">
         <v>0.34</v>
       </c>
       <c r="J25" s="1">
@@ -1087,20 +1092,20 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7">
         <v>0.359375</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="14">
         <v>0.3594</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="14">
         <v>0.35899999999999999</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="20">
         <v>0.36</v>
       </c>
       <c r="J26" s="1">
@@ -1108,20 +1113,20 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7">
         <v>0.375</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="18">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="15">
         <v>0.375</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="14">
         <v>0.375</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="20">
         <v>0.38</v>
       </c>
       <c r="J27" s="1">
@@ -1129,20 +1134,20 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7">
         <v>0.390625</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="14">
         <v>0.3906</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="14">
         <v>0.39100000000000001</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="20">
         <v>0.39</v>
       </c>
       <c r="J28" s="1">
@@ -1150,20 +1155,20 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7">
         <v>0.40625</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="17">
+      <c r="F29" s="7"/>
+      <c r="G29" s="14">
         <v>0.40620000000000001</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="14">
         <v>0.40600000000000003</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="20">
         <v>0.41</v>
       </c>
       <c r="J29" s="1">
@@ -1171,20 +1176,20 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7">
         <v>0.421875</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="14">
         <v>0.4219</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="14">
         <v>0.42199999999999999</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="20">
         <v>0.42</v>
       </c>
       <c r="J30" s="1">
@@ -1192,20 +1197,20 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7">
         <v>0.4375</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="17">
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="14">
         <v>0.4375</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="14">
         <v>0.438</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="20">
         <v>0.44</v>
       </c>
       <c r="J31" s="1">
@@ -1213,20 +1218,20 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7">
         <v>0.453125</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="14">
         <v>0.4531</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="14">
         <v>0.45300000000000001</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="20">
         <v>0.45</v>
       </c>
       <c r="J32" s="1">
@@ -1234,20 +1239,20 @@
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7">
         <v>0.46875</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="17">
+      <c r="F33" s="7"/>
+      <c r="G33" s="14">
         <v>0.46879999999999999</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="14">
         <v>0.46899999999999997</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="20">
         <v>0.47</v>
       </c>
       <c r="J33" s="1">
@@ -1255,20 +1260,20 @@
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7">
         <v>0.484375</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="14">
         <v>0.4844</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="14">
         <v>0.48399999999999999</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="20">
         <v>0.48</v>
       </c>
       <c r="J34" s="1">
@@ -1276,18 +1281,18 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="18">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="15">
         <v>0.5</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="17">
         <v>0.5</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="20">
         <v>0.5</v>
       </c>
       <c r="J35" s="5">
@@ -1295,20 +1300,20 @@
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7">
         <v>0.515625</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="14">
         <v>0.51559999999999995</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="14">
         <v>0.51600000000000001</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="20">
         <v>0.52</v>
       </c>
       <c r="J36" s="1">
@@ -1316,20 +1321,20 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7">
         <v>0.53125</v>
       </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="17">
+      <c r="F37" s="7"/>
+      <c r="G37" s="14">
         <v>0.53120000000000001</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="14">
         <v>0.53100000000000003</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="20">
         <v>0.53</v>
       </c>
       <c r="J37" s="1">
@@ -1337,20 +1342,20 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7">
         <v>0.546875</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="14">
         <v>0.54690000000000005</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="14">
         <v>0.54700000000000004</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="20">
         <v>0.55000000000000004</v>
       </c>
       <c r="J38" s="1">
@@ -1358,20 +1363,20 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7">
         <v>0.5625</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="17">
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="14">
         <v>0.5625</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="14">
         <v>0.56200000000000006</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="20">
         <v>0.56000000000000005</v>
       </c>
       <c r="J39" s="1">
@@ -1379,20 +1384,20 @@
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7">
         <v>0.578125</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="14">
         <v>0.57809999999999995</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="14">
         <v>0.57799999999999996</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="20">
         <v>0.57999999999999996</v>
       </c>
       <c r="J40" s="1">
@@ -1400,20 +1405,20 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7">
         <v>0.59375</v>
       </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="17">
+      <c r="F41" s="7"/>
+      <c r="G41" s="14">
         <v>0.59379999999999999</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="14">
         <v>0.59399999999999997</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="20">
         <v>0.59</v>
       </c>
       <c r="J41" s="1">
@@ -1421,20 +1426,20 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7">
         <v>0.609375</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="14">
         <v>0.60940000000000005</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="14">
         <v>0.60899999999999999</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="20">
         <v>0.61</v>
       </c>
       <c r="J42" s="1">
@@ -1442,20 +1447,20 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7">
         <v>0.625</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="18">
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="15">
         <v>0.625</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="14">
         <v>0.625</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I43" s="20">
         <v>0.62</v>
       </c>
       <c r="J43" s="1">
@@ -1463,20 +1468,20 @@
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7">
         <v>0.640625</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="14">
         <v>0.64059999999999995</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="14">
         <v>0.64100000000000001</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I44" s="20">
         <v>0.64</v>
       </c>
       <c r="J44" s="1">
@@ -1484,20 +1489,20 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7">
         <v>0.65625</v>
       </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="17">
+      <c r="F45" s="7"/>
+      <c r="G45" s="14">
         <v>0.65620000000000001</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="14">
         <v>0.65600000000000003</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I45" s="20">
         <v>0.66</v>
       </c>
       <c r="J45" s="1">
@@ -1505,20 +1510,20 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7">
         <v>0.671875</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="14">
         <v>0.67190000000000005</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="14">
         <v>0.67200000000000004</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="20">
         <v>0.67</v>
       </c>
       <c r="J46" s="1">
@@ -1526,20 +1531,20 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7">
         <v>0.6875</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="17">
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="14">
         <v>0.6875</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="14">
         <v>0.68799999999999994</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="20">
         <v>0.69</v>
       </c>
       <c r="J47" s="1">
@@ -1547,20 +1552,20 @@
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7">
         <v>0.703125</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="14">
         <v>0.70309999999999995</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="14">
         <v>0.70299999999999996</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I48" s="20">
         <v>0.7</v>
       </c>
       <c r="J48" s="1">
@@ -1568,20 +1573,20 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7">
         <v>0.71875</v>
       </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="17">
+      <c r="F49" s="7"/>
+      <c r="G49" s="14">
         <v>0.71879999999999999</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="14">
         <v>0.71899999999999997</v>
       </c>
-      <c r="I49" s="23">
+      <c r="I49" s="20">
         <v>0.72</v>
       </c>
       <c r="J49" s="1">
@@ -1589,20 +1594,20 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7">
         <v>0.734375</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="14">
         <v>0.73440000000000005</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="14">
         <v>0.73399999999999999</v>
       </c>
-      <c r="I50" s="23">
+      <c r="I50" s="20">
         <v>0.73</v>
       </c>
       <c r="J50" s="1">
@@ -1610,20 +1615,20 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="10">
+      <c r="B51" s="7">
         <v>0.75</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="18">
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="15">
         <v>0.75</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H51" s="17">
         <v>0.75</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="20">
         <v>0.75</v>
       </c>
       <c r="J51" s="5">
@@ -1631,20 +1636,20 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10">
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7">
         <v>0.765625</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="14">
         <v>0.76559999999999995</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="14">
         <v>0.76600000000000001</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="20">
         <v>0.77</v>
       </c>
       <c r="J52" s="1">
@@ -1652,20 +1657,20 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10">
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7">
         <v>0.78125</v>
       </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="17">
+      <c r="F53" s="10"/>
+      <c r="G53" s="14">
         <v>0.78129999999999999</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="14">
         <v>0.78100000000000003</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="20">
         <v>0.78</v>
       </c>
       <c r="J53" s="1">
@@ -1673,20 +1678,20 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="14" t="s">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="14">
         <v>0.79690000000000005</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H54" s="14">
         <v>0.79700000000000004</v>
       </c>
-      <c r="I54" s="23">
+      <c r="I54" s="20">
         <v>0.8</v>
       </c>
       <c r="J54" s="1">
@@ -1694,20 +1699,20 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="17">
+      <c r="F55" s="11"/>
+      <c r="G55" s="14">
         <v>0.8125</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="14">
         <v>0.81200000000000006</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I55" s="20">
         <v>0.81</v>
       </c>
       <c r="J55" s="1">
@@ -1715,20 +1720,20 @@
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="14" t="s">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="14">
         <v>0.82809999999999995</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="14">
         <v>0.82799999999999996</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I56" s="20">
         <v>0.83</v>
       </c>
       <c r="J56" s="1">
@@ -1736,18 +1741,18 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="17">
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="14">
         <v>0.84379999999999999</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="14">
         <v>0.84399999999999997</v>
       </c>
-      <c r="I57" s="23">
+      <c r="I57" s="20">
         <v>0.84</v>
       </c>
       <c r="J57" s="1">
@@ -1755,20 +1760,20 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="14" t="s">
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="14">
         <v>0.85940000000000005</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="14">
         <v>0.85899999999999999</v>
       </c>
-      <c r="I58" s="23">
+      <c r="I58" s="20">
         <v>0.86</v>
       </c>
       <c r="J58" s="1">
@@ -1776,18 +1781,18 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="18">
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="15">
         <v>0.875</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H59" s="14">
         <v>0.875</v>
       </c>
-      <c r="I59" s="23">
+      <c r="I59" s="20">
         <v>0.88</v>
       </c>
       <c r="J59" s="1">
@@ -1795,20 +1800,20 @@
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="14" t="s">
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G60" s="14">
         <v>0.89059999999999995</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="14">
         <v>0.89100000000000001</v>
       </c>
-      <c r="I60" s="23">
+      <c r="I60" s="20">
         <v>0.89</v>
       </c>
       <c r="J60" s="1">
@@ -1816,18 +1821,18 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="17">
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="14">
         <v>0.90629999999999999</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H61" s="14">
         <v>0.90600000000000003</v>
       </c>
-      <c r="I61" s="23">
+      <c r="I61" s="20">
         <v>0.91</v>
       </c>
       <c r="J61" s="1">
@@ -1835,20 +1840,20 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="14" t="s">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="14">
         <v>0.92190000000000005</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H62" s="14">
         <v>0.92200000000000004</v>
       </c>
-      <c r="I62" s="23">
+      <c r="I62" s="20">
         <v>0.92</v>
       </c>
       <c r="J62" s="1">
@@ -1856,18 +1861,18 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="17">
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="14">
         <v>0.9375</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H63" s="14">
         <v>0.93799999999999994</v>
       </c>
-      <c r="I63" s="23">
+      <c r="I63" s="20">
         <v>0.94</v>
       </c>
       <c r="J63" s="1">
@@ -1875,20 +1880,20 @@
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="14" t="s">
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G64" s="14">
         <v>0.95309999999999995</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H64" s="14">
         <v>0.95299999999999996</v>
       </c>
-      <c r="I64" s="23">
+      <c r="I64" s="20">
         <v>0.95</v>
       </c>
       <c r="J64" s="1">
@@ -1896,18 +1901,18 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="17">
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="14">
         <v>0.96879999999999999</v>
       </c>
-      <c r="H65" s="17">
+      <c r="H65" s="14">
         <v>0.96899999999999997</v>
       </c>
-      <c r="I65" s="23">
+      <c r="I65" s="20">
         <v>0.97</v>
       </c>
       <c r="J65" s="1">
@@ -1915,20 +1920,20 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="14" t="s">
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G66" s="14">
         <v>0.98440000000000005</v>
       </c>
-      <c r="H66" s="17">
+      <c r="H66" s="14">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I66" s="23">
+      <c r="I66" s="20">
         <v>0.98</v>
       </c>
       <c r="J66" s="1">
@@ -1936,18 +1941,18 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="19">
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="16">
         <v>1</v>
       </c>
-      <c r="H67" s="21">
+      <c r="H67" s="18">
         <v>1</v>
       </c>
-      <c r="I67" s="24">
+      <c r="I67" s="21">
         <v>1</v>
       </c>
       <c r="J67" s="4">

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BB8124-4636-41C8-BD06-D70C6CAE2E1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF17B122-C135-4C44-87C8-4EBAFCD58587}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -292,6 +292,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,22 +780,22 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="7">
+      <c r="C11" s="25">
         <v>0.125</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="15">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26">
         <v>0.125</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="30">
         <v>0.125</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="28">
         <v>0.12</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="31">
         <v>3.1749999999999998</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF17B122-C135-4C44-87C8-4EBAFCD58587}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606A8E56-5A46-4486-B09E-7E51FB000BB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -275,7 +275,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -294,6 +293,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,7 +578,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:J11"/>
+      <selection activeCell="E5" sqref="E5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,17 +591,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -656,20 +657,20 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="7">
+      <c r="E5" s="24">
         <v>3.125E-2</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8">
+      <c r="F5" s="24"/>
+      <c r="G5" s="31">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="31">
         <v>3.1E-2</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="32">
         <v>0.03</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="30">
         <v>0.79400000000000004</v>
       </c>
     </row>
@@ -687,7 +688,7 @@
       <c r="H6" s="8">
         <v>4.7E-2</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <v>0.05</v>
       </c>
       <c r="J6" s="1">
@@ -708,7 +709,7 @@
       <c r="H7" s="14">
         <v>6.2E-2</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <v>0.06</v>
       </c>
       <c r="J7" s="1">
@@ -729,7 +730,7 @@
       <c r="H8" s="14">
         <v>7.8E-2</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <v>0.08</v>
       </c>
       <c r="J8" s="1">
@@ -750,7 +751,7 @@
       <c r="H9" s="14">
         <v>9.4E-2</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <v>0.09</v>
       </c>
       <c r="J9" s="1">
@@ -771,7 +772,7 @@
       <c r="H10" s="14">
         <v>0.109</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="19">
         <v>0.11</v>
       </c>
       <c r="J10" s="1">
@@ -780,22 +781,22 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>0.125</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25">
         <v>0.125</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="29">
         <v>0.125</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="27">
         <v>0.12</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="30">
         <v>3.1749999999999998</v>
       </c>
     </row>
@@ -813,7 +814,7 @@
       <c r="H12" s="14">
         <v>0.14099999999999999</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="19">
         <v>0.14000000000000001</v>
       </c>
       <c r="J12" s="1">
@@ -834,7 +835,7 @@
       <c r="H13" s="14">
         <v>0.156</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <v>0.16</v>
       </c>
       <c r="J13" s="1">
@@ -855,7 +856,7 @@
       <c r="H14" s="14">
         <v>0.17199999999999999</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="19">
         <v>0.17</v>
       </c>
       <c r="J14" s="1">
@@ -876,7 +877,7 @@
       <c r="H15" s="14">
         <v>0.188</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <v>0.19</v>
       </c>
       <c r="J15" s="1">
@@ -897,7 +898,7 @@
       <c r="H16" s="14">
         <v>0.20300000000000001</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="19">
         <v>0.2</v>
       </c>
       <c r="J16" s="1">
@@ -918,7 +919,7 @@
       <c r="H17" s="14">
         <v>0.219</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="19">
         <v>0.22</v>
       </c>
       <c r="J17" s="1">
@@ -939,7 +940,7 @@
       <c r="H18" s="14">
         <v>0.23400000000000001</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="19">
         <v>0.23</v>
       </c>
       <c r="J18" s="1">
@@ -947,23 +948,23 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <v>0.25</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25">
         <v>0.25</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="26">
         <v>0.25</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="27">
         <v>0.25</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="28">
         <v>6.35</v>
       </c>
     </row>
@@ -981,7 +982,7 @@
       <c r="H20" s="14">
         <v>0.26600000000000001</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="19">
         <v>0.27</v>
       </c>
       <c r="J20" s="1">
@@ -1002,7 +1003,7 @@
       <c r="H21" s="14">
         <v>0.28100000000000003</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="19">
         <v>0.28000000000000003</v>
       </c>
       <c r="J21" s="1">
@@ -1023,7 +1024,7 @@
       <c r="H22" s="14">
         <v>0.29699999999999999</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="19">
         <v>0.3</v>
       </c>
       <c r="J22" s="1">
@@ -1044,7 +1045,7 @@
       <c r="H23" s="14">
         <v>0.312</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="19">
         <v>0.31</v>
       </c>
       <c r="J23" s="1">
@@ -1065,7 +1066,7 @@
       <c r="H24" s="14">
         <v>0.32800000000000001</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="19">
         <v>0.33</v>
       </c>
       <c r="J24" s="1">
@@ -1086,7 +1087,7 @@
       <c r="H25" s="14">
         <v>0.34399999999999997</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="19">
         <v>0.34</v>
       </c>
       <c r="J25" s="1">
@@ -1107,7 +1108,7 @@
       <c r="H26" s="14">
         <v>0.35899999999999999</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="19">
         <v>0.36</v>
       </c>
       <c r="J26" s="1">
@@ -1128,7 +1129,7 @@
       <c r="H27" s="14">
         <v>0.375</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="19">
         <v>0.38</v>
       </c>
       <c r="J27" s="1">
@@ -1149,7 +1150,7 @@
       <c r="H28" s="14">
         <v>0.39100000000000001</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="19">
         <v>0.39</v>
       </c>
       <c r="J28" s="1">
@@ -1170,7 +1171,7 @@
       <c r="H29" s="14">
         <v>0.40600000000000003</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="19">
         <v>0.41</v>
       </c>
       <c r="J29" s="1">
@@ -1191,7 +1192,7 @@
       <c r="H30" s="14">
         <v>0.42199999999999999</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="19">
         <v>0.42</v>
       </c>
       <c r="J30" s="1">
@@ -1212,7 +1213,7 @@
       <c r="H31" s="14">
         <v>0.438</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="19">
         <v>0.44</v>
       </c>
       <c r="J31" s="1">
@@ -1233,7 +1234,7 @@
       <c r="H32" s="14">
         <v>0.45300000000000001</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="19">
         <v>0.45</v>
       </c>
       <c r="J32" s="1">
@@ -1254,7 +1255,7 @@
       <c r="H33" s="14">
         <v>0.46899999999999997</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="19">
         <v>0.47</v>
       </c>
       <c r="J33" s="1">
@@ -1275,7 +1276,7 @@
       <c r="H34" s="14">
         <v>0.48399999999999999</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I34" s="19">
         <v>0.48</v>
       </c>
       <c r="J34" s="1">
@@ -1294,7 +1295,7 @@
       <c r="H35" s="17">
         <v>0.5</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="19">
         <v>0.5</v>
       </c>
       <c r="J35" s="5">
@@ -1315,7 +1316,7 @@
       <c r="H36" s="14">
         <v>0.51600000000000001</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="19">
         <v>0.52</v>
       </c>
       <c r="J36" s="1">
@@ -1336,7 +1337,7 @@
       <c r="H37" s="14">
         <v>0.53100000000000003</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="19">
         <v>0.53</v>
       </c>
       <c r="J37" s="1">
@@ -1357,7 +1358,7 @@
       <c r="H38" s="14">
         <v>0.54700000000000004</v>
       </c>
-      <c r="I38" s="20">
+      <c r="I38" s="19">
         <v>0.55000000000000004</v>
       </c>
       <c r="J38" s="1">
@@ -1378,7 +1379,7 @@
       <c r="H39" s="14">
         <v>0.56200000000000006</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I39" s="19">
         <v>0.56000000000000005</v>
       </c>
       <c r="J39" s="1">
@@ -1399,7 +1400,7 @@
       <c r="H40" s="14">
         <v>0.57799999999999996</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="19">
         <v>0.57999999999999996</v>
       </c>
       <c r="J40" s="1">
@@ -1420,7 +1421,7 @@
       <c r="H41" s="14">
         <v>0.59399999999999997</v>
       </c>
-      <c r="I41" s="20">
+      <c r="I41" s="19">
         <v>0.59</v>
       </c>
       <c r="J41" s="1">
@@ -1441,7 +1442,7 @@
       <c r="H42" s="14">
         <v>0.60899999999999999</v>
       </c>
-      <c r="I42" s="20">
+      <c r="I42" s="19">
         <v>0.61</v>
       </c>
       <c r="J42" s="1">
@@ -1462,7 +1463,7 @@
       <c r="H43" s="14">
         <v>0.625</v>
       </c>
-      <c r="I43" s="20">
+      <c r="I43" s="19">
         <v>0.62</v>
       </c>
       <c r="J43" s="1">
@@ -1483,7 +1484,7 @@
       <c r="H44" s="14">
         <v>0.64100000000000001</v>
       </c>
-      <c r="I44" s="20">
+      <c r="I44" s="19">
         <v>0.64</v>
       </c>
       <c r="J44" s="1">
@@ -1504,7 +1505,7 @@
       <c r="H45" s="14">
         <v>0.65600000000000003</v>
       </c>
-      <c r="I45" s="20">
+      <c r="I45" s="19">
         <v>0.66</v>
       </c>
       <c r="J45" s="1">
@@ -1525,7 +1526,7 @@
       <c r="H46" s="14">
         <v>0.67200000000000004</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I46" s="19">
         <v>0.67</v>
       </c>
       <c r="J46" s="1">
@@ -1546,7 +1547,7 @@
       <c r="H47" s="14">
         <v>0.68799999999999994</v>
       </c>
-      <c r="I47" s="20">
+      <c r="I47" s="19">
         <v>0.69</v>
       </c>
       <c r="J47" s="1">
@@ -1567,7 +1568,7 @@
       <c r="H48" s="14">
         <v>0.70299999999999996</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I48" s="19">
         <v>0.7</v>
       </c>
       <c r="J48" s="1">
@@ -1588,7 +1589,7 @@
       <c r="H49" s="14">
         <v>0.71899999999999997</v>
       </c>
-      <c r="I49" s="20">
+      <c r="I49" s="19">
         <v>0.72</v>
       </c>
       <c r="J49" s="1">
@@ -1609,7 +1610,7 @@
       <c r="H50" s="14">
         <v>0.73399999999999999</v>
       </c>
-      <c r="I50" s="20">
+      <c r="I50" s="19">
         <v>0.73</v>
       </c>
       <c r="J50" s="1">
@@ -1630,7 +1631,7 @@
       <c r="H51" s="17">
         <v>0.75</v>
       </c>
-      <c r="I51" s="20">
+      <c r="I51" s="19">
         <v>0.75</v>
       </c>
       <c r="J51" s="5">
@@ -1651,7 +1652,7 @@
       <c r="H52" s="14">
         <v>0.76600000000000001</v>
       </c>
-      <c r="I52" s="20">
+      <c r="I52" s="19">
         <v>0.77</v>
       </c>
       <c r="J52" s="1">
@@ -1672,7 +1673,7 @@
       <c r="H53" s="14">
         <v>0.78100000000000003</v>
       </c>
-      <c r="I53" s="20">
+      <c r="I53" s="19">
         <v>0.78</v>
       </c>
       <c r="J53" s="1">
@@ -1693,7 +1694,7 @@
       <c r="H54" s="14">
         <v>0.79700000000000004</v>
       </c>
-      <c r="I54" s="20">
+      <c r="I54" s="19">
         <v>0.8</v>
       </c>
       <c r="J54" s="1">
@@ -1714,7 +1715,7 @@
       <c r="H55" s="14">
         <v>0.81200000000000006</v>
       </c>
-      <c r="I55" s="20">
+      <c r="I55" s="19">
         <v>0.81</v>
       </c>
       <c r="J55" s="1">
@@ -1735,7 +1736,7 @@
       <c r="H56" s="14">
         <v>0.82799999999999996</v>
       </c>
-      <c r="I56" s="20">
+      <c r="I56" s="19">
         <v>0.83</v>
       </c>
       <c r="J56" s="1">
@@ -1754,7 +1755,7 @@
       <c r="H57" s="14">
         <v>0.84399999999999997</v>
       </c>
-      <c r="I57" s="20">
+      <c r="I57" s="19">
         <v>0.84</v>
       </c>
       <c r="J57" s="1">
@@ -1775,7 +1776,7 @@
       <c r="H58" s="14">
         <v>0.85899999999999999</v>
       </c>
-      <c r="I58" s="20">
+      <c r="I58" s="19">
         <v>0.86</v>
       </c>
       <c r="J58" s="1">
@@ -1794,7 +1795,7 @@
       <c r="H59" s="14">
         <v>0.875</v>
       </c>
-      <c r="I59" s="20">
+      <c r="I59" s="19">
         <v>0.88</v>
       </c>
       <c r="J59" s="1">
@@ -1815,7 +1816,7 @@
       <c r="H60" s="14">
         <v>0.89100000000000001</v>
       </c>
-      <c r="I60" s="20">
+      <c r="I60" s="19">
         <v>0.89</v>
       </c>
       <c r="J60" s="1">
@@ -1834,7 +1835,7 @@
       <c r="H61" s="14">
         <v>0.90600000000000003</v>
       </c>
-      <c r="I61" s="20">
+      <c r="I61" s="19">
         <v>0.91</v>
       </c>
       <c r="J61" s="1">
@@ -1855,7 +1856,7 @@
       <c r="H62" s="14">
         <v>0.92200000000000004</v>
       </c>
-      <c r="I62" s="20">
+      <c r="I62" s="19">
         <v>0.92</v>
       </c>
       <c r="J62" s="1">
@@ -1874,7 +1875,7 @@
       <c r="H63" s="14">
         <v>0.93799999999999994</v>
       </c>
-      <c r="I63" s="20">
+      <c r="I63" s="19">
         <v>0.94</v>
       </c>
       <c r="J63" s="1">
@@ -1895,7 +1896,7 @@
       <c r="H64" s="14">
         <v>0.95299999999999996</v>
       </c>
-      <c r="I64" s="20">
+      <c r="I64" s="19">
         <v>0.95</v>
       </c>
       <c r="J64" s="1">
@@ -1914,7 +1915,7 @@
       <c r="H65" s="14">
         <v>0.96899999999999997</v>
       </c>
-      <c r="I65" s="20">
+      <c r="I65" s="19">
         <v>0.97</v>
       </c>
       <c r="J65" s="1">
@@ -1935,7 +1936,7 @@
       <c r="H66" s="14">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I66" s="20">
+      <c r="I66" s="19">
         <v>0.98</v>
       </c>
       <c r="J66" s="1">
@@ -1954,7 +1955,7 @@
       <c r="H67" s="18">
         <v>1</v>
       </c>
-      <c r="I67" s="21">
+      <c r="I67" s="20">
         <v>1</v>
       </c>
       <c r="J67" s="4">

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606A8E56-5A46-4486-B09E-7E51FB000BB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD781735-9D5A-469A-90B4-FDCB84EEA854}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,7 +578,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:J5"/>
+      <selection activeCell="D7" sqref="D7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,21 +698,21 @@
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="7">
+      <c r="D7" s="24">
         <v>6.25E-2</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="14">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="29">
         <v>6.25E-2</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="29">
         <v>6.2E-2</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="27">
         <v>0.06</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="30">
         <v>1.5880000000000001</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD781735-9D5A-469A-90B4-FDCB84EEA854}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD8908D-11B9-47A0-A072-5F4D24470BEE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,7 +578,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:J7"/>
+      <selection activeCell="E9" sqref="E9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,20 +741,20 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="7">
+      <c r="E9" s="24">
         <v>9.375E-2</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="14">
+      <c r="F9" s="24"/>
+      <c r="G9" s="29">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="29">
         <v>9.4E-2</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="27">
         <v>0.09</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="30">
         <v>2.3809999999999998</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD8908D-11B9-47A0-A072-5F4D24470BEE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C734371-F8C0-4A8B-89EB-19725CA2247B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:J9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,20 +825,20 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="7">
+      <c r="E13" s="24">
         <v>0.15625</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="14">
+      <c r="F13" s="24"/>
+      <c r="G13" s="29">
         <v>0.15620000000000001</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="29">
         <v>0.156</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="27">
         <v>0.16</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="30">
         <v>3.9689999999999999</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C734371-F8C0-4A8B-89EB-19725CA2247B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959E3C44-9E13-4C2A-B8FA-43D594413489}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,7 +578,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:J13"/>
+      <selection activeCell="D15" sqref="D15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,21 +866,21 @@
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="7">
+      <c r="D15" s="24">
         <v>0.1875</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="14">
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="29">
         <v>0.1875</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="29">
         <v>0.188</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="27">
         <v>0.19</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="30">
         <v>4.7619999999999996</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959E3C44-9E13-4C2A-B8FA-43D594413489}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDDD41F-FBAD-4002-8656-7DEF7FD5885F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,7 +578,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:J15"/>
+      <selection activeCell="E17" sqref="E17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,20 +909,20 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="7">
+      <c r="E17" s="24">
         <v>0.21875</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="14">
+      <c r="F17" s="24"/>
+      <c r="G17" s="29">
         <v>0.21879999999999999</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="29">
         <v>0.219</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="27">
         <v>0.22</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="30">
         <v>5.556</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDDD41F-FBAD-4002-8656-7DEF7FD5885F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA74B211-E403-4C8F-9D5E-F9ABD156DEB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:J17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,20 +993,20 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="7">
+      <c r="E21" s="24">
         <v>0.28125</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="14">
+      <c r="F21" s="24"/>
+      <c r="G21" s="29">
         <v>0.28120000000000001</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="29">
         <v>0.28100000000000003</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="27">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="30">
         <v>7.1440000000000001</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA74B211-E403-4C8F-9D5E-F9ABD156DEB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B716DF-B629-44D3-A6CD-FC607080C048}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,7 +578,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:J21"/>
+      <selection activeCell="D23" sqref="D23:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,21 +1034,21 @@
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="7">
+      <c r="D23" s="24">
         <v>0.3125</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="14">
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="29">
         <v>0.3125</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="29">
         <v>0.312</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="27">
         <v>0.31</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="30">
         <v>7.9379999999999997</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B716DF-B629-44D3-A6CD-FC607080C048}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF06C5E7-148F-4231-B332-23E068DC3294}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,7 +578,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:J23"/>
+      <selection activeCell="C27" sqref="C27:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,20 +1077,20 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="7">
+      <c r="E25" s="24">
         <v>0.34375</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="14">
+      <c r="F25" s="24"/>
+      <c r="G25" s="29">
         <v>0.34379999999999999</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="29">
         <v>0.34399999999999997</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="27">
         <v>0.34</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="30">
         <v>8.7309999999999999</v>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
-      <c r="C27" s="7">
+      <c r="C27" s="24">
         <v>0.375</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="15">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25">
         <v>0.375</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="29">
         <v>0.375</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="27">
         <v>0.38</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="30">
         <v>9.5250000000000004</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF06C5E7-148F-4231-B332-23E068DC3294}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C0B038-4A52-474A-A7F1-78879D8BBC5A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,7 +578,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:J27"/>
+      <selection activeCell="E29" sqref="E29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,20 +1161,20 @@
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="7">
+      <c r="E29" s="24">
         <v>0.40625</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="14">
+      <c r="F29" s="24"/>
+      <c r="G29" s="29">
         <v>0.40620000000000001</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="29">
         <v>0.40600000000000003</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="27">
         <v>0.41</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="30">
         <v>10.319000000000001</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C0B038-4A52-474A-A7F1-78879D8BBC5A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D0B671-E593-49E0-8894-FA063EED6A1C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:J29"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,21 +1202,21 @@
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="7">
+      <c r="D31" s="24">
         <v>0.4375</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="14">
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="29">
         <v>0.4375</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="29">
         <v>0.438</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="27">
         <v>0.44</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="30">
         <v>11.112</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D0B671-E593-49E0-8894-FA063EED6A1C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F34912-CAD9-420C-8D4E-23A33B5F62AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,7 +578,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="E33" sqref="E33:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,20 +1245,20 @@
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="7">
+      <c r="E33" s="24">
         <v>0.46875</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="14">
+      <c r="F33" s="24"/>
+      <c r="G33" s="29">
         <v>0.46879999999999999</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="29">
         <v>0.46899999999999997</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="27">
         <v>0.47</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="30">
         <v>11.906000000000001</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F34912-CAD9-420C-8D4E-23A33B5F62AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB02AF1B-216D-4694-BA03-749C5092E138}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,7 +578,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:J33"/>
+      <selection activeCell="E37" sqref="E37:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,20 +1327,20 @@
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="7">
+      <c r="E37" s="24">
         <v>0.53125</v>
       </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="14">
+      <c r="F37" s="24"/>
+      <c r="G37" s="29">
         <v>0.53120000000000001</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="29">
         <v>0.53100000000000003</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="27">
         <v>0.53</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="30">
         <v>13.494</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB02AF1B-216D-4694-BA03-749C5092E138}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC86082-F286-4CBB-AFB2-8EC290EEA80A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37:J37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,21 +1368,21 @@
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="7">
+      <c r="D39" s="24">
         <v>0.5625</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="14">
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="29">
         <v>0.5625</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="29">
         <v>0.56200000000000006</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I39" s="27">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39" s="30">
         <v>14.288</v>
       </c>
     </row>
@@ -1411,20 +1411,20 @@
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="7">
+      <c r="E41" s="24">
         <v>0.59375</v>
       </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="14">
+      <c r="F41" s="24"/>
+      <c r="G41" s="29">
         <v>0.59379999999999999</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="29">
         <v>0.59399999999999997</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I41" s="27">
         <v>0.59</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="30">
         <v>15.081</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC86082-F286-4CBB-AFB2-8EC290EEA80A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08B89CB-572C-4CB4-B329-64E839E9346A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,7 +578,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41:J41"/>
+      <selection activeCell="C43" sqref="C43:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,22 +1451,22 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
-      <c r="C43" s="7">
+      <c r="C43" s="24">
         <v>0.625</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="15">
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="25">
         <v>0.625</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="29">
         <v>0.625</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I43" s="27">
         <v>0.62</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="30">
         <v>15.875</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08B89CB-572C-4CB4-B329-64E839E9346A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6781DE-CAC9-4176-ABDD-85B8DC54DA98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,7 +578,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:J43"/>
+      <selection activeCell="E45" sqref="E45:J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,20 +1495,20 @@
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="7">
+      <c r="E45" s="24">
         <v>0.65625</v>
       </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="14">
+      <c r="F45" s="24"/>
+      <c r="G45" s="29">
         <v>0.65620000000000001</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="29">
         <v>0.65600000000000003</v>
       </c>
-      <c r="I45" s="19">
+      <c r="I45" s="27">
         <v>0.66</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="30">
         <v>16.669</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6781DE-CAC9-4176-ABDD-85B8DC54DA98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62C47CF-7475-46E1-B923-AFA44D31D42F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,7 +578,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45:J45"/>
+      <selection activeCell="D47" sqref="D47:J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,21 +1536,21 @@
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="7">
+      <c r="D47" s="24">
         <v>0.6875</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="14">
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="29">
         <v>0.6875</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="29">
         <v>0.68799999999999994</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I47" s="27">
         <v>0.69</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="30">
         <v>17.462</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62C47CF-7475-46E1-B923-AFA44D31D42F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDD8DBC-1CC7-4412-9D2A-6FCF661264FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,7 +578,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47:J47"/>
+      <selection activeCell="E49" sqref="E49:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,20 +1579,20 @@
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="7">
+      <c r="E49" s="24">
         <v>0.71875</v>
       </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="14">
+      <c r="F49" s="24"/>
+      <c r="G49" s="29">
         <v>0.71879999999999999</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="29">
         <v>0.71899999999999997</v>
       </c>
-      <c r="I49" s="19">
+      <c r="I49" s="27">
         <v>0.72</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="30">
         <v>18.256</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDD8DBC-1CC7-4412-9D2A-6FCF661264FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26A18FF-E8B8-4E55-9A8D-972B13A2DAB8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -277,6 +277,15 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -286,15 +295,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49:J49"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,17 +591,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -657,20 +657,20 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="24">
+      <c r="E5" s="21">
         <v>3.125E-2</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="31">
+      <c r="F5" s="21"/>
+      <c r="G5" s="28">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="28">
         <v>3.1E-2</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="29">
         <v>0.03</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="27">
         <v>0.79400000000000004</v>
       </c>
     </row>
@@ -698,21 +698,21 @@
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="24">
+      <c r="D7" s="21">
         <v>6.25E-2</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="29">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="26">
         <v>6.25E-2</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="26">
         <v>6.2E-2</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="24">
         <v>0.06</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="27">
         <v>1.5880000000000001</v>
       </c>
     </row>
@@ -741,20 +741,20 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="24">
+      <c r="E9" s="21">
         <v>9.375E-2</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="29">
+      <c r="F9" s="21"/>
+      <c r="G9" s="26">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="26">
         <v>9.4E-2</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="24">
         <v>0.09</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="27">
         <v>2.3809999999999998</v>
       </c>
     </row>
@@ -781,22 +781,22 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="24">
+      <c r="C11" s="21">
         <v>0.125</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22">
         <v>0.125</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="26">
         <v>0.125</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="24">
         <v>0.12</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="27">
         <v>3.1749999999999998</v>
       </c>
     </row>
@@ -825,20 +825,20 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="24">
+      <c r="E13" s="21">
         <v>0.15625</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="29">
+      <c r="F13" s="21"/>
+      <c r="G13" s="26">
         <v>0.15620000000000001</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="26">
         <v>0.156</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="24">
         <v>0.16</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="27">
         <v>3.9689999999999999</v>
       </c>
     </row>
@@ -866,21 +866,21 @@
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="24">
+      <c r="D15" s="21">
         <v>0.1875</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="29">
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="26">
         <v>0.1875</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="26">
         <v>0.188</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="24">
         <v>0.19</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="27">
         <v>4.7619999999999996</v>
       </c>
     </row>
@@ -909,20 +909,20 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="24">
+      <c r="E17" s="21">
         <v>0.21875</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="29">
+      <c r="F17" s="21"/>
+      <c r="G17" s="26">
         <v>0.21879999999999999</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="26">
         <v>0.219</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="24">
         <v>0.22</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="27">
         <v>5.556</v>
       </c>
     </row>
@@ -948,23 +948,23 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="24">
+      <c r="B19" s="21">
         <v>0.25</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22">
         <v>0.25</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="23">
         <v>0.25</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="24">
         <v>0.25</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="25">
         <v>6.35</v>
       </c>
     </row>
@@ -993,20 +993,20 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="24">
+      <c r="E21" s="21">
         <v>0.28125</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="29">
+      <c r="F21" s="21"/>
+      <c r="G21" s="26">
         <v>0.28120000000000001</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="26">
         <v>0.28100000000000003</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="24">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="27">
         <v>7.1440000000000001</v>
       </c>
     </row>
@@ -1034,21 +1034,21 @@
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="24">
+      <c r="D23" s="21">
         <v>0.3125</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="29">
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="26">
         <v>0.3125</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="26">
         <v>0.312</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="24">
         <v>0.31</v>
       </c>
-      <c r="J23" s="30">
+      <c r="J23" s="27">
         <v>7.9379999999999997</v>
       </c>
     </row>
@@ -1077,20 +1077,20 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="24">
+      <c r="E25" s="21">
         <v>0.34375</v>
       </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="29">
+      <c r="F25" s="21"/>
+      <c r="G25" s="26">
         <v>0.34379999999999999</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="26">
         <v>0.34399999999999997</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="24">
         <v>0.34</v>
       </c>
-      <c r="J25" s="30">
+      <c r="J25" s="27">
         <v>8.7309999999999999</v>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
-      <c r="C27" s="24">
+      <c r="C27" s="21">
         <v>0.375</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25">
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22">
         <v>0.375</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="26">
         <v>0.375</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="24">
         <v>0.38</v>
       </c>
-      <c r="J27" s="30">
+      <c r="J27" s="27">
         <v>9.5250000000000004</v>
       </c>
     </row>
@@ -1161,20 +1161,20 @@
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="24">
+      <c r="E29" s="21">
         <v>0.40625</v>
       </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="29">
+      <c r="F29" s="21"/>
+      <c r="G29" s="26">
         <v>0.40620000000000001</v>
       </c>
-      <c r="H29" s="29">
+      <c r="H29" s="26">
         <v>0.40600000000000003</v>
       </c>
-      <c r="I29" s="27">
+      <c r="I29" s="24">
         <v>0.41</v>
       </c>
-      <c r="J29" s="30">
+      <c r="J29" s="27">
         <v>10.319000000000001</v>
       </c>
     </row>
@@ -1202,21 +1202,21 @@
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="24">
+      <c r="D31" s="21">
         <v>0.4375</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="29">
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="26">
         <v>0.4375</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="26">
         <v>0.438</v>
       </c>
-      <c r="I31" s="27">
+      <c r="I31" s="24">
         <v>0.44</v>
       </c>
-      <c r="J31" s="30">
+      <c r="J31" s="27">
         <v>11.112</v>
       </c>
     </row>
@@ -1245,20 +1245,20 @@
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="24">
+      <c r="E33" s="21">
         <v>0.46875</v>
       </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="29">
+      <c r="F33" s="21"/>
+      <c r="G33" s="26">
         <v>0.46879999999999999</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="26">
         <v>0.46899999999999997</v>
       </c>
-      <c r="I33" s="27">
+      <c r="I33" s="24">
         <v>0.47</v>
       </c>
-      <c r="J33" s="30">
+      <c r="J33" s="27">
         <v>11.906000000000001</v>
       </c>
     </row>
@@ -1267,19 +1267,19 @@
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="7">
+      <c r="F34" s="21">
         <v>0.484375</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="26">
         <v>0.4844</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="26">
         <v>0.48399999999999999</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="24">
         <v>0.48</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="27">
         <v>12.303000000000001</v>
       </c>
     </row>
@@ -1327,20 +1327,20 @@
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="24">
+      <c r="E37" s="21">
         <v>0.53125</v>
       </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="29">
+      <c r="F37" s="21"/>
+      <c r="G37" s="26">
         <v>0.53120000000000001</v>
       </c>
-      <c r="H37" s="29">
+      <c r="H37" s="26">
         <v>0.53100000000000003</v>
       </c>
-      <c r="I37" s="27">
+      <c r="I37" s="24">
         <v>0.53</v>
       </c>
-      <c r="J37" s="30">
+      <c r="J37" s="27">
         <v>13.494</v>
       </c>
     </row>
@@ -1368,21 +1368,21 @@
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="24">
+      <c r="D39" s="21">
         <v>0.5625</v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="29">
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="26">
         <v>0.5625</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="26">
         <v>0.56200000000000006</v>
       </c>
-      <c r="I39" s="27">
+      <c r="I39" s="24">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J39" s="30">
+      <c r="J39" s="27">
         <v>14.288</v>
       </c>
     </row>
@@ -1411,20 +1411,20 @@
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="24">
+      <c r="E41" s="21">
         <v>0.59375</v>
       </c>
-      <c r="F41" s="24"/>
-      <c r="G41" s="29">
+      <c r="F41" s="21"/>
+      <c r="G41" s="26">
         <v>0.59379999999999999</v>
       </c>
-      <c r="H41" s="29">
+      <c r="H41" s="26">
         <v>0.59399999999999997</v>
       </c>
-      <c r="I41" s="27">
+      <c r="I41" s="24">
         <v>0.59</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="27">
         <v>15.081</v>
       </c>
     </row>
@@ -1451,22 +1451,22 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
-      <c r="C43" s="24">
+      <c r="C43" s="21">
         <v>0.625</v>
       </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="25">
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22">
         <v>0.625</v>
       </c>
-      <c r="H43" s="29">
+      <c r="H43" s="26">
         <v>0.625</v>
       </c>
-      <c r="I43" s="27">
+      <c r="I43" s="24">
         <v>0.62</v>
       </c>
-      <c r="J43" s="30">
+      <c r="J43" s="27">
         <v>15.875</v>
       </c>
     </row>
@@ -1495,20 +1495,20 @@
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="24">
+      <c r="E45" s="21">
         <v>0.65625</v>
       </c>
-      <c r="F45" s="24"/>
-      <c r="G45" s="29">
+      <c r="F45" s="21"/>
+      <c r="G45" s="26">
         <v>0.65620000000000001</v>
       </c>
-      <c r="H45" s="29">
+      <c r="H45" s="26">
         <v>0.65600000000000003</v>
       </c>
-      <c r="I45" s="27">
+      <c r="I45" s="24">
         <v>0.66</v>
       </c>
-      <c r="J45" s="30">
+      <c r="J45" s="27">
         <v>16.669</v>
       </c>
     </row>
@@ -1536,21 +1536,21 @@
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="24">
+      <c r="D47" s="21">
         <v>0.6875</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="29">
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="26">
         <v>0.6875</v>
       </c>
-      <c r="H47" s="29">
+      <c r="H47" s="26">
         <v>0.68799999999999994</v>
       </c>
-      <c r="I47" s="27">
+      <c r="I47" s="24">
         <v>0.69</v>
       </c>
-      <c r="J47" s="30">
+      <c r="J47" s="27">
         <v>17.462</v>
       </c>
     </row>
@@ -1579,20 +1579,20 @@
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="24">
+      <c r="E49" s="21">
         <v>0.71875</v>
       </c>
-      <c r="F49" s="24"/>
-      <c r="G49" s="29">
+      <c r="F49" s="21"/>
+      <c r="G49" s="26">
         <v>0.71879999999999999</v>
       </c>
-      <c r="H49" s="29">
+      <c r="H49" s="26">
         <v>0.71899999999999997</v>
       </c>
-      <c r="I49" s="27">
+      <c r="I49" s="24">
         <v>0.72</v>
       </c>
-      <c r="J49" s="30">
+      <c r="J49" s="27">
         <v>18.256</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26A18FF-E8B8-4E55-9A8D-972B13A2DAB8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34EB1BA-986A-44CC-852E-9560497CE440}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,7 +578,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34:J34"/>
+      <selection activeCell="F36" sqref="F36:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,19 +1307,19 @@
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="7">
+      <c r="F36" s="21">
         <v>0.515625</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="26">
         <v>0.51559999999999995</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="26">
         <v>0.51600000000000001</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="24">
         <v>0.52</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="27">
         <v>13.097</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34EB1BA-986A-44CC-852E-9560497CE440}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F842BF34-4BC0-4639-9079-0AC7A479709C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,9 +260,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -294,6 +291,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36:J36"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,17 +591,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -640,13 +640,13 @@
       <c r="F4" s="6">
         <v>1.5625E-2</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>1.6E-2</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <v>0.02</v>
       </c>
       <c r="J4" s="1">
@@ -657,20 +657,20 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>3.125E-2</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="28">
+      <c r="F5" s="20"/>
+      <c r="G5" s="27">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="27">
         <v>3.1E-2</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="28">
         <v>0.03</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="26">
         <v>0.79400000000000004</v>
       </c>
     </row>
@@ -688,7 +688,7 @@
       <c r="H6" s="8">
         <v>4.7E-2</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="18">
         <v>0.05</v>
       </c>
       <c r="J6" s="1">
@@ -698,21 +698,21 @@
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>6.25E-2</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="26">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="25">
         <v>6.25E-2</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="25">
         <v>6.2E-2</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="23">
         <v>0.06</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="26">
         <v>1.5880000000000001</v>
       </c>
     </row>
@@ -724,13 +724,13 @@
       <c r="F8" s="7">
         <v>7.8125E-2</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>7.8E-2</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="18">
         <v>0.08</v>
       </c>
       <c r="J8" s="1">
@@ -741,20 +741,20 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>9.375E-2</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="26">
+      <c r="F9" s="20"/>
+      <c r="G9" s="25">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="25">
         <v>9.4E-2</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="23">
         <v>0.09</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="26">
         <v>2.3809999999999998</v>
       </c>
     </row>
@@ -766,13 +766,13 @@
       <c r="F10" s="7">
         <v>0.109375</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>0.1094</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>0.109</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="18">
         <v>0.11</v>
       </c>
       <c r="J10" s="1">
@@ -781,22 +781,22 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>0.125</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21">
         <v>0.125</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="25">
         <v>0.125</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="23">
         <v>0.12</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="26">
         <v>3.1749999999999998</v>
       </c>
     </row>
@@ -808,13 +808,13 @@
       <c r="F12" s="7">
         <v>0.140625</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>0.1406</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>0.14099999999999999</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="18">
         <v>0.14000000000000001</v>
       </c>
       <c r="J12" s="1">
@@ -825,20 +825,20 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <v>0.15625</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="26">
+      <c r="F13" s="20"/>
+      <c r="G13" s="25">
         <v>0.15620000000000001</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="25">
         <v>0.156</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="23">
         <v>0.16</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="26">
         <v>3.9689999999999999</v>
       </c>
     </row>
@@ -850,13 +850,13 @@
       <c r="F14" s="7">
         <v>0.171875</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>0.1719</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>0.17199999999999999</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="18">
         <v>0.17</v>
       </c>
       <c r="J14" s="1">
@@ -866,21 +866,21 @@
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="21">
+      <c r="D15" s="20">
         <v>0.1875</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="26">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="25">
         <v>0.1875</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="25">
         <v>0.188</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="23">
         <v>0.19</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="26">
         <v>4.7619999999999996</v>
       </c>
     </row>
@@ -892,13 +892,13 @@
       <c r="F16" s="7">
         <v>0.203125</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>0.2031</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>0.20300000000000001</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="18">
         <v>0.2</v>
       </c>
       <c r="J16" s="1">
@@ -909,20 +909,20 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>0.21875</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="26">
+      <c r="F17" s="20"/>
+      <c r="G17" s="25">
         <v>0.21879999999999999</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="25">
         <v>0.219</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="23">
         <v>0.22</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="26">
         <v>5.556</v>
       </c>
     </row>
@@ -934,13 +934,13 @@
       <c r="F18" s="7">
         <v>0.234375</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>0.2344</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>0.23400000000000001</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="18">
         <v>0.23</v>
       </c>
       <c r="J18" s="1">
@@ -948,23 +948,23 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="21">
+      <c r="B19" s="20">
         <v>0.25</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21">
         <v>0.25</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <v>0.25</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="23">
         <v>0.25</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="24">
         <v>6.35</v>
       </c>
     </row>
@@ -976,13 +976,13 @@
       <c r="F20" s="7">
         <v>0.265625</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <v>0.2656</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>0.26600000000000001</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="18">
         <v>0.27</v>
       </c>
       <c r="J20" s="1">
@@ -993,20 +993,20 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <v>0.28125</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="26">
+      <c r="F21" s="20"/>
+      <c r="G21" s="25">
         <v>0.28120000000000001</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="25">
         <v>0.28100000000000003</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="23">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="26">
         <v>7.1440000000000001</v>
       </c>
     </row>
@@ -1018,13 +1018,13 @@
       <c r="F22" s="7">
         <v>0.296875</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="13">
         <v>0.2969</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="13">
         <v>0.29699999999999999</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="18">
         <v>0.3</v>
       </c>
       <c r="J22" s="1">
@@ -1034,21 +1034,21 @@
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="21">
+      <c r="D23" s="20">
         <v>0.3125</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="26">
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="25">
         <v>0.3125</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="25">
         <v>0.312</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="23">
         <v>0.31</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="26">
         <v>7.9379999999999997</v>
       </c>
     </row>
@@ -1060,13 +1060,13 @@
       <c r="F24" s="7">
         <v>0.328125</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="13">
         <v>0.3281</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="13">
         <v>0.32800000000000001</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="18">
         <v>0.33</v>
       </c>
       <c r="J24" s="1">
@@ -1077,20 +1077,20 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <v>0.34375</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="26">
+      <c r="F25" s="20"/>
+      <c r="G25" s="25">
         <v>0.34379999999999999</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="25">
         <v>0.34399999999999997</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="23">
         <v>0.34</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="26">
         <v>8.7309999999999999</v>
       </c>
     </row>
@@ -1102,13 +1102,13 @@
       <c r="F26" s="7">
         <v>0.359375</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="13">
         <v>0.3594</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="13">
         <v>0.35899999999999999</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="18">
         <v>0.36</v>
       </c>
       <c r="J26" s="1">
@@ -1117,22 +1117,22 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
-      <c r="C27" s="21">
+      <c r="C27" s="20">
         <v>0.375</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22">
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="21">
         <v>0.375</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="25">
         <v>0.375</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="23">
         <v>0.38</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="26">
         <v>9.5250000000000004</v>
       </c>
     </row>
@@ -1144,13 +1144,13 @@
       <c r="F28" s="7">
         <v>0.390625</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="13">
         <v>0.3906</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="13">
         <v>0.39100000000000001</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="18">
         <v>0.39</v>
       </c>
       <c r="J28" s="1">
@@ -1161,20 +1161,20 @@
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="21">
+      <c r="E29" s="20">
         <v>0.40625</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="26">
+      <c r="F29" s="20"/>
+      <c r="G29" s="25">
         <v>0.40620000000000001</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="25">
         <v>0.40600000000000003</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="23">
         <v>0.41</v>
       </c>
-      <c r="J29" s="27">
+      <c r="J29" s="26">
         <v>10.319000000000001</v>
       </c>
     </row>
@@ -1186,13 +1186,13 @@
       <c r="F30" s="7">
         <v>0.421875</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="13">
         <v>0.4219</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="13">
         <v>0.42199999999999999</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="18">
         <v>0.42</v>
       </c>
       <c r="J30" s="1">
@@ -1202,21 +1202,21 @@
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="21">
+      <c r="D31" s="20">
         <v>0.4375</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="26">
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="25">
         <v>0.4375</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31" s="25">
         <v>0.438</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="23">
         <v>0.44</v>
       </c>
-      <c r="J31" s="27">
+      <c r="J31" s="26">
         <v>11.112</v>
       </c>
     </row>
@@ -1228,13 +1228,13 @@
       <c r="F32" s="7">
         <v>0.453125</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="13">
         <v>0.4531</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="13">
         <v>0.45300000000000001</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="18">
         <v>0.45</v>
       </c>
       <c r="J32" s="1">
@@ -1245,20 +1245,20 @@
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="21">
+      <c r="E33" s="20">
         <v>0.46875</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="26">
+      <c r="F33" s="20"/>
+      <c r="G33" s="25">
         <v>0.46879999999999999</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H33" s="25">
         <v>0.46899999999999997</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="23">
         <v>0.47</v>
       </c>
-      <c r="J33" s="27">
+      <c r="J33" s="26">
         <v>11.906000000000001</v>
       </c>
     </row>
@@ -1267,19 +1267,19 @@
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="21">
+      <c r="F34" s="20">
         <v>0.484375</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G34" s="25">
         <v>0.4844</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="25">
         <v>0.48399999999999999</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I34" s="23">
         <v>0.48</v>
       </c>
-      <c r="J34" s="27">
+      <c r="J34" s="26">
         <v>12.303000000000001</v>
       </c>
     </row>
@@ -1289,13 +1289,13 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="15">
+      <c r="G35" s="14">
         <v>0.5</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="16">
         <v>0.5</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="18">
         <v>0.5</v>
       </c>
       <c r="J35" s="5">
@@ -1307,19 +1307,19 @@
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="21">
+      <c r="F36" s="20">
         <v>0.515625</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="25">
         <v>0.51559999999999995</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="25">
         <v>0.51600000000000001</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="23">
         <v>0.52</v>
       </c>
-      <c r="J36" s="27">
+      <c r="J36" s="26">
         <v>13.097</v>
       </c>
     </row>
@@ -1327,20 +1327,20 @@
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="21">
+      <c r="E37" s="20">
         <v>0.53125</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="26">
+      <c r="F37" s="20"/>
+      <c r="G37" s="25">
         <v>0.53120000000000001</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="25">
         <v>0.53100000000000003</v>
       </c>
-      <c r="I37" s="24">
+      <c r="I37" s="23">
         <v>0.53</v>
       </c>
-      <c r="J37" s="27">
+      <c r="J37" s="26">
         <v>13.494</v>
       </c>
     </row>
@@ -1352,13 +1352,13 @@
       <c r="F38" s="7">
         <v>0.546875</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="13">
         <v>0.54690000000000005</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="13">
         <v>0.54700000000000004</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I38" s="18">
         <v>0.55000000000000004</v>
       </c>
       <c r="J38" s="1">
@@ -1368,21 +1368,21 @@
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="21">
+      <c r="D39" s="20">
         <v>0.5625</v>
       </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="26">
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="25">
         <v>0.5625</v>
       </c>
-      <c r="H39" s="26">
+      <c r="H39" s="25">
         <v>0.56200000000000006</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="23">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J39" s="27">
+      <c r="J39" s="26">
         <v>14.288</v>
       </c>
     </row>
@@ -1394,13 +1394,13 @@
       <c r="F40" s="7">
         <v>0.578125</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="13">
         <v>0.57809999999999995</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="13">
         <v>0.57799999999999996</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I40" s="18">
         <v>0.57999999999999996</v>
       </c>
       <c r="J40" s="1">
@@ -1411,20 +1411,20 @@
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="21">
+      <c r="E41" s="20">
         <v>0.59375</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="26">
+      <c r="F41" s="20"/>
+      <c r="G41" s="25">
         <v>0.59379999999999999</v>
       </c>
-      <c r="H41" s="26">
+      <c r="H41" s="25">
         <v>0.59399999999999997</v>
       </c>
-      <c r="I41" s="24">
+      <c r="I41" s="23">
         <v>0.59</v>
       </c>
-      <c r="J41" s="27">
+      <c r="J41" s="26">
         <v>15.081</v>
       </c>
     </row>
@@ -1436,13 +1436,13 @@
       <c r="F42" s="7">
         <v>0.609375</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="13">
         <v>0.60940000000000005</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="13">
         <v>0.60899999999999999</v>
       </c>
-      <c r="I42" s="19">
+      <c r="I42" s="18">
         <v>0.61</v>
       </c>
       <c r="J42" s="1">
@@ -1451,22 +1451,22 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
-      <c r="C43" s="21">
+      <c r="C43" s="20">
         <v>0.625</v>
       </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22">
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="21">
         <v>0.625</v>
       </c>
-      <c r="H43" s="26">
+      <c r="H43" s="25">
         <v>0.625</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I43" s="23">
         <v>0.62</v>
       </c>
-      <c r="J43" s="27">
+      <c r="J43" s="26">
         <v>15.875</v>
       </c>
     </row>
@@ -1478,13 +1478,13 @@
       <c r="F44" s="7">
         <v>0.640625</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G44" s="13">
         <v>0.64059999999999995</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="13">
         <v>0.64100000000000001</v>
       </c>
-      <c r="I44" s="19">
+      <c r="I44" s="18">
         <v>0.64</v>
       </c>
       <c r="J44" s="1">
@@ -1495,20 +1495,20 @@
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="21">
+      <c r="E45" s="20">
         <v>0.65625</v>
       </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="26">
+      <c r="F45" s="20"/>
+      <c r="G45" s="25">
         <v>0.65620000000000001</v>
       </c>
-      <c r="H45" s="26">
+      <c r="H45" s="25">
         <v>0.65600000000000003</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I45" s="23">
         <v>0.66</v>
       </c>
-      <c r="J45" s="27">
+      <c r="J45" s="26">
         <v>16.669</v>
       </c>
     </row>
@@ -1520,13 +1520,13 @@
       <c r="F46" s="7">
         <v>0.671875</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G46" s="13">
         <v>0.67190000000000005</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="13">
         <v>0.67200000000000004</v>
       </c>
-      <c r="I46" s="19">
+      <c r="I46" s="18">
         <v>0.67</v>
       </c>
       <c r="J46" s="1">
@@ -1536,21 +1536,21 @@
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="21">
+      <c r="D47" s="20">
         <v>0.6875</v>
       </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="26">
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="25">
         <v>0.6875</v>
       </c>
-      <c r="H47" s="26">
+      <c r="H47" s="25">
         <v>0.68799999999999994</v>
       </c>
-      <c r="I47" s="24">
+      <c r="I47" s="23">
         <v>0.69</v>
       </c>
-      <c r="J47" s="27">
+      <c r="J47" s="26">
         <v>17.462</v>
       </c>
     </row>
@@ -1562,13 +1562,13 @@
       <c r="F48" s="7">
         <v>0.703125</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="13">
         <v>0.70309999999999995</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="13">
         <v>0.70299999999999996</v>
       </c>
-      <c r="I48" s="19">
+      <c r="I48" s="18">
         <v>0.7</v>
       </c>
       <c r="J48" s="1">
@@ -1579,20 +1579,20 @@
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="21">
+      <c r="E49" s="20">
         <v>0.71875</v>
       </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="26">
+      <c r="F49" s="20"/>
+      <c r="G49" s="25">
         <v>0.71879999999999999</v>
       </c>
-      <c r="H49" s="26">
+      <c r="H49" s="25">
         <v>0.71899999999999997</v>
       </c>
-      <c r="I49" s="24">
+      <c r="I49" s="23">
         <v>0.72</v>
       </c>
-      <c r="J49" s="27">
+      <c r="J49" s="26">
         <v>18.256</v>
       </c>
     </row>
@@ -1604,13 +1604,13 @@
       <c r="F50" s="7">
         <v>0.734375</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G50" s="13">
         <v>0.73440000000000005</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H50" s="13">
         <v>0.73399999999999999</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I50" s="18">
         <v>0.73</v>
       </c>
       <c r="J50" s="1">
@@ -1618,23 +1618,23 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="7">
+      <c r="B51" s="20">
         <v>0.75</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="15">
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="21">
         <v>0.75</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="22">
         <v>0.75</v>
       </c>
-      <c r="I51" s="19">
+      <c r="I51" s="23">
         <v>0.75</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51" s="24">
         <v>19.05</v>
       </c>
     </row>
@@ -1646,13 +1646,13 @@
       <c r="F52" s="7">
         <v>0.765625</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G52" s="13">
         <v>0.76559999999999995</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H52" s="13">
         <v>0.76600000000000001</v>
       </c>
-      <c r="I52" s="19">
+      <c r="I52" s="18">
         <v>0.77</v>
       </c>
       <c r="J52" s="1">
@@ -1663,20 +1663,20 @@
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="7">
+      <c r="E53" s="20">
         <v>0.78125</v>
       </c>
-      <c r="F53" s="10"/>
-      <c r="G53" s="14">
+      <c r="F53" s="32"/>
+      <c r="G53" s="25">
         <v>0.78129999999999999</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53" s="25">
         <v>0.78100000000000003</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I53" s="23">
         <v>0.78</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J53" s="26">
         <v>19.844000000000001</v>
       </c>
     </row>
@@ -1685,16 +1685,16 @@
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G54" s="13">
         <v>0.79690000000000005</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H54" s="13">
         <v>0.79700000000000004</v>
       </c>
-      <c r="I54" s="19">
+      <c r="I54" s="18">
         <v>0.8</v>
       </c>
       <c r="J54" s="1">
@@ -1704,18 +1704,18 @@
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8" t="s">
+      <c r="D55" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="14">
+      <c r="E55" s="8"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="13">
         <v>0.8125</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H55" s="13">
         <v>0.81200000000000006</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I55" s="18">
         <v>0.81</v>
       </c>
       <c r="J55" s="1">
@@ -1727,16 +1727,16 @@
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G56" s="13">
         <v>0.82809999999999995</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H56" s="13">
         <v>0.82799999999999996</v>
       </c>
-      <c r="I56" s="19">
+      <c r="I56" s="18">
         <v>0.83</v>
       </c>
       <c r="J56" s="1">
@@ -1748,14 +1748,14 @@
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="14">
+      <c r="F57" s="10"/>
+      <c r="G57" s="13">
         <v>0.84379999999999999</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="13">
         <v>0.84399999999999997</v>
       </c>
-      <c r="I57" s="19">
+      <c r="I57" s="18">
         <v>0.84</v>
       </c>
       <c r="J57" s="1">
@@ -1767,16 +1767,16 @@
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G58" s="13">
         <v>0.85940000000000005</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H58" s="13">
         <v>0.85899999999999999</v>
       </c>
-      <c r="I58" s="19">
+      <c r="I58" s="18">
         <v>0.86</v>
       </c>
       <c r="J58" s="1">
@@ -1788,14 +1788,14 @@
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="15">
+      <c r="F59" s="10"/>
+      <c r="G59" s="14">
         <v>0.875</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="13">
         <v>0.875</v>
       </c>
-      <c r="I59" s="19">
+      <c r="I59" s="18">
         <v>0.88</v>
       </c>
       <c r="J59" s="1">
@@ -1807,16 +1807,16 @@
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="13">
         <v>0.89059999999999995</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H60" s="13">
         <v>0.89100000000000001</v>
       </c>
-      <c r="I60" s="19">
+      <c r="I60" s="18">
         <v>0.89</v>
       </c>
       <c r="J60" s="1">
@@ -1828,14 +1828,14 @@
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="14">
+      <c r="F61" s="10"/>
+      <c r="G61" s="13">
         <v>0.90629999999999999</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="13">
         <v>0.90600000000000003</v>
       </c>
-      <c r="I61" s="19">
+      <c r="I61" s="18">
         <v>0.91</v>
       </c>
       <c r="J61" s="1">
@@ -1847,16 +1847,16 @@
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G62" s="13">
         <v>0.92190000000000005</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H62" s="13">
         <v>0.92200000000000004</v>
       </c>
-      <c r="I62" s="19">
+      <c r="I62" s="18">
         <v>0.92</v>
       </c>
       <c r="J62" s="1">
@@ -1868,14 +1868,14 @@
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="14">
+      <c r="F63" s="10"/>
+      <c r="G63" s="13">
         <v>0.9375</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H63" s="13">
         <v>0.93799999999999994</v>
       </c>
-      <c r="I63" s="19">
+      <c r="I63" s="18">
         <v>0.94</v>
       </c>
       <c r="J63" s="1">
@@ -1887,16 +1887,16 @@
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
-      <c r="F64" s="11" t="s">
+      <c r="F64" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G64" s="13">
         <v>0.95309999999999995</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H64" s="13">
         <v>0.95299999999999996</v>
       </c>
-      <c r="I64" s="19">
+      <c r="I64" s="18">
         <v>0.95</v>
       </c>
       <c r="J64" s="1">
@@ -1908,14 +1908,14 @@
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="14">
+      <c r="F65" s="10"/>
+      <c r="G65" s="13">
         <v>0.96879999999999999</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H65" s="13">
         <v>0.96899999999999997</v>
       </c>
-      <c r="I65" s="19">
+      <c r="I65" s="18">
         <v>0.97</v>
       </c>
       <c r="J65" s="1">
@@ -1927,16 +1927,16 @@
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
-      <c r="F66" s="11" t="s">
+      <c r="F66" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G66" s="13">
         <v>0.98440000000000005</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H66" s="13">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I66" s="19">
+      <c r="I66" s="18">
         <v>0.98</v>
       </c>
       <c r="J66" s="1">
@@ -1948,14 +1948,14 @@
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="16">
+      <c r="F67" s="11"/>
+      <c r="G67" s="15">
         <v>1</v>
       </c>
-      <c r="H67" s="18">
+      <c r="H67" s="17">
         <v>1</v>
       </c>
-      <c r="I67" s="20">
+      <c r="I67" s="19">
         <v>1</v>
       </c>
       <c r="J67" s="4">

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F842BF34-4BC0-4639-9079-0AC7A479709C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BA7F49-A49A-45EC-8883-E01E3D2EB261}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -293,6 +293,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -578,7 +581,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1704,21 +1707,21 @@
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="13">
+      <c r="E55" s="27"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="25">
         <v>0.8125</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H55" s="25">
         <v>0.81200000000000006</v>
       </c>
-      <c r="I55" s="18">
+      <c r="I55" s="23">
         <v>0.81</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55" s="26">
         <v>20.638000000000002</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BA7F49-A49A-45EC-8883-E01E3D2EB261}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAD80A2-2C4B-4628-BEF4-3B78A30DAE5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>4ths</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>13/16</t>
+  </si>
+  <si>
+    <t>27/32</t>
   </si>
 </sst>
 </file>
@@ -581,7 +584,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+      <selection activeCell="E57" sqref="E57:J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,18 +1753,20 @@
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="13">
+      <c r="E57" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="33"/>
+      <c r="G57" s="25">
         <v>0.84379999999999999</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57" s="25">
         <v>0.84399999999999997</v>
       </c>
-      <c r="I57" s="18">
+      <c r="I57" s="23">
         <v>0.84</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J57" s="26">
         <v>21.431000000000001</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAD80A2-2C4B-4628-BEF4-3B78A30DAE5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11902C0B-130C-4CA1-9384-5D522A7052D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>4ths</t>
   </si>
@@ -86,6 +86,9 @@
   <si>
     <t>27/32</t>
   </si>
+  <si>
+    <t>29/32</t>
+  </si>
 </sst>
 </file>
 
@@ -250,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -301,6 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,7 +588,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57:J57"/>
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,21 +1796,23 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="14">
+      <c r="B59" s="34">
         <v>0.875</v>
       </c>
-      <c r="H59" s="13">
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="21">
         <v>0.875</v>
       </c>
-      <c r="I59" s="18">
+      <c r="H59" s="25">
+        <v>0.875</v>
+      </c>
+      <c r="I59" s="23">
         <v>0.88</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59" s="26">
         <v>22.225000000000001</v>
       </c>
     </row>
@@ -1835,18 +1841,20 @@
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="13">
+      <c r="E61" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="33"/>
+      <c r="G61" s="25">
         <v>0.90629999999999999</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H61" s="25">
         <v>0.90600000000000003</v>
       </c>
-      <c r="I61" s="18">
+      <c r="I61" s="23">
         <v>0.91</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J61" s="26">
         <v>23.018999999999998</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11902C0B-130C-4CA1-9384-5D522A7052D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34EBDF1-E070-4EC1-8035-AB2A5C0A120E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>4ths</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>29/32</t>
+  </si>
+  <si>
+    <t>15/16</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+      <selection activeCell="D63" sqref="D63:J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,19 +1885,21 @@
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="13">
+      <c r="D63" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="27"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="25">
         <v>0.9375</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H63" s="25">
         <v>0.93799999999999994</v>
       </c>
-      <c r="I63" s="18">
+      <c r="I63" s="23">
         <v>0.94</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J63" s="26">
         <v>23.812000000000001</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34EBDF1-E070-4EC1-8035-AB2A5C0A120E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B29F50-B34D-453C-A7F7-602DB6691D57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>4ths</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>15/16</t>
+  </si>
+  <si>
+    <t>31/32</t>
   </si>
 </sst>
 </file>
@@ -591,7 +594,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63:J63"/>
+      <selection activeCell="F66" sqref="F66:J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,18 +1931,20 @@
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="13">
+      <c r="E65" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="33"/>
+      <c r="G65" s="25">
         <v>0.96879999999999999</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H65" s="25">
         <v>0.96899999999999997</v>
       </c>
-      <c r="I65" s="18">
+      <c r="I65" s="23">
         <v>0.97</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J65" s="26">
         <v>24.606000000000002</v>
       </c>
     </row>
@@ -1948,19 +1953,19 @@
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
-      <c r="F66" s="10" t="s">
+      <c r="F66" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G66" s="25">
         <v>0.98440000000000005</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H66" s="25">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I66" s="18">
+      <c r="I66" s="23">
         <v>0.98</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J66" s="26">
         <v>25.003</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B29F50-B34D-453C-A7F7-602DB6691D57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48BF2AB-B462-415F-B320-47CF8EDD1E92}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -255,11 +255,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -310,7 +319,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,7 +604,7 @@
   <dimension ref="B1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66:J66"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,10 +1310,10 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
       <c r="F35" s="7"/>
       <c r="G35" s="14">
         <v>0.5</v>
@@ -1802,10 +1812,10 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="34">
+      <c r="B59" s="35"/>
+      <c r="C59" s="34">
         <v>0.875</v>
       </c>
-      <c r="C59" s="27"/>
       <c r="D59" s="27"/>
       <c r="E59" s="27"/>
       <c r="F59" s="33"/>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48BF2AB-B462-415F-B320-47CF8EDD1E92}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7624D03-32C9-4216-AC90-8E035FADBB26}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Decimal and Millimeter" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -304,6 +305,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -313,14 +322,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,7 +604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
@@ -617,17 +618,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1692,7 +1693,7 @@
       <c r="E53" s="20">
         <v>0.78125</v>
       </c>
-      <c r="F53" s="32"/>
+      <c r="F53" s="29"/>
       <c r="G53" s="25">
         <v>0.78129999999999999</v>
       </c>
@@ -1734,7 +1735,7 @@
         <v>17</v>
       </c>
       <c r="E55" s="27"/>
-      <c r="F55" s="33"/>
+      <c r="F55" s="30"/>
       <c r="G55" s="25">
         <v>0.8125</v>
       </c>
@@ -1776,7 +1777,7 @@
       <c r="E57" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="33"/>
+      <c r="F57" s="30"/>
       <c r="G57" s="25">
         <v>0.84379999999999999</v>
       </c>
@@ -1812,13 +1813,13 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="35"/>
-      <c r="C59" s="34">
+      <c r="B59" s="32"/>
+      <c r="C59" s="31">
         <v>0.875</v>
       </c>
       <c r="D59" s="27"/>
       <c r="E59" s="27"/>
-      <c r="F59" s="33"/>
+      <c r="F59" s="30"/>
       <c r="G59" s="21">
         <v>0.875</v>
       </c>
@@ -1860,7 +1861,7 @@
       <c r="E61" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F61" s="33"/>
+      <c r="F61" s="30"/>
       <c r="G61" s="25">
         <v>0.90629999999999999</v>
       </c>
@@ -1902,7 +1903,7 @@
         <v>20</v>
       </c>
       <c r="E63" s="27"/>
-      <c r="F63" s="33"/>
+      <c r="F63" s="30"/>
       <c r="G63" s="25">
         <v>0.9375</v>
       </c>
@@ -1944,7 +1945,7 @@
       <c r="E65" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F65" s="33"/>
+      <c r="F65" s="30"/>
       <c r="G65" s="25">
         <v>0.96879999999999999</v>
       </c>
@@ -1963,7 +1964,7 @@
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
-      <c r="F66" s="33" t="s">
+      <c r="F66" s="30" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="25">
@@ -2005,4 +2006,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B563C7AC-3A68-455F-8BBB-4F3FD609B53B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7624D03-32C9-4216-AC90-8E035FADBB26}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3594DF7-5507-411A-B697-7EFD5E999B88}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Decimal and Millimeter" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Standard Electronic Components" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>4ths</t>
   </si>
@@ -95,6 +95,234 @@
   </si>
   <si>
     <t>31/32</t>
+  </si>
+  <si>
+    <t>1.0k</t>
+  </si>
+  <si>
+    <t>1.2k</t>
+  </si>
+  <si>
+    <t>1.5k</t>
+  </si>
+  <si>
+    <t>1.8k</t>
+  </si>
+  <si>
+    <t>2.2k</t>
+  </si>
+  <si>
+    <t>2.7k</t>
+  </si>
+  <si>
+    <t>3.3k</t>
+  </si>
+  <si>
+    <t>3.9k</t>
+  </si>
+  <si>
+    <t>4.7k</t>
+  </si>
+  <si>
+    <t>5.6k</t>
+  </si>
+  <si>
+    <t>6.8k</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>15k</t>
+  </si>
+  <si>
+    <t>22k</t>
+  </si>
+  <si>
+    <t>33k</t>
+  </si>
+  <si>
+    <t>47k</t>
+  </si>
+  <si>
+    <t>68k</t>
+  </si>
+  <si>
+    <t>12k</t>
+  </si>
+  <si>
+    <t>18k</t>
+  </si>
+  <si>
+    <t>27k</t>
+  </si>
+  <si>
+    <t>39k</t>
+  </si>
+  <si>
+    <t>56k</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>120k</t>
+  </si>
+  <si>
+    <t>150k</t>
+  </si>
+  <si>
+    <t>180k</t>
+  </si>
+  <si>
+    <t>220k</t>
+  </si>
+  <si>
+    <t>270k</t>
+  </si>
+  <si>
+    <t>330k</t>
+  </si>
+  <si>
+    <t>390k</t>
+  </si>
+  <si>
+    <t>470k</t>
+  </si>
+  <si>
+    <t>560k</t>
+  </si>
+  <si>
+    <t>680k</t>
+  </si>
+  <si>
+    <t>1.0M</t>
+  </si>
+  <si>
+    <t>1.5M</t>
+  </si>
+  <si>
+    <t>2.2M</t>
+  </si>
+  <si>
+    <t>3.3M</t>
+  </si>
+  <si>
+    <t>4.7M</t>
+  </si>
+  <si>
+    <t>6.8M</t>
+  </si>
+  <si>
+    <t>resistors (5% tolerance) ohms</t>
+  </si>
+  <si>
+    <t>10 pF</t>
+  </si>
+  <si>
+    <t>100 pF</t>
+  </si>
+  <si>
+    <t>0.001 uF</t>
+  </si>
+  <si>
+    <t>0.01 uF</t>
+  </si>
+  <si>
+    <t>0.1 uF</t>
+  </si>
+  <si>
+    <t>1 uF</t>
+  </si>
+  <si>
+    <t>10 uF</t>
+  </si>
+  <si>
+    <t>100 uF</t>
+  </si>
+  <si>
+    <t>22 pF</t>
+  </si>
+  <si>
+    <t>22 uF</t>
+  </si>
+  <si>
+    <t>220 pF</t>
+  </si>
+  <si>
+    <t>220 uF</t>
+  </si>
+  <si>
+    <t>0.0022 uF</t>
+  </si>
+  <si>
+    <t>0.022 uF</t>
+  </si>
+  <si>
+    <t>0.22 uF</t>
+  </si>
+  <si>
+    <t>2.2 uF</t>
+  </si>
+  <si>
+    <t>47 pF</t>
+  </si>
+  <si>
+    <t>47 uF</t>
+  </si>
+  <si>
+    <t>470 pF</t>
+  </si>
+  <si>
+    <t>0.0047 uF</t>
+  </si>
+  <si>
+    <t>470 uF</t>
+  </si>
+  <si>
+    <t>0.047 uF</t>
+  </si>
+  <si>
+    <t>0.47 uF</t>
+  </si>
+  <si>
+    <t>4.7 uF</t>
+  </si>
+  <si>
+    <t>Capacitors</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Current Rating</t>
+  </si>
+  <si>
+    <t>10 uH</t>
+  </si>
+  <si>
+    <t>100 uH</t>
+  </si>
+  <si>
+    <t>1 mH</t>
+  </si>
+  <si>
+    <t>10 mH</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>0.91 A</t>
+  </si>
+  <si>
+    <t>0.15 A</t>
+  </si>
+  <si>
+    <t>0.04 A</t>
+  </si>
+  <si>
+    <t>Inductors</t>
   </si>
 </sst>
 </file>
@@ -139,7 +367,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -265,11 +493,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -321,6 +635,54 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2010,14 +2372,349 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B563C7AC-3A68-455F-8BBB-4F3FD609B53B}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="8" max="8" width="1.85546875" customWidth="1"/>
+    <col min="12" max="12" width="2" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="I2" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
+      <c r="M2" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="38"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="39">
+        <v>10</v>
+      </c>
+      <c r="C3" s="40">
+        <v>100</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="39"/>
+      <c r="C4" s="40">
+        <v>120</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="41"/>
+      <c r="I4" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" s="51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="39">
+        <v>15</v>
+      </c>
+      <c r="C5" s="40">
+        <v>150</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="39"/>
+      <c r="C6" s="40">
+        <v>180</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="41"/>
+      <c r="I6" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" s="47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="39">
+        <v>22</v>
+      </c>
+      <c r="C7" s="40">
+        <v>220</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" s="50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="39"/>
+      <c r="C8" s="40">
+        <v>270</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="41"/>
+      <c r="I8" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="39">
+        <v>33</v>
+      </c>
+      <c r="C9" s="40">
+        <v>330</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="39"/>
+      <c r="C10" s="40">
+        <v>390</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="I10" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="39">
+        <v>47</v>
+      </c>
+      <c r="C11" s="40">
+        <v>470</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="39"/>
+      <c r="C12" s="40">
+        <v>560</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="41"/>
+    </row>
+    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="42">
+        <v>68</v>
+      </c>
+      <c r="C13" s="43">
+        <v>680</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:N2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3594DF7-5507-411A-B697-7EFD5E999B88}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C66B2E-50B3-4CDD-A25D-4F5F81518268}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -334,7 +334,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,13 +358,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="19">
@@ -636,15 +650,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,6 +688,15 @@
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2375,7 +2389,7 @@
   <dimension ref="B1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2388,323 +2402,323 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="I2" s="36" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="I2" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
-      <c r="M2" s="36" t="s">
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+      <c r="M2" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="N2" s="38"/>
+      <c r="N2" s="51"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="39">
+      <c r="B3" s="36">
         <v>10</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="37">
         <v>100</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="M3" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="44" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="39"/>
-      <c r="C4" s="40">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37">
         <v>120</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="I4" s="46" t="s">
+      <c r="G4" s="38"/>
+      <c r="I4" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="47" t="s">
+      <c r="K4" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="N4" s="51" t="s">
+      <c r="N4" s="48" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="39">
+      <c r="B5" s="36">
         <v>15</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="37">
         <v>150</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="47" t="s">
+      <c r="K5" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="M5" s="46" t="s">
+      <c r="M5" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="N5" s="47" t="s">
+      <c r="N5" s="44" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="39"/>
-      <c r="C6" s="40">
+      <c r="B6" s="36"/>
+      <c r="C6" s="37">
         <v>180</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="I6" s="46" t="s">
+      <c r="G6" s="38"/>
+      <c r="I6" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="47" t="s">
+      <c r="K6" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="N6" s="47" t="s">
+      <c r="N6" s="44" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="39">
+      <c r="B7" s="36">
         <v>22</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="37">
         <v>220</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="N7" s="50" t="s">
+      <c r="N7" s="47" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
-      <c r="C8" s="40">
+      <c r="B8" s="36"/>
+      <c r="C8" s="37">
         <v>270</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="I8" s="46" t="s">
+      <c r="G8" s="38"/>
+      <c r="I8" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="47" t="s">
+      <c r="K8" s="44" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="39">
+      <c r="B9" s="36">
         <v>33</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="37">
         <v>330</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="44" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40">
+      <c r="B10" s="36"/>
+      <c r="C10" s="37">
         <v>390</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="I10" s="48" t="s">
+      <c r="G10" s="38"/>
+      <c r="I10" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="49" t="s">
+      <c r="J10" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="47" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="39">
+      <c r="B11" s="36">
         <v>47</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="37">
         <v>470</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="38" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
-      <c r="C12" s="40">
+      <c r="B12" s="36"/>
+      <c r="C12" s="37">
         <v>560</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="41"/>
+      <c r="G12" s="38"/>
     </row>
     <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="42">
+      <c r="B13" s="39">
         <v>68</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="40">
         <v>680</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="41" t="s">
         <v>60</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C66B2E-50B3-4CDD-A25D-4F5F81518268}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF70C0D1-285E-4D7F-8BB1-4132A2B5B84F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,9 +214,6 @@
     <t>6.8M</t>
   </si>
   <si>
-    <t>resistors (5% tolerance) ohms</t>
-  </si>
-  <si>
     <t>10 pF</t>
   </si>
   <si>
@@ -323,6 +320,9 @@
   </si>
   <si>
     <t>Inductors</t>
+  </si>
+  <si>
+    <t>Resistors (5% tolerance) ohms</t>
   </si>
 </sst>
 </file>
@@ -2389,7 +2389,7 @@
   <dimension ref="B1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2403,7 +2403,7 @@
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="49" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -2411,12 +2411,12 @@
       <c r="F2" s="50"/>
       <c r="G2" s="51"/>
       <c r="I2" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J2" s="50"/>
       <c r="K2" s="51"/>
       <c r="M2" s="49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N2" s="51"/>
     </row>
@@ -2440,19 +2440,19 @@
         <v>55</v>
       </c>
       <c r="I3" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K3" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M3" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="44" t="s">
         <v>87</v>
-      </c>
-      <c r="N3" s="44" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -2471,19 +2471,19 @@
       </c>
       <c r="G4" s="38"/>
       <c r="I4" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K4" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M4" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N4" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -2506,19 +2506,19 @@
         <v>56</v>
       </c>
       <c r="I5" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K5" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M5" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N5" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -2537,19 +2537,19 @@
       </c>
       <c r="G6" s="38"/>
       <c r="I6" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J6" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K6" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M6" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N6" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2572,19 +2572,19 @@
         <v>57</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K7" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M7" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N7" s="47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -2603,13 +2603,13 @@
       </c>
       <c r="G8" s="38"/>
       <c r="I8" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J8" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K8" s="44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -2632,13 +2632,13 @@
         <v>58</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J9" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K9" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2657,13 +2657,13 @@
       </c>
       <c r="G10" s="38"/>
       <c r="I10" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J10" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K10" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF70C0D1-285E-4D7F-8BB1-4132A2B5B84F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1BBCAD-E975-4E73-BBC5-B28E9D9A4793}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -597,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -697,6 +697,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2389,7 +2395,7 @@
   <dimension ref="B1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2448,10 +2454,10 @@
       <c r="K3" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="44" t="s">
+      <c r="N3" s="53" t="s">
         <v>87</v>
       </c>
     </row>

--- a/Useful Resources/Useful .xlsx
+++ b/Useful Resources/Useful .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\Hardware\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1BBCAD-E975-4E73-BBC5-B28E9D9A4793}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A773CB-E234-4C08-A895-62E3A97B3F6D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Decimal and Millimeter" sheetId="1" r:id="rId1"/>
@@ -367,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +377,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,10 +606,6 @@
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -641,15 +643,6 @@
     </xf>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="13" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -703,6 +696,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,62 +1006,62 @@
   <sheetData>
     <row r="1" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
         <v>1.5625E-2</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="10">
         <v>1.6E-2</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="10">
         <v>0.02</v>
       </c>
       <c r="J4" s="1">
@@ -1063,41 +1069,41 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="20">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="18">
         <v>3.125E-2</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="27">
+      <c r="F5" s="18"/>
+      <c r="G5" s="25">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="25">
         <v>3.1E-2</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="26">
         <v>0.03</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="24">
         <v>0.79400000000000004</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
         <v>4.6875E-2</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <v>4.7E-2</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="16">
         <v>0.05</v>
       </c>
       <c r="J6" s="1">
@@ -1105,41 +1111,41 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="20">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="18">
         <v>6.25E-2</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="25">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="23">
         <v>6.25E-2</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="23">
         <v>6.2E-2</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="21">
         <v>0.06</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="24">
         <v>1.5880000000000001</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
         <v>7.8125E-2</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="11">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="11">
         <v>7.8E-2</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="16">
         <v>0.08</v>
       </c>
       <c r="J8" s="1">
@@ -1147,41 +1153,41 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="20">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="18">
         <v>9.375E-2</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="25">
+      <c r="F9" s="18"/>
+      <c r="G9" s="23">
         <v>9.3799999999999994E-2</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="23">
         <v>9.4E-2</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="21">
         <v>0.09</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="24">
         <v>2.3809999999999998</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
         <v>0.109375</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="11">
         <v>0.1094</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="11">
         <v>0.109</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="16">
         <v>0.11</v>
       </c>
       <c r="J10" s="1">
@@ -1189,41 +1195,41 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="20">
+      <c r="B11" s="5"/>
+      <c r="C11" s="18">
         <v>0.125</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21">
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19">
         <v>0.125</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="23">
         <v>0.125</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="21">
         <v>0.12</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="24">
         <v>3.1749999999999998</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
         <v>0.140625</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="11">
         <v>0.1406</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="11">
         <v>0.14099999999999999</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="16">
         <v>0.14000000000000001</v>
       </c>
       <c r="J12" s="1">
@@ -1231,41 +1237,41 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="20">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="18">
         <v>0.15625</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="25">
+      <c r="F13" s="18"/>
+      <c r="G13" s="23">
         <v>0.15620000000000001</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="23">
         <v>0.156</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="21">
         <v>0.16</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="24">
         <v>3.9689999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
         <v>0.171875</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="11">
         <v>0.1719</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="11">
         <v>0.17199999999999999</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="16">
         <v>0.17</v>
       </c>
       <c r="J14" s="1">
@@ -1273,41 +1279,41 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="20">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="18">
         <v>0.1875</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="25">
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="23">
         <v>0.1875</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="23">
         <v>0.188</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="21">
         <v>0.19</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="24">
         <v>4.7619999999999996</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5">
         <v>0.203125</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="11">
         <v>0.2031</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="11">
         <v>0.20300000000000001</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="16">
         <v>0.2</v>
       </c>
       <c r="J16" s="1">
@@ -1315,41 +1321,41 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="20">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="18">
         <v>0.21875</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="25">
+      <c r="F17" s="18"/>
+      <c r="G17" s="23">
         <v>0.21879999999999999</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="23">
         <v>0.219</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="21">
         <v>0.22</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="24">
         <v>5.556</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
         <v>0.234375</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="11">
         <v>0.2344</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="11">
         <v>0.23400000000000001</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="16">
         <v>0.23</v>
       </c>
       <c r="J18" s="1">
@@ -1357,41 +1363,41 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="20">
+      <c r="B19" s="18">
         <v>0.25</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19">
         <v>0.25</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="20">
         <v>0.25</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="21">
         <v>0.25</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="22">
         <v>6.35</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5">
         <v>0.265625</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="11">
         <v>0.2656</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="11">
         <v>0.26600000000000001</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="16">
         <v>0.27</v>
       </c>
       <c r="J20" s="1">
@@ -1399,41 +1405,41 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="20">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="18">
         <v>0.28125</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="25">
+      <c r="F21" s="18"/>
+      <c r="G21" s="23">
         <v>0.28120000000000001</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="23">
         <v>0.28100000000000003</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="21">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="24">
         <v>7.1440000000000001</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5">
         <v>0.296875</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="11">
         <v>0.2969</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="11">
         <v>0.29699999999999999</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="16">
         <v>0.3</v>
       </c>
       <c r="J22" s="1">
@@ -1441,41 +1447,41 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="20">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="18">
         <v>0.3125</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="25">
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="23">
         <v>0.3125</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="23">
         <v>0.312</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="21">
         <v>0.31</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="24">
         <v>7.9379999999999997</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5">
         <v>0.328125</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="11">
         <v>0.3281</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="11">
         <v>0.32800000000000001</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="16">
         <v>0.33</v>
       </c>
       <c r="J24" s="1">
@@ -1483,41 +1489,41 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="20">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="18">
         <v>0.34375</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="25">
+      <c r="F25" s="18"/>
+      <c r="G25" s="23">
         <v>0.34379999999999999</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="23">
         <v>0.34399999999999997</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="21">
         <v>0.34</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J25" s="24">
         <v>8.7309999999999999</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5">
         <v>0.359375</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="11">
         <v>0.3594</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="11">
         <v>0.35899999999999999</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="16">
         <v>0.36</v>
       </c>
       <c r="J26" s="1">
@@ -1525,41 +1531,41 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="20">
+      <c r="B27" s="5"/>
+      <c r="C27" s="18">
         <v>0.375</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21">
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19">
         <v>0.375</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="23">
         <v>0.375</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="21">
         <v>0.38</v>
       </c>
-      <c r="J27" s="26">
+      <c r="J27" s="24">
         <v>9.5250000000000004</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5">
         <v>0.390625</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="11">
         <v>0.3906</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="11">
         <v>0.39100000000000001</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="16">
         <v>0.39</v>
       </c>
       <c r="J28" s="1">
@@ -1567,41 +1573,41 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="20">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="18">
         <v>0.40625</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="25">
+      <c r="F29" s="18"/>
+      <c r="G29" s="23">
         <v>0.40620000000000001</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="23">
         <v>0.40600000000000003</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="21">
         <v>0.41</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J29" s="24">
         <v>10.319000000000001</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5">
         <v>0.421875</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="11">
         <v>0.4219</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="11">
         <v>0.42199999999999999</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="16">
         <v>0.42</v>
       </c>
       <c r="J30" s="1">
@@ -1609,41 +1615,41 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="20">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="18">
         <v>0.4375</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="25">
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="23">
         <v>0.4375</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="23">
         <v>0.438</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="21">
         <v>0.44</v>
       </c>
-      <c r="J31" s="26">
+      <c r="J31" s="24">
         <v>11.112</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5">
         <v>0.453125</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="11">
         <v>0.4531</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="11">
         <v>0.45300000000000001</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="16">
         <v>0.45</v>
       </c>
       <c r="J32" s="1">
@@ -1651,123 +1657,123 @@
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="20">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="18">
         <v>0.46875</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="25">
+      <c r="F33" s="18"/>
+      <c r="G33" s="23">
         <v>0.46879999999999999</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="23">
         <v>0.46899999999999997</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="21">
         <v>0.47</v>
       </c>
-      <c r="J33" s="26">
+      <c r="J33" s="24">
         <v>11.906000000000001</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="20">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="18">
         <v>0.484375</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="23">
         <v>0.4844</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="23">
         <v>0.48399999999999999</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="21">
         <v>0.48</v>
       </c>
-      <c r="J34" s="26">
+      <c r="J34" s="24">
         <v>12.303000000000001</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="14">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="12">
         <v>0.5</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="14">
         <v>0.5</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="16">
         <v>0.5</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="3">
         <v>12.7</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="20">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="18">
         <v>0.515625</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="23">
         <v>0.51559999999999995</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="23">
         <v>0.51600000000000001</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="21">
         <v>0.52</v>
       </c>
-      <c r="J36" s="26">
+      <c r="J36" s="24">
         <v>13.097</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="20">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="18">
         <v>0.53125</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="25">
+      <c r="F37" s="18"/>
+      <c r="G37" s="23">
         <v>0.53120000000000001</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="23">
         <v>0.53100000000000003</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="21">
         <v>0.53</v>
       </c>
-      <c r="J37" s="26">
+      <c r="J37" s="24">
         <v>13.494</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5">
         <v>0.546875</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="11">
         <v>0.54690000000000005</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="11">
         <v>0.54700000000000004</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I38" s="16">
         <v>0.55000000000000004</v>
       </c>
       <c r="J38" s="1">
@@ -1775,41 +1781,41 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="20">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="18">
         <v>0.5625</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="25">
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="23">
         <v>0.5625</v>
       </c>
-      <c r="H39" s="25">
+      <c r="H39" s="23">
         <v>0.56200000000000006</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="21">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J39" s="26">
+      <c r="J39" s="24">
         <v>14.288</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5">
         <v>0.578125</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="11">
         <v>0.57809999999999995</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="11">
         <v>0.57799999999999996</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I40" s="16">
         <v>0.57999999999999996</v>
       </c>
       <c r="J40" s="1">
@@ -1817,41 +1823,41 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="20">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="18">
         <v>0.59375</v>
       </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="25">
+      <c r="F41" s="18"/>
+      <c r="G41" s="23">
         <v>0.59379999999999999</v>
       </c>
-      <c r="H41" s="25">
+      <c r="H41" s="23">
         <v>0.59399999999999997</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="21">
         <v>0.59</v>
       </c>
-      <c r="J41" s="26">
+      <c r="J41" s="24">
         <v>15.081</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5">
         <v>0.609375</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="11">
         <v>0.60940000000000005</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="11">
         <v>0.60899999999999999</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I42" s="16">
         <v>0.61</v>
       </c>
       <c r="J42" s="1">
@@ -1859,41 +1865,41 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="7"/>
-      <c r="C43" s="20">
+      <c r="B43" s="5"/>
+      <c r="C43" s="18">
         <v>0.625</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="21">
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="19">
         <v>0.625</v>
       </c>
-      <c r="H43" s="25">
+      <c r="H43" s="23">
         <v>0.625</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I43" s="21">
         <v>0.62</v>
       </c>
-      <c r="J43" s="26">
+      <c r="J43" s="24">
         <v>15.875</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5">
         <v>0.640625</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="11">
         <v>0.64059999999999995</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="11">
         <v>0.64100000000000001</v>
       </c>
-      <c r="I44" s="18">
+      <c r="I44" s="16">
         <v>0.64</v>
       </c>
       <c r="J44" s="1">
@@ -1901,41 +1907,41 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="20">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="18">
         <v>0.65625</v>
       </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="25">
+      <c r="F45" s="18"/>
+      <c r="G45" s="23">
         <v>0.65620000000000001</v>
       </c>
-      <c r="H45" s="25">
+      <c r="H45" s="23">
         <v>0.65600000000000003</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I45" s="21">
         <v>0.66</v>
       </c>
-      <c r="J45" s="26">
+      <c r="J45" s="24">
         <v>16.669</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5">
         <v>0.671875</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="11">
         <v>0.67190000000000005</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="11">
         <v>0.67200000000000004</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I46" s="16">
         <v>0.67</v>
       </c>
       <c r="J46" s="1">
@@ -1943,41 +1949,41 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="20">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="18">
         <v>0.6875</v>
       </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="25">
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="23">
         <v>0.6875</v>
       </c>
-      <c r="H47" s="25">
+      <c r="H47" s="23">
         <v>0.68799999999999994</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="21">
         <v>0.69</v>
       </c>
-      <c r="J47" s="26">
+      <c r="J47" s="24">
         <v>17.462</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5">
         <v>0.703125</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G48" s="11">
         <v>0.70309999999999995</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="11">
         <v>0.70299999999999996</v>
       </c>
-      <c r="I48" s="18">
+      <c r="I48" s="16">
         <v>0.7</v>
       </c>
       <c r="J48" s="1">
@@ -1985,41 +1991,41 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="20">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="18">
         <v>0.71875</v>
       </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="25">
+      <c r="F49" s="18"/>
+      <c r="G49" s="23">
         <v>0.71879999999999999</v>
       </c>
-      <c r="H49" s="25">
+      <c r="H49" s="23">
         <v>0.71899999999999997</v>
       </c>
-      <c r="I49" s="23">
+      <c r="I49" s="21">
         <v>0.72</v>
       </c>
-      <c r="J49" s="26">
+      <c r="J49" s="24">
         <v>18.256</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7">
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5">
         <v>0.734375</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50" s="11">
         <v>0.73440000000000005</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="11">
         <v>0.73399999999999999</v>
       </c>
-      <c r="I50" s="18">
+      <c r="I50" s="16">
         <v>0.73</v>
       </c>
       <c r="J50" s="1">
@@ -2027,41 +2033,41 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="20">
+      <c r="B51" s="18">
         <v>0.75</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="21">
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="19">
         <v>0.75</v>
       </c>
-      <c r="H51" s="22">
+      <c r="H51" s="20">
         <v>0.75</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="21">
         <v>0.75</v>
       </c>
-      <c r="J51" s="24">
+      <c r="J51" s="22">
         <v>19.05</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5">
         <v>0.765625</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="11">
         <v>0.76559999999999995</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H52" s="11">
         <v>0.76600000000000001</v>
       </c>
-      <c r="I52" s="18">
+      <c r="I52" s="16">
         <v>0.77</v>
       </c>
       <c r="J52" s="1">
@@ -2069,41 +2075,41 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="20">
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="18">
         <v>0.78125</v>
       </c>
-      <c r="F53" s="29"/>
-      <c r="G53" s="25">
+      <c r="F53" s="27"/>
+      <c r="G53" s="23">
         <v>0.78129999999999999</v>
       </c>
-      <c r="H53" s="25">
+      <c r="H53" s="23">
         <v>0.78100000000000003</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="21">
         <v>0.78</v>
       </c>
-      <c r="J53" s="26">
+      <c r="J53" s="24">
         <v>19.844000000000001</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="10" t="s">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G54" s="11">
         <v>0.79690000000000005</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H54" s="11">
         <v>0.79700000000000004</v>
       </c>
-      <c r="I54" s="18">
+      <c r="I54" s="16">
         <v>0.8</v>
       </c>
       <c r="J54" s="1">
@@ -2111,41 +2117,41 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="27" t="s">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="27"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="25">
+      <c r="E55" s="25"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="23">
         <v>0.8125</v>
       </c>
-      <c r="H55" s="25">
+      <c r="H55" s="23">
         <v>0.81200000000000006</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I55" s="21">
         <v>0.81</v>
       </c>
-      <c r="J55" s="26">
+      <c r="J55" s="24">
         <v>20.638000000000002</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="10" t="s">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G56" s="11">
         <v>0.82809999999999995</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H56" s="11">
         <v>0.82799999999999996</v>
       </c>
-      <c r="I56" s="18">
+      <c r="I56" s="16">
         <v>0.83</v>
       </c>
       <c r="J56" s="1">
@@ -2153,41 +2159,41 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="27" t="s">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="30"/>
-      <c r="G57" s="25">
+      <c r="F57" s="28"/>
+      <c r="G57" s="23">
         <v>0.84379999999999999</v>
       </c>
-      <c r="H57" s="25">
+      <c r="H57" s="23">
         <v>0.84399999999999997</v>
       </c>
-      <c r="I57" s="23">
+      <c r="I57" s="21">
         <v>0.84</v>
       </c>
-      <c r="J57" s="26">
+      <c r="J57" s="24">
         <v>21.431000000000001</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="10" t="s">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G58" s="11">
         <v>0.85940000000000005</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H58" s="11">
         <v>0.85899999999999999</v>
       </c>
-      <c r="I58" s="18">
+      <c r="I58" s="16">
         <v>0.86</v>
       </c>
       <c r="J58" s="1">
@@ -2195,41 +2201,41 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="32"/>
-      <c r="C59" s="31">
+      <c r="B59" s="30"/>
+      <c r="C59" s="29">
         <v>0.875</v>
       </c>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="21">
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="19">
         <v>0.875</v>
       </c>
-      <c r="H59" s="25">
+      <c r="H59" s="23">
         <v>0.875</v>
       </c>
-      <c r="I59" s="23">
+      <c r="I59" s="21">
         <v>0.88</v>
       </c>
-      <c r="J59" s="26">
+      <c r="J59" s="24">
         <v>22.225000000000001</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="10" t="s">
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G60" s="11">
         <v>0.89059999999999995</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H60" s="11">
         <v>0.89100000000000001</v>
       </c>
-      <c r="I60" s="18">
+      <c r="I60" s="16">
         <v>0.89</v>
       </c>
       <c r="J60" s="1">
@@ -2237,41 +2243,41 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="27" t="s">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F61" s="30"/>
-      <c r="G61" s="25">
+      <c r="F61" s="28"/>
+      <c r="G61" s="23">
         <v>0.90629999999999999</v>
       </c>
-      <c r="H61" s="25">
+      <c r="H61" s="23">
         <v>0.90600000000000003</v>
       </c>
-      <c r="I61" s="23">
+      <c r="I61" s="21">
         <v>0.91</v>
       </c>
-      <c r="J61" s="26">
+      <c r="J61" s="24">
         <v>23.018999999999998</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="10" t="s">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G62" s="11">
         <v>0.92190000000000005</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H62" s="11">
         <v>0.92200000000000004</v>
       </c>
-      <c r="I62" s="18">
+      <c r="I62" s="16">
         <v>0.92</v>
       </c>
       <c r="J62" s="1">
@@ -2279,41 +2285,41 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="27" t="s">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="27"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="25">
+      <c r="E63" s="25"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="23">
         <v>0.9375</v>
       </c>
-      <c r="H63" s="25">
+      <c r="H63" s="23">
         <v>0.93799999999999994</v>
       </c>
-      <c r="I63" s="23">
+      <c r="I63" s="21">
         <v>0.94</v>
       </c>
-      <c r="J63" s="26">
+      <c r="J63" s="24">
         <v>23.812000000000001</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="10" t="s">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G64" s="11">
         <v>0.95309999999999995</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H64" s="11">
         <v>0.95299999999999996</v>
       </c>
-      <c r="I64" s="18">
+      <c r="I64" s="16">
         <v>0.95</v>
       </c>
       <c r="J64" s="1">
@@ -2321,63 +2327,63 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="27" t="s">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F65" s="30"/>
-      <c r="G65" s="25">
+      <c r="F65" s="28"/>
+      <c r="G65" s="23">
         <v>0.96879999999999999</v>
       </c>
-      <c r="H65" s="25">
+      <c r="H65" s="23">
         <v>0.96899999999999997</v>
       </c>
-      <c r="I65" s="23">
+      <c r="I65" s="21">
         <v>0.97</v>
       </c>
-      <c r="J65" s="26">
+      <c r="J65" s="24">
         <v>24.606000000000002</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="30" t="s">
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G66" s="25">
+      <c r="G66" s="23">
         <v>0.98440000000000005</v>
       </c>
-      <c r="H66" s="25">
+      <c r="H66" s="23">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I66" s="23">
+      <c r="I66" s="21">
         <v>0.98</v>
       </c>
-      <c r="J66" s="26">
+      <c r="J66" s="24">
         <v>25.003</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="15">
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="13">
         <v>1</v>
       </c>
-      <c r="H67" s="17">
+      <c r="H67" s="15">
         <v>1</v>
       </c>
-      <c r="I67" s="19">
+      <c r="I67" s="17">
         <v>1</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J67" s="2">
         <v>25.4</v>
       </c>
     </row>
@@ -2394,7 +2400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B563C7AC-3A68-455F-8BBB-4F3FD609B53B}">
   <dimension ref="B1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
@@ -2408,323 +2414,323 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="I2" s="49" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="I2" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-      <c r="M2" s="49" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
+      <c r="M2" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="N2" s="51"/>
+      <c r="N2" s="46"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="36">
+      <c r="B3" s="31">
         <v>10</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="32">
         <v>100</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="52" t="s">
+      <c r="M3" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="53" t="s">
+      <c r="N3" s="48" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="36"/>
-      <c r="C4" s="37">
+      <c r="B4" s="31"/>
+      <c r="C4" s="32">
         <v>120</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="I4" s="43" t="s">
+      <c r="G4" s="33"/>
+      <c r="I4" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="N4" s="48" t="s">
+      <c r="N4" s="43" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="36">
+      <c r="B5" s="31">
         <v>15</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="32">
         <v>150</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="43" t="s">
+      <c r="M5" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="N5" s="44" t="s">
+      <c r="N5" s="39" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="37">
+      <c r="B6" s="31"/>
+      <c r="C6" s="32">
         <v>180</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="33"/>
+      <c r="I6" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="M6" s="43" t="s">
+      <c r="M6" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="39" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36">
+      <c r="B7" s="31">
         <v>22</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="32">
         <v>220</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="K7" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="M7" s="45" t="s">
+      <c r="M7" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="42" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="36"/>
-      <c r="C8" s="37">
+      <c r="B8" s="31"/>
+      <c r="C8" s="32">
         <v>270</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="I8" s="43" t="s">
+      <c r="G8" s="33"/>
+      <c r="I8" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="42" t="s">
+      <c r="J8" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="K8" s="39" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="36">
+      <c r="B9" s="31">
         <v>33</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="32">
         <v>330</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="42" t="s">
+      <c r="J9" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="K9" s="44" t="s">
+      <c r="K9" s="39" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="36"/>
-      <c r="C10" s="37">
+      <c r="B10" s="31"/>
+      <c r="C10" s="32">
         <v>390</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="I10" s="45" t="s">
+      <c r="G10" s="33"/>
+      <c r="I10" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="46" t="s">
+      <c r="J10" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="47" t="s">
+      <c r="K10" s="42" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="36">
+      <c r="B11" s="31">
         <v>47</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="32">
         <v>470</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="36"/>
-      <c r="C12" s="37">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32">
         <v>560</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="38"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="39">
+      <c r="B13" s="34">
         <v>68</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="35">
         <v>680</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="36" t="s">
         <v>60</v>
       </c>
     </row>
